--- a/backend/static/test.xlsx
+++ b/backend/static/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\app\backend\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233FE829-EEC6-4F77-A562-5D9D4BC954E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE94B57-BD41-4BE3-8B6A-42E686CC3CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1122,7 +1122,7 @@
     </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1301,12 +1301,6 @@
     <xf numFmtId="14" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1376,7 +1370,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1403,7 +1397,7 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="5" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1556,7 +1550,7 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1587,6 +1581,48 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1898,10 +1934,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
+      <selection pane="bottomLeft" activeCell="L86" sqref="L86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1921,7 +1957,7 @@
     <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.28515625" style="69" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
@@ -1929,68 +1965,68 @@
     <col min="21" max="21" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+    <row r="1" spans="1:21" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="66" t="s">
         <v>237</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="68" t="s">
+      <c r="F1" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="68" t="s">
+      <c r="G1" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="68" t="s">
+      <c r="H1" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="68" t="s">
+      <c r="I1" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="68" t="s">
+      <c r="J1" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="68" t="s">
+      <c r="K1" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="68" t="s">
+      <c r="L1" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="68" t="s">
+      <c r="M1" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="68" t="s">
+      <c r="N1" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="68" t="s">
+      <c r="O1" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="68" t="s">
+      <c r="P1" s="66" t="s">
         <v>14</v>
       </c>
       <c r="Q1" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="68" t="s">
+      <c r="R1" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="79" t="s">
+      <c r="S1" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="68" t="s">
+      <c r="T1" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="68" t="s">
+      <c r="U1" s="66" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2007,29 +2043,29 @@
       <c r="D2" s="1">
         <v>504174</v>
       </c>
-      <c r="E2" s="81" t="s">
+      <c r="E2" s="79" t="s">
         <v>24</v>
       </c>
       <c r="F2" s="1">
         <v>5</v>
       </c>
-      <c r="G2" s="82" t="s">
+      <c r="G2" s="80" t="s">
         <v>25</v>
       </c>
       <c r="H2" s="2"/>
-      <c r="I2" s="73">
+      <c r="I2" s="71">
         <v>44994</v>
       </c>
       <c r="J2" s="3">
         <v>10019716</v>
       </c>
-      <c r="K2" s="83">
+      <c r="K2" s="81">
         <v>45146</v>
       </c>
       <c r="L2" s="4">
         <v>4500020380</v>
       </c>
-      <c r="M2" s="84">
+      <c r="M2" s="82">
         <v>45174</v>
       </c>
       <c r="N2" s="4"/>
@@ -2043,7 +2079,7 @@
         <v>234</v>
       </c>
       <c r="R2" s="4"/>
-      <c r="S2" s="84"/>
+      <c r="S2" s="82"/>
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
     </row>
@@ -2070,19 +2106,19 @@
         <v>25</v>
       </c>
       <c r="H3" s="5"/>
-      <c r="I3" s="73">
+      <c r="I3" s="71">
         <v>44995</v>
       </c>
       <c r="J3" s="3">
         <v>10019716</v>
       </c>
-      <c r="K3" s="83">
+      <c r="K3" s="81">
         <v>45146</v>
       </c>
       <c r="L3" s="4">
         <v>4500020380</v>
       </c>
-      <c r="M3" s="84">
+      <c r="M3" s="82">
         <v>45174</v>
       </c>
       <c r="N3" s="4"/>
@@ -2096,7 +2132,7 @@
         <v>234</v>
       </c>
       <c r="R3" s="4"/>
-      <c r="S3" s="84"/>
+      <c r="S3" s="82"/>
       <c r="T3" s="4"/>
       <c r="U3" s="4"/>
     </row>
@@ -2123,19 +2159,19 @@
         <v>32</v>
       </c>
       <c r="H4" s="5"/>
-      <c r="I4" s="73">
+      <c r="I4" s="71">
         <v>45005</v>
       </c>
       <c r="J4" s="3">
         <v>10019717</v>
       </c>
-      <c r="K4" s="83">
+      <c r="K4" s="81">
         <v>45146</v>
       </c>
       <c r="L4" s="4">
         <v>4500020379</v>
       </c>
-      <c r="M4" s="84">
+      <c r="M4" s="82">
         <v>45174</v>
       </c>
       <c r="N4" s="4"/>
@@ -2149,7 +2185,7 @@
         <v>234</v>
       </c>
       <c r="R4" s="4"/>
-      <c r="S4" s="84"/>
+      <c r="S4" s="82"/>
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
     </row>
@@ -2176,19 +2212,19 @@
         <v>32</v>
       </c>
       <c r="H5" s="5"/>
-      <c r="I5" s="73">
+      <c r="I5" s="71">
         <v>44980</v>
       </c>
       <c r="J5" s="3">
         <v>10019717</v>
       </c>
-      <c r="K5" s="83">
+      <c r="K5" s="81">
         <v>45146</v>
       </c>
       <c r="L5" s="4">
         <v>4500020379</v>
       </c>
-      <c r="M5" s="84">
+      <c r="M5" s="82">
         <v>45174</v>
       </c>
       <c r="N5" s="4"/>
@@ -2202,7 +2238,7 @@
         <v>234</v>
       </c>
       <c r="R5" s="4"/>
-      <c r="S5" s="84"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
     </row>
@@ -2229,19 +2265,19 @@
         <v>33</v>
       </c>
       <c r="H6" s="5"/>
-      <c r="I6" s="73">
+      <c r="I6" s="71">
         <v>44980</v>
       </c>
       <c r="J6" s="3">
         <v>10019717</v>
       </c>
-      <c r="K6" s="83">
+      <c r="K6" s="81">
         <v>45146</v>
       </c>
       <c r="L6" s="4">
         <v>4500020379</v>
       </c>
-      <c r="M6" s="84">
+      <c r="M6" s="82">
         <v>45174</v>
       </c>
       <c r="N6" s="4"/>
@@ -2255,7 +2291,7 @@
         <v>234</v>
       </c>
       <c r="R6" s="4"/>
-      <c r="S6" s="84"/>
+      <c r="S6" s="82"/>
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
     </row>
@@ -2282,19 +2318,19 @@
         <v>34</v>
       </c>
       <c r="H7" s="5"/>
-      <c r="I7" s="73">
+      <c r="I7" s="71">
         <v>44980</v>
       </c>
       <c r="J7" s="3">
         <v>10019717</v>
       </c>
-      <c r="K7" s="83">
+      <c r="K7" s="81">
         <v>45146</v>
       </c>
       <c r="L7" s="4">
         <v>4500020379</v>
       </c>
-      <c r="M7" s="84">
+      <c r="M7" s="82">
         <v>45174</v>
       </c>
       <c r="N7" s="4"/>
@@ -2308,7 +2344,7 @@
         <v>234</v>
       </c>
       <c r="R7" s="4"/>
-      <c r="S7" s="84"/>
+      <c r="S7" s="82"/>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
     </row>
@@ -2335,19 +2371,19 @@
         <v>37</v>
       </c>
       <c r="H8" s="5"/>
-      <c r="I8" s="73">
+      <c r="I8" s="71">
         <v>45041</v>
       </c>
       <c r="J8" s="3">
         <v>10019712</v>
       </c>
-      <c r="K8" s="83">
+      <c r="K8" s="81">
         <v>45146</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="156">
         <v>4500020381</v>
       </c>
-      <c r="M8" s="84">
+      <c r="M8" s="82">
         <v>45174</v>
       </c>
       <c r="N8" s="4"/>
@@ -2361,7 +2397,7 @@
         <v>234</v>
       </c>
       <c r="R8" s="4"/>
-      <c r="S8" s="84"/>
+      <c r="S8" s="82"/>
       <c r="T8" s="6"/>
       <c r="U8" s="4"/>
     </row>
@@ -2388,19 +2424,19 @@
         <v>37</v>
       </c>
       <c r="H9" s="5"/>
-      <c r="I9" s="73">
+      <c r="I9" s="71">
         <v>45041</v>
       </c>
       <c r="J9" s="3">
         <v>10019712</v>
       </c>
-      <c r="K9" s="83">
+      <c r="K9" s="81">
         <v>45146</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="156">
         <v>4500020381</v>
       </c>
-      <c r="M9" s="84">
+      <c r="M9" s="82">
         <v>45174</v>
       </c>
       <c r="N9" s="4"/>
@@ -2414,7 +2450,7 @@
         <v>234</v>
       </c>
       <c r="R9" s="6"/>
-      <c r="S9" s="85"/>
+      <c r="S9" s="83"/>
       <c r="T9" s="6"/>
       <c r="U9" s="6"/>
     </row>
@@ -2441,19 +2477,19 @@
         <v>46</v>
       </c>
       <c r="H10" s="9"/>
-      <c r="I10" s="73">
+      <c r="I10" s="71">
         <v>45042</v>
       </c>
       <c r="J10" s="4">
         <v>10019548</v>
       </c>
-      <c r="K10" s="83">
+      <c r="K10" s="81">
         <v>45135</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="157">
         <v>4500019238</v>
       </c>
-      <c r="M10" s="84">
+      <c r="M10" s="82">
         <v>45124</v>
       </c>
       <c r="N10" s="4"/>
@@ -2467,7 +2503,7 @@
         <v>234</v>
       </c>
       <c r="R10" s="4"/>
-      <c r="S10" s="84"/>
+      <c r="S10" s="82"/>
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
     </row>
@@ -2494,19 +2530,19 @@
         <v>49</v>
       </c>
       <c r="H11" s="11"/>
-      <c r="I11" s="73">
+      <c r="I11" s="71">
         <v>45043</v>
       </c>
       <c r="J11" s="4">
         <v>10019548</v>
       </c>
-      <c r="K11" s="83">
+      <c r="K11" s="81">
         <v>45135</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="157">
         <v>4500019238</v>
       </c>
-      <c r="M11" s="85">
+      <c r="M11" s="83">
         <v>45124</v>
       </c>
       <c r="N11" s="6"/>
@@ -2520,7 +2556,7 @@
         <v>234</v>
       </c>
       <c r="R11" s="6"/>
-      <c r="S11" s="85"/>
+      <c r="S11" s="83"/>
       <c r="T11" s="6"/>
       <c r="U11" s="6"/>
     </row>
@@ -2547,19 +2583,19 @@
         <v>53</v>
       </c>
       <c r="H12" s="11"/>
-      <c r="I12" s="73">
+      <c r="I12" s="71">
         <v>45044</v>
       </c>
       <c r="J12" s="6">
         <v>10018550</v>
       </c>
-      <c r="K12" s="86">
+      <c r="K12" s="84">
         <v>45097</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="156">
         <v>4500019162</v>
       </c>
-      <c r="M12" s="85">
+      <c r="M12" s="83">
         <v>45119</v>
       </c>
       <c r="N12" s="6"/>
@@ -2575,7 +2611,7 @@
       <c r="R12" s="6">
         <v>2311563</v>
       </c>
-      <c r="S12" s="85">
+      <c r="S12" s="83">
         <v>45194</v>
       </c>
       <c r="T12" s="6"/>
@@ -2604,19 +2640,19 @@
         <v>53</v>
       </c>
       <c r="H13" s="2"/>
-      <c r="I13" s="73">
+      <c r="I13" s="71">
         <v>45045</v>
       </c>
       <c r="J13" s="4">
         <v>10018548</v>
       </c>
-      <c r="K13" s="86">
+      <c r="K13" s="84">
         <v>45097</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="156">
         <v>4500019238</v>
       </c>
-      <c r="M13" s="85">
+      <c r="M13" s="83">
         <v>45124</v>
       </c>
       <c r="N13" s="6"/>
@@ -2632,7 +2668,7 @@
       <c r="R13" s="6">
         <v>2310468</v>
       </c>
-      <c r="S13" s="85">
+      <c r="S13" s="83">
         <v>45173</v>
       </c>
       <c r="T13" s="6"/>
@@ -2663,19 +2699,19 @@
         <v>53</v>
       </c>
       <c r="H14" s="2"/>
-      <c r="I14" s="73">
+      <c r="I14" s="71">
         <v>45046</v>
       </c>
       <c r="J14" s="4">
         <v>10018548</v>
       </c>
-      <c r="K14" s="86">
+      <c r="K14" s="84">
         <v>45097</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="156">
         <v>4500019238</v>
       </c>
-      <c r="M14" s="85">
+      <c r="M14" s="83">
         <v>45124</v>
       </c>
       <c r="N14" s="6"/>
@@ -2689,7 +2725,7 @@
         <v>234</v>
       </c>
       <c r="R14" s="6"/>
-      <c r="S14" s="85"/>
+      <c r="S14" s="83"/>
       <c r="T14" s="6"/>
       <c r="U14" s="6"/>
     </row>
@@ -2703,7 +2739,7 @@
       <c r="C15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="87">
+      <c r="D15" s="85">
         <v>504183</v>
       </c>
       <c r="E15" s="4" t="s">
@@ -2716,19 +2752,19 @@
         <v>53</v>
       </c>
       <c r="H15" s="2"/>
-      <c r="I15" s="73">
+      <c r="I15" s="71">
         <v>45047</v>
       </c>
       <c r="J15" s="4">
         <v>10018548</v>
       </c>
-      <c r="K15" s="83">
+      <c r="K15" s="81">
         <v>45097</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="157">
         <v>4500019238</v>
       </c>
-      <c r="M15" s="84">
+      <c r="M15" s="82">
         <v>45124</v>
       </c>
       <c r="N15" s="4"/>
@@ -2744,7 +2780,7 @@
       <c r="R15" s="6">
         <v>2310468</v>
       </c>
-      <c r="S15" s="85">
+      <c r="S15" s="83">
         <v>45173</v>
       </c>
       <c r="T15" s="6"/>
@@ -2775,19 +2811,19 @@
         <v>53</v>
       </c>
       <c r="H16" s="2"/>
-      <c r="I16" s="73">
+      <c r="I16" s="71">
         <v>45048</v>
       </c>
       <c r="J16" s="4">
         <v>10018548</v>
       </c>
-      <c r="K16" s="83">
+      <c r="K16" s="81">
         <v>45097</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="157">
         <v>4500019238</v>
       </c>
-      <c r="M16" s="84">
+      <c r="M16" s="82">
         <v>45124</v>
       </c>
       <c r="N16" s="4"/>
@@ -2801,7 +2837,7 @@
         <v>234</v>
       </c>
       <c r="R16" s="4"/>
-      <c r="S16" s="84"/>
+      <c r="S16" s="82"/>
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
     </row>
@@ -2818,7 +2854,7 @@
       <c r="D17" s="7">
         <v>502295</v>
       </c>
-      <c r="E17" s="88" t="s">
+      <c r="E17" s="86" t="s">
         <v>40</v>
       </c>
       <c r="F17" s="6">
@@ -2828,19 +2864,19 @@
         <v>53</v>
       </c>
       <c r="H17" s="11"/>
-      <c r="I17" s="73">
+      <c r="I17" s="71">
         <v>45049</v>
       </c>
       <c r="J17" s="6">
         <v>10018548</v>
       </c>
-      <c r="K17" s="86">
+      <c r="K17" s="84">
         <v>45097</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17" s="156">
         <v>4500019238</v>
       </c>
-      <c r="M17" s="85">
+      <c r="M17" s="83">
         <v>45124</v>
       </c>
       <c r="N17" s="6"/>
@@ -2854,7 +2890,7 @@
         <v>234</v>
       </c>
       <c r="R17" s="6"/>
-      <c r="S17" s="85"/>
+      <c r="S17" s="83"/>
       <c r="T17" s="6"/>
       <c r="U17" s="6"/>
     </row>
@@ -2877,23 +2913,23 @@
       <c r="F18" s="4">
         <v>4</v>
       </c>
-      <c r="G18" s="89" t="s">
+      <c r="G18" s="87" t="s">
         <v>60</v>
       </c>
       <c r="H18" s="2"/>
-      <c r="I18" s="73">
+      <c r="I18" s="71">
         <v>45050</v>
       </c>
       <c r="J18" s="4">
         <v>10018555</v>
       </c>
-      <c r="K18" s="83">
+      <c r="K18" s="81">
         <v>45097</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="157">
         <v>4500018851</v>
       </c>
-      <c r="M18" s="84">
+      <c r="M18" s="82">
         <v>45099</v>
       </c>
       <c r="N18" s="4"/>
@@ -2907,7 +2943,7 @@
         <v>234</v>
       </c>
       <c r="R18" s="4"/>
-      <c r="S18" s="84"/>
+      <c r="S18" s="82"/>
       <c r="T18" s="4"/>
       <c r="U18" s="4"/>
     </row>
@@ -2930,23 +2966,23 @@
       <c r="F19" s="4">
         <v>4</v>
       </c>
-      <c r="G19" s="89" t="s">
+      <c r="G19" s="87" t="s">
         <v>60</v>
       </c>
       <c r="H19" s="2"/>
-      <c r="I19" s="73">
+      <c r="I19" s="71">
         <v>45051</v>
       </c>
       <c r="J19" s="4">
         <v>10018555</v>
       </c>
-      <c r="K19" s="83">
+      <c r="K19" s="81">
         <v>45097</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L19" s="157">
         <v>4500018851</v>
       </c>
-      <c r="M19" s="84">
+      <c r="M19" s="82">
         <v>45099</v>
       </c>
       <c r="N19" s="4"/>
@@ -2962,7 +2998,7 @@
       <c r="R19" s="4">
         <v>2310312</v>
       </c>
-      <c r="S19" s="84">
+      <c r="S19" s="82">
         <v>45169</v>
       </c>
       <c r="T19" s="4"/>
@@ -2989,23 +3025,23 @@
       <c r="F20" s="4">
         <v>3</v>
       </c>
-      <c r="G20" s="89" t="s">
+      <c r="G20" s="87" t="s">
         <v>60</v>
       </c>
       <c r="H20" s="2"/>
-      <c r="I20" s="73">
+      <c r="I20" s="71">
         <v>45052</v>
       </c>
       <c r="J20" s="4">
         <v>10018555</v>
       </c>
-      <c r="K20" s="83">
+      <c r="K20" s="81">
         <v>45097</v>
       </c>
-      <c r="L20" s="4">
+      <c r="L20" s="157">
         <v>4500018851</v>
       </c>
-      <c r="M20" s="84">
+      <c r="M20" s="82">
         <v>45099</v>
       </c>
       <c r="N20" s="4"/>
@@ -3021,7 +3057,7 @@
       <c r="R20" s="4">
         <v>2311432</v>
       </c>
-      <c r="S20" s="84">
+      <c r="S20" s="82">
         <v>45190</v>
       </c>
       <c r="T20" s="4"/>
@@ -3050,19 +3086,19 @@
         <v>63</v>
       </c>
       <c r="H21" s="2"/>
-      <c r="I21" s="73">
+      <c r="I21" s="71">
         <v>45053</v>
       </c>
       <c r="J21" s="4">
         <v>10018927</v>
       </c>
-      <c r="K21" s="83">
+      <c r="K21" s="81">
         <v>45114</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L21" s="157">
         <v>4500019560</v>
       </c>
-      <c r="M21" s="84">
+      <c r="M21" s="82">
         <v>45135</v>
       </c>
       <c r="N21" s="4"/>
@@ -3075,10 +3111,10 @@
       <c r="Q21" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="R21" s="90">
+      <c r="R21" s="88">
         <v>45147</v>
       </c>
-      <c r="S21" s="85">
+      <c r="S21" s="83">
         <v>45147</v>
       </c>
       <c r="T21" s="6" t="s">
@@ -3107,23 +3143,23 @@
       <c r="F22" s="13">
         <v>1</v>
       </c>
-      <c r="G22" s="91" t="s">
+      <c r="G22" s="89" t="s">
         <v>68</v>
       </c>
       <c r="H22" s="14"/>
-      <c r="I22" s="73">
+      <c r="I22" s="71">
         <v>45054</v>
       </c>
       <c r="J22" s="13">
         <v>10020422</v>
       </c>
-      <c r="K22" s="92">
+      <c r="K22" s="90">
         <v>45117</v>
       </c>
-      <c r="L22" s="13">
+      <c r="L22" s="158">
         <v>4500020880</v>
       </c>
-      <c r="M22" s="93">
+      <c r="M22" s="91">
         <v>45191</v>
       </c>
       <c r="N22" s="13"/>
@@ -3137,7 +3173,7 @@
         <v>234</v>
       </c>
       <c r="R22" s="13"/>
-      <c r="S22" s="93"/>
+      <c r="S22" s="91"/>
       <c r="T22" s="13"/>
       <c r="U22" s="13"/>
     </row>
@@ -3164,19 +3200,19 @@
         <v>69</v>
       </c>
       <c r="H23" s="14"/>
-      <c r="I23" s="73">
+      <c r="I23" s="71">
         <v>45055</v>
       </c>
       <c r="J23" s="13">
         <v>10020422</v>
       </c>
-      <c r="K23" s="92">
+      <c r="K23" s="90">
         <v>45117</v>
       </c>
-      <c r="L23" s="13">
+      <c r="L23" s="158">
         <v>4500020880</v>
       </c>
-      <c r="M23" s="93">
+      <c r="M23" s="91">
         <v>45191</v>
       </c>
       <c r="N23" s="13"/>
@@ -3190,7 +3226,7 @@
         <v>234</v>
       </c>
       <c r="R23" s="13"/>
-      <c r="S23" s="93"/>
+      <c r="S23" s="91"/>
       <c r="T23" s="13"/>
       <c r="U23" s="13"/>
     </row>
@@ -3207,29 +3243,29 @@
       <c r="D24" s="13">
         <v>503587</v>
       </c>
-      <c r="E24" s="94" t="s">
+      <c r="E24" s="92" t="s">
         <v>70</v>
       </c>
       <c r="F24" s="13">
         <v>1</v>
       </c>
-      <c r="G24" s="91" t="s">
+      <c r="G24" s="89" t="s">
         <v>71</v>
       </c>
       <c r="H24" s="14"/>
-      <c r="I24" s="73">
+      <c r="I24" s="71">
         <v>45056</v>
       </c>
       <c r="J24" s="13">
         <v>10020422</v>
       </c>
-      <c r="K24" s="92">
+      <c r="K24" s="90">
         <v>45117</v>
       </c>
-      <c r="L24" s="13">
+      <c r="L24" s="158">
         <v>4500020880</v>
       </c>
-      <c r="M24" s="93">
+      <c r="M24" s="91">
         <v>45191</v>
       </c>
       <c r="N24" s="13"/>
@@ -3243,7 +3279,7 @@
         <v>234</v>
       </c>
       <c r="R24" s="13"/>
-      <c r="S24" s="93"/>
+      <c r="S24" s="91"/>
       <c r="T24" s="13"/>
       <c r="U24" s="13"/>
     </row>
@@ -3260,29 +3296,29 @@
       <c r="D25" s="15">
         <v>503604</v>
       </c>
-      <c r="E25" s="94" t="s">
+      <c r="E25" s="92" t="s">
         <v>72</v>
       </c>
       <c r="F25" s="13">
         <v>2</v>
       </c>
-      <c r="G25" s="95" t="s">
+      <c r="G25" s="93" t="s">
         <v>73</v>
       </c>
       <c r="H25" s="16"/>
-      <c r="I25" s="73">
+      <c r="I25" s="71">
         <v>45057</v>
       </c>
       <c r="J25" s="13">
         <v>10020422</v>
       </c>
-      <c r="K25" s="92">
+      <c r="K25" s="90">
         <v>45117</v>
       </c>
-      <c r="L25" s="13">
+      <c r="L25" s="158">
         <v>4500020880</v>
       </c>
-      <c r="M25" s="93">
+      <c r="M25" s="91">
         <v>45191</v>
       </c>
       <c r="N25" s="13"/>
@@ -3296,7 +3332,7 @@
         <v>234</v>
       </c>
       <c r="R25" s="13"/>
-      <c r="S25" s="93"/>
+      <c r="S25" s="91"/>
       <c r="T25" s="13"/>
       <c r="U25" s="13"/>
     </row>
@@ -3313,29 +3349,29 @@
       <c r="D26" s="15">
         <v>503605</v>
       </c>
-      <c r="E26" s="94" t="s">
+      <c r="E26" s="92" t="s">
         <v>74</v>
       </c>
       <c r="F26" s="13">
         <v>1</v>
       </c>
-      <c r="G26" s="95" t="s">
+      <c r="G26" s="93" t="s">
         <v>73</v>
       </c>
       <c r="H26" s="16"/>
-      <c r="I26" s="73">
+      <c r="I26" s="71">
         <v>45058</v>
       </c>
       <c r="J26" s="13">
         <v>10020422</v>
       </c>
-      <c r="K26" s="92">
+      <c r="K26" s="90">
         <v>45117</v>
       </c>
-      <c r="L26" s="13">
+      <c r="L26" s="158">
         <v>4500020880</v>
       </c>
-      <c r="M26" s="93">
+      <c r="M26" s="91">
         <v>45191</v>
       </c>
       <c r="N26" s="13"/>
@@ -3349,7 +3385,7 @@
         <v>234</v>
       </c>
       <c r="R26" s="13"/>
-      <c r="S26" s="93"/>
+      <c r="S26" s="91"/>
       <c r="T26" s="13"/>
       <c r="U26" s="13"/>
     </row>
@@ -3376,19 +3412,19 @@
         <v>49</v>
       </c>
       <c r="H27" s="11"/>
-      <c r="I27" s="73">
+      <c r="I27" s="71">
         <v>45059</v>
       </c>
       <c r="J27" s="6">
         <v>10019036</v>
       </c>
-      <c r="K27" s="86">
+      <c r="K27" s="84">
         <v>45118</v>
       </c>
-      <c r="L27" s="6">
+      <c r="L27" s="156">
         <v>4500019324</v>
       </c>
-      <c r="M27" s="85">
+      <c r="M27" s="83">
         <v>45127</v>
       </c>
       <c r="N27" s="6"/>
@@ -3402,7 +3438,7 @@
         <v>234</v>
       </c>
       <c r="R27" s="6"/>
-      <c r="S27" s="85"/>
+      <c r="S27" s="83"/>
       <c r="T27" s="6"/>
       <c r="U27" s="6"/>
     </row>
@@ -3419,7 +3455,7 @@
       <c r="D28" s="7">
         <v>502295</v>
       </c>
-      <c r="E28" s="88" t="s">
+      <c r="E28" s="86" t="s">
         <v>40</v>
       </c>
       <c r="F28" s="6">
@@ -3429,19 +3465,19 @@
         <v>77</v>
       </c>
       <c r="H28" s="11"/>
-      <c r="I28" s="73">
+      <c r="I28" s="71">
         <v>45060</v>
       </c>
       <c r="J28" s="6">
         <v>10018967</v>
       </c>
-      <c r="K28" s="86">
+      <c r="K28" s="84">
         <v>45117</v>
       </c>
-      <c r="L28" s="6">
+      <c r="L28" s="156">
         <v>4500019903</v>
       </c>
-      <c r="M28" s="85">
+      <c r="M28" s="83">
         <v>45148</v>
       </c>
       <c r="N28" s="6"/>
@@ -3455,7 +3491,7 @@
         <v>234</v>
       </c>
       <c r="R28" s="6"/>
-      <c r="S28" s="85"/>
+      <c r="S28" s="83"/>
       <c r="T28" s="6"/>
       <c r="U28" s="6"/>
     </row>
@@ -3469,10 +3505,10 @@
       <c r="C29" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D29" s="96">
+      <c r="D29" s="94">
         <v>504180</v>
       </c>
-      <c r="E29" s="97" t="s">
+      <c r="E29" s="95" t="s">
         <v>78</v>
       </c>
       <c r="F29" s="6">
@@ -3482,19 +3518,19 @@
         <v>77</v>
       </c>
       <c r="H29" s="11"/>
-      <c r="I29" s="73">
+      <c r="I29" s="71">
         <v>45061</v>
       </c>
       <c r="J29" s="6">
         <v>10018967</v>
       </c>
-      <c r="K29" s="86">
+      <c r="K29" s="84">
         <v>45117</v>
       </c>
-      <c r="L29" s="6">
+      <c r="L29" s="156">
         <v>4500019903</v>
       </c>
-      <c r="M29" s="85">
+      <c r="M29" s="83">
         <v>45148</v>
       </c>
       <c r="N29" s="6"/>
@@ -3508,7 +3544,7 @@
         <v>234</v>
       </c>
       <c r="R29" s="6"/>
-      <c r="S29" s="85"/>
+      <c r="S29" s="83"/>
       <c r="T29" s="6"/>
       <c r="U29" s="6"/>
     </row>
@@ -3535,19 +3571,19 @@
         <v>82</v>
       </c>
       <c r="H30" s="19"/>
-      <c r="I30" s="73">
+      <c r="I30" s="71">
         <v>45062</v>
       </c>
       <c r="J30" s="18">
         <v>10018668</v>
       </c>
-      <c r="K30" s="98">
+      <c r="K30" s="96">
         <v>45099</v>
       </c>
-      <c r="L30" s="18">
+      <c r="L30" s="159">
         <v>4500019550</v>
       </c>
-      <c r="M30" s="99">
+      <c r="M30" s="97">
         <v>45135</v>
       </c>
       <c r="N30" s="18"/>
@@ -3561,7 +3597,7 @@
         <v>234</v>
       </c>
       <c r="R30" s="6"/>
-      <c r="S30" s="85"/>
+      <c r="S30" s="83"/>
       <c r="T30" s="6"/>
       <c r="U30" s="6"/>
     </row>
@@ -3578,7 +3614,7 @@
       <c r="D31" s="20">
         <v>504177</v>
       </c>
-      <c r="E31" s="100" t="s">
+      <c r="E31" s="98" t="s">
         <v>83</v>
       </c>
       <c r="F31" s="18">
@@ -3588,19 +3624,19 @@
         <v>82</v>
       </c>
       <c r="H31" s="19"/>
-      <c r="I31" s="73">
+      <c r="I31" s="71">
         <v>45063</v>
       </c>
       <c r="J31" s="18">
         <v>10018668</v>
       </c>
-      <c r="K31" s="98">
+      <c r="K31" s="96">
         <v>45099</v>
       </c>
-      <c r="L31" s="18">
+      <c r="L31" s="159">
         <v>4500019550</v>
       </c>
-      <c r="M31" s="99">
+      <c r="M31" s="97">
         <v>45135</v>
       </c>
       <c r="N31" s="18"/>
@@ -3614,7 +3650,7 @@
         <v>234</v>
       </c>
       <c r="R31" s="6"/>
-      <c r="S31" s="85"/>
+      <c r="S31" s="83"/>
       <c r="T31" s="6"/>
       <c r="U31" s="6"/>
     </row>
@@ -3641,19 +3677,19 @@
         <v>82</v>
       </c>
       <c r="H32" s="19"/>
-      <c r="I32" s="73">
+      <c r="I32" s="71">
         <v>45064</v>
       </c>
       <c r="J32" s="18">
         <v>10018668</v>
       </c>
-      <c r="K32" s="98">
+      <c r="K32" s="96">
         <v>45099</v>
       </c>
-      <c r="L32" s="18">
+      <c r="L32" s="159">
         <v>4500019550</v>
       </c>
-      <c r="M32" s="99">
+      <c r="M32" s="97">
         <v>45135</v>
       </c>
       <c r="N32" s="18"/>
@@ -3667,7 +3703,7 @@
         <v>234</v>
       </c>
       <c r="R32" s="4"/>
-      <c r="S32" s="84"/>
+      <c r="S32" s="82"/>
       <c r="T32" s="6"/>
       <c r="U32" s="4"/>
     </row>
@@ -3694,19 +3730,19 @@
         <v>86</v>
       </c>
       <c r="H33" s="2"/>
-      <c r="I33" s="73">
+      <c r="I33" s="71">
         <v>45065</v>
       </c>
       <c r="J33" s="4">
         <v>10019047</v>
       </c>
-      <c r="K33" s="83">
+      <c r="K33" s="81">
         <v>45118</v>
       </c>
-      <c r="L33" s="4">
+      <c r="L33" s="157">
         <v>4500019549</v>
       </c>
-      <c r="M33" s="84">
+      <c r="M33" s="82">
         <v>45135</v>
       </c>
       <c r="N33" s="4"/>
@@ -3720,7 +3756,7 @@
         <v>234</v>
       </c>
       <c r="R33" s="4"/>
-      <c r="S33" s="84"/>
+      <c r="S33" s="82"/>
       <c r="T33" s="4"/>
       <c r="U33" s="4"/>
     </row>
@@ -3737,7 +3773,7 @@
       <c r="D34" s="6">
         <v>504180</v>
       </c>
-      <c r="E34" s="97" t="s">
+      <c r="E34" s="95" t="s">
         <v>78</v>
       </c>
       <c r="F34" s="6">
@@ -3747,19 +3783,19 @@
         <v>86</v>
       </c>
       <c r="H34" s="11"/>
-      <c r="I34" s="73">
+      <c r="I34" s="71">
         <v>45066</v>
       </c>
       <c r="J34" s="6">
         <v>10019047</v>
       </c>
-      <c r="K34" s="86">
+      <c r="K34" s="84">
         <v>45118</v>
       </c>
-      <c r="L34" s="6">
+      <c r="L34" s="156">
         <v>4500019549</v>
       </c>
-      <c r="M34" s="85">
+      <c r="M34" s="83">
         <v>45135</v>
       </c>
       <c r="N34" s="6"/>
@@ -3773,7 +3809,7 @@
         <v>234</v>
       </c>
       <c r="R34" s="6"/>
-      <c r="S34" s="85"/>
+      <c r="S34" s="83"/>
       <c r="T34" s="4"/>
       <c r="U34" s="6"/>
     </row>
@@ -3790,7 +3826,7 @@
       <c r="D35" s="22">
         <v>503603</v>
       </c>
-      <c r="E35" s="101" t="s">
+      <c r="E35" s="99" t="s">
         <v>89</v>
       </c>
       <c r="F35" s="23">
@@ -3800,23 +3836,23 @@
         <v>90</v>
       </c>
       <c r="H35" s="11"/>
-      <c r="I35" s="73">
+      <c r="I35" s="71">
         <v>45067</v>
       </c>
       <c r="J35" s="6">
         <v>10019147</v>
       </c>
-      <c r="K35" s="102">
+      <c r="K35" s="100">
         <v>45124</v>
       </c>
-      <c r="L35" s="23">
+      <c r="L35" s="160">
         <v>4500019320</v>
       </c>
-      <c r="M35" s="103">
+      <c r="M35" s="101">
         <v>45127</v>
       </c>
-      <c r="N35" s="104"/>
-      <c r="O35" s="104" t="s">
+      <c r="N35" s="102"/>
+      <c r="O35" s="102" t="s">
         <v>91</v>
       </c>
       <c r="P35" s="23" t="s">
@@ -3826,7 +3862,7 @@
         <v>234</v>
       </c>
       <c r="R35" s="23"/>
-      <c r="S35" s="103">
+      <c r="S35" s="101">
         <v>45170</v>
       </c>
       <c r="T35" s="23"/>
@@ -3845,7 +3881,7 @@
       <c r="D36" s="24">
         <v>333631</v>
       </c>
-      <c r="E36" s="105" t="s">
+      <c r="E36" s="103" t="s">
         <v>92</v>
       </c>
       <c r="F36" s="4">
@@ -3855,23 +3891,23 @@
         <v>90</v>
       </c>
       <c r="H36" s="2"/>
-      <c r="I36" s="73">
+      <c r="I36" s="71">
         <v>45068</v>
       </c>
       <c r="J36" s="4">
         <v>10019147</v>
       </c>
-      <c r="K36" s="102">
+      <c r="K36" s="100">
         <v>45124</v>
       </c>
-      <c r="L36" s="23">
+      <c r="L36" s="160">
         <v>4500019320</v>
       </c>
-      <c r="M36" s="103">
+      <c r="M36" s="101">
         <v>45127</v>
       </c>
-      <c r="N36" s="104"/>
-      <c r="O36" s="104" t="s">
+      <c r="N36" s="102"/>
+      <c r="O36" s="102" t="s">
         <v>91</v>
       </c>
       <c r="P36" s="23" t="s">
@@ -3881,7 +3917,7 @@
         <v>234</v>
       </c>
       <c r="R36" s="23"/>
-      <c r="S36" s="103">
+      <c r="S36" s="101">
         <v>45170</v>
       </c>
       <c r="T36" s="23"/>
@@ -3910,23 +3946,23 @@
         <v>90</v>
       </c>
       <c r="H37" s="11"/>
-      <c r="I37" s="73">
+      <c r="I37" s="71">
         <v>45069</v>
       </c>
       <c r="J37" s="6">
         <v>10019147</v>
       </c>
-      <c r="K37" s="102">
+      <c r="K37" s="100">
         <v>45124</v>
       </c>
-      <c r="L37" s="23">
+      <c r="L37" s="160">
         <v>4500019320</v>
       </c>
-      <c r="M37" s="103">
+      <c r="M37" s="101">
         <v>45127</v>
       </c>
-      <c r="N37" s="104"/>
-      <c r="O37" s="104" t="s">
+      <c r="N37" s="102"/>
+      <c r="O37" s="102" t="s">
         <v>91</v>
       </c>
       <c r="P37" s="23" t="s">
@@ -3936,7 +3972,7 @@
         <v>234</v>
       </c>
       <c r="R37" s="23"/>
-      <c r="S37" s="103">
+      <c r="S37" s="101">
         <v>45170</v>
       </c>
       <c r="T37" s="23"/>
@@ -3955,7 +3991,7 @@
       <c r="D38" s="4">
         <v>337928</v>
       </c>
-      <c r="E38" s="105" t="s">
+      <c r="E38" s="103" t="s">
         <v>94</v>
       </c>
       <c r="F38" s="26">
@@ -3965,26 +4001,26 @@
         <v>90</v>
       </c>
       <c r="H38" s="2"/>
-      <c r="I38" s="73">
+      <c r="I38" s="71">
         <v>45070</v>
       </c>
       <c r="J38" s="4">
         <v>10019150</v>
       </c>
-      <c r="K38" s="83">
+      <c r="K38" s="81">
         <v>45124</v>
       </c>
-      <c r="L38" s="4">
+      <c r="L38" s="157">
         <v>4500019319</v>
       </c>
-      <c r="M38" s="84">
+      <c r="M38" s="82">
         <v>45127</v>
       </c>
-      <c r="N38" s="82"/>
-      <c r="O38" s="82" t="s">
+      <c r="N38" s="80"/>
+      <c r="O38" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="P38" s="70" t="s">
+      <c r="P38" s="68" t="s">
         <v>54</v>
       </c>
       <c r="Q38" s="6" t="s">
@@ -3993,10 +4029,10 @@
       <c r="R38" s="23">
         <v>2311431</v>
       </c>
-      <c r="S38" s="103">
+      <c r="S38" s="101">
         <v>45190</v>
       </c>
-      <c r="T38" s="70"/>
+      <c r="T38" s="68"/>
       <c r="U38" s="23"/>
     </row>
     <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4022,23 +4058,23 @@
         <v>95</v>
       </c>
       <c r="H39" s="2"/>
-      <c r="I39" s="73">
+      <c r="I39" s="71">
         <v>45071</v>
       </c>
       <c r="J39" s="4">
         <v>10019397</v>
       </c>
-      <c r="K39" s="83">
+      <c r="K39" s="81">
         <v>45135</v>
       </c>
-      <c r="L39" s="4">
+      <c r="L39" s="157">
         <v>4500019904</v>
       </c>
-      <c r="M39" s="84">
+      <c r="M39" s="82">
         <v>45148</v>
       </c>
-      <c r="N39" s="82"/>
-      <c r="O39" s="82" t="s">
+      <c r="N39" s="80"/>
+      <c r="O39" s="80" t="s">
         <v>26</v>
       </c>
       <c r="P39" s="4" t="s">
@@ -4048,7 +4084,7 @@
         <v>234</v>
       </c>
       <c r="R39" s="4"/>
-      <c r="S39" s="84"/>
+      <c r="S39" s="82"/>
       <c r="T39" s="4"/>
       <c r="U39" s="4"/>
     </row>
@@ -4065,7 +4101,7 @@
       <c r="D40" s="4">
         <v>337928</v>
       </c>
-      <c r="E40" s="105" t="s">
+      <c r="E40" s="103" t="s">
         <v>94</v>
       </c>
       <c r="F40" s="4">
@@ -4075,23 +4111,23 @@
         <v>95</v>
       </c>
       <c r="H40" s="2"/>
-      <c r="I40" s="73">
+      <c r="I40" s="71">
         <v>45072</v>
       </c>
       <c r="J40" s="4">
         <v>10019397</v>
       </c>
-      <c r="K40" s="83">
+      <c r="K40" s="81">
         <v>45135</v>
       </c>
-      <c r="L40" s="4">
+      <c r="L40" s="157">
         <v>4500019904</v>
       </c>
-      <c r="M40" s="84">
+      <c r="M40" s="82">
         <v>45148</v>
       </c>
-      <c r="N40" s="82"/>
-      <c r="O40" s="82" t="s">
+      <c r="N40" s="80"/>
+      <c r="O40" s="80" t="s">
         <v>26</v>
       </c>
       <c r="P40" s="4" t="s">
@@ -4103,7 +4139,7 @@
       <c r="R40" s="6">
         <v>2311433</v>
       </c>
-      <c r="S40" s="85">
+      <c r="S40" s="83">
         <v>45190</v>
       </c>
       <c r="T40" s="4"/>
@@ -4122,7 +4158,7 @@
       <c r="D41" s="27">
         <v>504177</v>
       </c>
-      <c r="E41" s="97" t="s">
+      <c r="E41" s="95" t="s">
         <v>83</v>
       </c>
       <c r="F41" s="6">
@@ -4132,23 +4168,23 @@
         <v>95</v>
       </c>
       <c r="H41" s="11"/>
-      <c r="I41" s="73">
+      <c r="I41" s="71">
         <v>45073</v>
       </c>
       <c r="J41" s="6">
         <v>10019397</v>
       </c>
-      <c r="K41" s="83">
+      <c r="K41" s="81">
         <v>45135</v>
       </c>
-      <c r="L41" s="4">
+      <c r="L41" s="157">
         <v>4500019904</v>
       </c>
-      <c r="M41" s="84">
+      <c r="M41" s="82">
         <v>45148</v>
       </c>
-      <c r="N41" s="104"/>
-      <c r="O41" s="104" t="s">
+      <c r="N41" s="102"/>
+      <c r="O41" s="102" t="s">
         <v>26</v>
       </c>
       <c r="P41" s="4" t="s">
@@ -4158,7 +4194,7 @@
         <v>234</v>
       </c>
       <c r="R41" s="6"/>
-      <c r="S41" s="85"/>
+      <c r="S41" s="83"/>
       <c r="T41" s="6"/>
       <c r="U41" s="6"/>
     </row>
@@ -4185,23 +4221,23 @@
         <v>95</v>
       </c>
       <c r="H42" s="11"/>
-      <c r="I42" s="73">
+      <c r="I42" s="71">
         <v>45074</v>
       </c>
       <c r="J42" s="6">
         <v>10019397</v>
       </c>
-      <c r="K42" s="83">
+      <c r="K42" s="81">
         <v>45135</v>
       </c>
-      <c r="L42" s="4">
+      <c r="L42" s="157">
         <v>4500019904</v>
       </c>
-      <c r="M42" s="84">
+      <c r="M42" s="82">
         <v>45148</v>
       </c>
-      <c r="N42" s="104"/>
-      <c r="O42" s="104" t="s">
+      <c r="N42" s="102"/>
+      <c r="O42" s="102" t="s">
         <v>26</v>
       </c>
       <c r="P42" s="4" t="s">
@@ -4211,7 +4247,7 @@
         <v>234</v>
       </c>
       <c r="R42" s="6"/>
-      <c r="S42" s="85"/>
+      <c r="S42" s="83"/>
       <c r="T42" s="6"/>
       <c r="U42" s="6"/>
     </row>
@@ -4228,7 +4264,7 @@
       <c r="D43" s="28">
         <v>503609</v>
       </c>
-      <c r="E43" s="105" t="s">
+      <c r="E43" s="103" t="s">
         <v>96</v>
       </c>
       <c r="F43" s="4">
@@ -4238,19 +4274,19 @@
         <v>97</v>
       </c>
       <c r="H43" s="2"/>
-      <c r="I43" s="73">
+      <c r="I43" s="71">
         <v>45075</v>
       </c>
       <c r="J43" s="4">
         <v>10019401</v>
       </c>
-      <c r="K43" s="83">
+      <c r="K43" s="81">
         <v>45135</v>
       </c>
-      <c r="L43" s="4">
+      <c r="L43" s="157">
         <v>4500019939</v>
       </c>
-      <c r="M43" s="84">
+      <c r="M43" s="82">
         <v>45149</v>
       </c>
       <c r="N43" s="4"/>
@@ -4266,7 +4302,7 @@
       <c r="R43" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="S43" s="84">
+      <c r="S43" s="82">
         <v>45218</v>
       </c>
       <c r="T43" s="4"/>
@@ -4287,7 +4323,7 @@
       <c r="D44" s="28">
         <v>503609</v>
       </c>
-      <c r="E44" s="105" t="s">
+      <c r="E44" s="103" t="s">
         <v>96</v>
       </c>
       <c r="F44" s="4">
@@ -4297,19 +4333,19 @@
         <v>99</v>
       </c>
       <c r="H44" s="2"/>
-      <c r="I44" s="73">
+      <c r="I44" s="71">
         <v>45076</v>
       </c>
       <c r="J44" s="4">
         <v>10019401</v>
       </c>
-      <c r="K44" s="83">
+      <c r="K44" s="81">
         <v>45135</v>
       </c>
-      <c r="L44" s="4">
+      <c r="L44" s="157">
         <v>4500019939</v>
       </c>
-      <c r="M44" s="84">
+      <c r="M44" s="82">
         <v>45149</v>
       </c>
       <c r="N44" s="4"/>
@@ -4325,7 +4361,7 @@
       <c r="R44" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="S44" s="84">
+      <c r="S44" s="82">
         <v>45218</v>
       </c>
       <c r="T44" s="4"/>
@@ -4344,7 +4380,7 @@
       <c r="D45" s="28">
         <v>503609</v>
       </c>
-      <c r="E45" s="105" t="s">
+      <c r="E45" s="103" t="s">
         <v>96</v>
       </c>
       <c r="F45" s="4">
@@ -4354,19 +4390,19 @@
         <v>100</v>
       </c>
       <c r="H45" s="2"/>
-      <c r="I45" s="73">
+      <c r="I45" s="71">
         <v>45077</v>
       </c>
       <c r="J45" s="4">
         <v>10019401</v>
       </c>
-      <c r="K45" s="83">
+      <c r="K45" s="81">
         <v>45135</v>
       </c>
-      <c r="L45" s="4">
+      <c r="L45" s="157">
         <v>4500019939</v>
       </c>
-      <c r="M45" s="84">
+      <c r="M45" s="82">
         <v>45149</v>
       </c>
       <c r="N45" s="4"/>
@@ -4382,7 +4418,7 @@
       <c r="R45" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="S45" s="84">
+      <c r="S45" s="82">
         <v>45218</v>
       </c>
       <c r="T45" s="4"/>
@@ -4411,19 +4447,19 @@
         <v>53</v>
       </c>
       <c r="H46" s="2"/>
-      <c r="I46" s="73">
+      <c r="I46" s="71">
         <v>45078</v>
       </c>
       <c r="J46" s="4">
         <v>10019258</v>
       </c>
-      <c r="K46" s="83">
+      <c r="K46" s="81">
         <v>45131</v>
       </c>
-      <c r="L46" s="6">
+      <c r="L46" s="156">
         <v>4500019424</v>
       </c>
-      <c r="M46" s="85">
+      <c r="M46" s="83">
         <v>45132</v>
       </c>
       <c r="N46" s="4"/>
@@ -4439,7 +4475,7 @@
       <c r="R46" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="S46" s="85">
+      <c r="S46" s="83">
         <v>45187</v>
       </c>
       <c r="T46" s="6"/>
@@ -4468,19 +4504,19 @@
         <v>53</v>
       </c>
       <c r="H47" s="2"/>
-      <c r="I47" s="73">
+      <c r="I47" s="71">
         <v>45079</v>
       </c>
       <c r="J47" s="4">
         <v>10019258</v>
       </c>
-      <c r="K47" s="83">
+      <c r="K47" s="81">
         <v>45131</v>
       </c>
-      <c r="L47" s="6">
+      <c r="L47" s="156">
         <v>4500019424</v>
       </c>
-      <c r="M47" s="85">
+      <c r="M47" s="83">
         <v>45132</v>
       </c>
       <c r="N47" s="4"/>
@@ -4496,7 +4532,7 @@
       <c r="R47" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="S47" s="85">
+      <c r="S47" s="83">
         <v>45187</v>
       </c>
       <c r="T47" s="6"/>
@@ -4515,29 +4551,29 @@
       <c r="D48" s="30">
         <v>501901</v>
       </c>
-      <c r="E48" s="106" t="s">
+      <c r="E48" s="104" t="s">
         <v>28</v>
       </c>
       <c r="F48" s="31">
         <v>1</v>
       </c>
-      <c r="G48" s="107" t="s">
+      <c r="G48" s="105" t="s">
         <v>107</v>
       </c>
       <c r="H48" s="32"/>
-      <c r="I48" s="73">
+      <c r="I48" s="71">
         <v>45080</v>
       </c>
       <c r="J48" s="31">
         <v>10019312</v>
       </c>
-      <c r="K48" s="108">
+      <c r="K48" s="106">
         <v>45133</v>
       </c>
-      <c r="L48" s="31">
+      <c r="L48" s="161">
         <v>4500019905</v>
       </c>
-      <c r="M48" s="109">
+      <c r="M48" s="107">
         <v>45148</v>
       </c>
       <c r="N48" s="31"/>
@@ -4551,7 +4587,7 @@
         <v>234</v>
       </c>
       <c r="R48" s="31"/>
-      <c r="S48" s="109"/>
+      <c r="S48" s="107"/>
       <c r="T48" s="31"/>
       <c r="U48" s="31"/>
     </row>
@@ -4578,19 +4614,19 @@
         <v>107</v>
       </c>
       <c r="H49" s="2"/>
-      <c r="I49" s="73">
+      <c r="I49" s="71">
         <v>45081</v>
       </c>
       <c r="J49" s="4">
         <v>10019312</v>
       </c>
-      <c r="K49" s="83">
+      <c r="K49" s="81">
         <v>45133</v>
       </c>
-      <c r="L49" s="4">
+      <c r="L49" s="157">
         <v>4500019905</v>
       </c>
-      <c r="M49" s="84">
+      <c r="M49" s="82">
         <v>45148</v>
       </c>
       <c r="N49" s="4"/>
@@ -4606,7 +4642,7 @@
       <c r="R49" s="4">
         <v>2311435</v>
       </c>
-      <c r="S49" s="84">
+      <c r="S49" s="82">
         <v>45190</v>
       </c>
       <c r="T49" s="4"/>
@@ -4631,23 +4667,23 @@
       <c r="F50" s="4">
         <v>7</v>
       </c>
-      <c r="G50" s="110" t="s">
+      <c r="G50" s="108" t="s">
         <v>111</v>
       </c>
       <c r="H50" s="33"/>
-      <c r="I50" s="73">
+      <c r="I50" s="71">
         <v>45082</v>
       </c>
       <c r="J50" s="8">
         <v>10019702</v>
       </c>
-      <c r="K50" s="86">
+      <c r="K50" s="84">
         <v>45146</v>
       </c>
-      <c r="L50" s="6">
+      <c r="L50" s="156">
         <v>4500020102</v>
       </c>
-      <c r="M50" s="85">
+      <c r="M50" s="83">
         <v>45163</v>
       </c>
       <c r="N50" s="6"/>
@@ -4661,7 +4697,7 @@
         <v>234</v>
       </c>
       <c r="R50" s="6"/>
-      <c r="S50" s="85"/>
+      <c r="S50" s="83"/>
       <c r="T50" s="6"/>
       <c r="U50" s="6"/>
     </row>
@@ -4688,19 +4724,19 @@
         <v>112</v>
       </c>
       <c r="H51" s="35"/>
-      <c r="I51" s="73">
+      <c r="I51" s="71">
         <v>45083</v>
       </c>
       <c r="J51" s="3">
         <v>10019554</v>
       </c>
-      <c r="K51" s="86">
+      <c r="K51" s="84">
         <v>45140</v>
       </c>
-      <c r="L51" s="6">
+      <c r="L51" s="156">
         <v>4500019906</v>
       </c>
-      <c r="M51" s="85">
+      <c r="M51" s="83">
         <v>45148</v>
       </c>
       <c r="N51" s="6"/>
@@ -4714,7 +4750,7 @@
         <v>234</v>
       </c>
       <c r="R51" s="6"/>
-      <c r="S51" s="85"/>
+      <c r="S51" s="83"/>
       <c r="T51" s="6"/>
       <c r="U51" s="6"/>
     </row>
@@ -4741,19 +4777,19 @@
         <v>90</v>
       </c>
       <c r="H52" s="36"/>
-      <c r="I52" s="73">
+      <c r="I52" s="71">
         <v>45084</v>
       </c>
       <c r="J52" s="1">
         <v>10019627</v>
       </c>
-      <c r="K52" s="83">
+      <c r="K52" s="81">
         <v>45143</v>
       </c>
-      <c r="L52" s="4">
+      <c r="L52" s="157">
         <v>4500020378</v>
       </c>
-      <c r="M52" s="84">
+      <c r="M52" s="82">
         <v>45174</v>
       </c>
       <c r="N52" s="4"/>
@@ -4766,10 +4802,10 @@
       <c r="Q52" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="R52" s="90">
+      <c r="R52" s="88">
         <v>45177</v>
       </c>
-      <c r="S52" s="85">
+      <c r="S52" s="83">
         <v>45182</v>
       </c>
       <c r="T52" s="6" t="s">
@@ -4802,19 +4838,19 @@
         <v>115</v>
       </c>
       <c r="H53" s="38"/>
-      <c r="I53" s="73">
+      <c r="I53" s="71">
         <v>45085</v>
       </c>
       <c r="J53" s="39">
         <v>10019603</v>
       </c>
-      <c r="K53" s="111">
+      <c r="K53" s="109">
         <v>45142</v>
       </c>
-      <c r="L53" s="37">
+      <c r="L53" s="162">
         <v>4500021068</v>
       </c>
-      <c r="M53" s="112">
+      <c r="M53" s="110">
         <v>45196</v>
       </c>
       <c r="N53" s="37"/>
@@ -4828,7 +4864,7 @@
         <v>234</v>
       </c>
       <c r="R53" s="37"/>
-      <c r="S53" s="112"/>
+      <c r="S53" s="110"/>
       <c r="T53" s="37"/>
       <c r="U53" s="37"/>
     </row>
@@ -4855,19 +4891,19 @@
         <v>116</v>
       </c>
       <c r="H54" s="33"/>
-      <c r="I54" s="73">
+      <c r="I54" s="71">
         <v>45086</v>
       </c>
       <c r="J54" s="8">
         <v>10019603</v>
       </c>
-      <c r="K54" s="86">
+      <c r="K54" s="84">
         <v>45142</v>
       </c>
-      <c r="L54" s="37">
+      <c r="L54" s="162">
         <v>4500021068</v>
       </c>
-      <c r="M54" s="112">
+      <c r="M54" s="110">
         <v>45196</v>
       </c>
       <c r="N54" s="6"/>
@@ -4881,7 +4917,7 @@
         <v>234</v>
       </c>
       <c r="R54" s="6"/>
-      <c r="S54" s="85"/>
+      <c r="S54" s="83"/>
       <c r="T54" s="6"/>
       <c r="U54" s="6"/>
     </row>
@@ -4904,23 +4940,23 @@
       <c r="F55" s="4">
         <v>33</v>
       </c>
-      <c r="G55" s="113" t="s">
+      <c r="G55" s="111" t="s">
         <v>119</v>
       </c>
       <c r="H55" s="35"/>
-      <c r="I55" s="73">
+      <c r="I55" s="71">
         <v>45087</v>
       </c>
       <c r="J55" s="3">
         <v>10019513</v>
       </c>
-      <c r="K55" s="83">
+      <c r="K55" s="81">
         <v>45140</v>
       </c>
-      <c r="L55" s="4">
+      <c r="L55" s="157">
         <v>4500019940</v>
       </c>
-      <c r="M55" s="84">
+      <c r="M55" s="82">
         <v>45149</v>
       </c>
       <c r="N55" s="4"/>
@@ -4936,7 +4972,7 @@
       <c r="R55" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="S55" s="84">
+      <c r="S55" s="82">
         <v>45218</v>
       </c>
       <c r="T55" s="4"/>
@@ -4963,23 +4999,23 @@
       <c r="F56" s="4">
         <v>40</v>
       </c>
-      <c r="G56" s="113" t="s">
+      <c r="G56" s="111" t="s">
         <v>119</v>
       </c>
       <c r="H56" s="35"/>
-      <c r="I56" s="73">
+      <c r="I56" s="71">
         <v>45088</v>
       </c>
       <c r="J56" s="3">
         <v>10019513</v>
       </c>
-      <c r="K56" s="83">
+      <c r="K56" s="81">
         <v>45140</v>
       </c>
-      <c r="L56" s="6">
+      <c r="L56" s="156">
         <v>4500019940</v>
       </c>
-      <c r="M56" s="85">
+      <c r="M56" s="83">
         <v>45149</v>
       </c>
       <c r="N56" s="4"/>
@@ -4993,7 +5029,7 @@
         <v>234</v>
       </c>
       <c r="R56" s="6"/>
-      <c r="S56" s="85"/>
+      <c r="S56" s="83"/>
       <c r="T56" s="6"/>
       <c r="U56" s="6"/>
     </row>
@@ -5020,19 +5056,19 @@
         <v>125</v>
       </c>
       <c r="H57" s="41"/>
-      <c r="I57" s="73">
+      <c r="I57" s="71">
         <v>45089</v>
       </c>
       <c r="J57" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="K57" s="114">
+      <c r="K57" s="112">
         <v>45141</v>
       </c>
-      <c r="L57" s="40">
+      <c r="L57" s="163">
         <v>4500019735</v>
       </c>
-      <c r="M57" s="115">
+      <c r="M57" s="113">
         <v>45140</v>
       </c>
       <c r="N57" s="4"/>
@@ -5046,7 +5082,7 @@
         <v>234</v>
       </c>
       <c r="R57" s="40"/>
-      <c r="S57" s="115"/>
+      <c r="S57" s="113"/>
       <c r="T57" s="40"/>
       <c r="U57" s="40"/>
     </row>
@@ -5063,7 +5099,7 @@
       <c r="D58" s="40">
         <v>500194</v>
       </c>
-      <c r="E58" s="116" t="s">
+      <c r="E58" s="114" t="s">
         <v>40</v>
       </c>
       <c r="F58" s="40">
@@ -5073,19 +5109,19 @@
         <v>125</v>
       </c>
       <c r="H58" s="41"/>
-      <c r="I58" s="73">
+      <c r="I58" s="71">
         <v>45090</v>
       </c>
       <c r="J58" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="K58" s="114">
+      <c r="K58" s="112">
         <v>45141</v>
       </c>
-      <c r="L58" s="40">
+      <c r="L58" s="163">
         <v>4500019735</v>
       </c>
-      <c r="M58" s="115">
+      <c r="M58" s="113">
         <v>45140</v>
       </c>
       <c r="N58" s="4"/>
@@ -5099,7 +5135,7 @@
         <v>234</v>
       </c>
       <c r="R58" s="40"/>
-      <c r="S58" s="115"/>
+      <c r="S58" s="113"/>
       <c r="T58" s="40"/>
       <c r="U58" s="40"/>
     </row>
@@ -5126,19 +5162,19 @@
         <v>53</v>
       </c>
       <c r="H59" s="35"/>
-      <c r="I59" s="73">
+      <c r="I59" s="71">
         <v>45091</v>
       </c>
       <c r="J59" s="3">
         <v>10019607</v>
       </c>
-      <c r="K59" s="83">
+      <c r="K59" s="81">
         <v>45142</v>
       </c>
-      <c r="L59" s="4">
+      <c r="L59" s="157">
         <v>4500020061</v>
       </c>
-      <c r="M59" s="84">
+      <c r="M59" s="82">
         <v>45161</v>
       </c>
       <c r="N59" s="4"/>
@@ -5154,7 +5190,7 @@
       <c r="R59" s="4">
         <v>2310915</v>
       </c>
-      <c r="S59" s="84">
+      <c r="S59" s="82">
         <v>45182</v>
       </c>
       <c r="T59" s="4" t="s">
@@ -5187,19 +5223,19 @@
         <v>53</v>
       </c>
       <c r="H60" s="35"/>
-      <c r="I60" s="73">
+      <c r="I60" s="71">
         <v>45092</v>
       </c>
       <c r="J60" s="3">
         <v>10019607</v>
       </c>
-      <c r="K60" s="83">
+      <c r="K60" s="81">
         <v>45142</v>
       </c>
-      <c r="L60" s="4">
+      <c r="L60" s="157">
         <v>4500020061</v>
       </c>
-      <c r="M60" s="84">
+      <c r="M60" s="82">
         <v>45161</v>
       </c>
       <c r="N60" s="4"/>
@@ -5215,7 +5251,7 @@
       <c r="R60" s="4">
         <v>2310915</v>
       </c>
-      <c r="S60" s="84">
+      <c r="S60" s="82">
         <v>45182</v>
       </c>
       <c r="T60" s="4" t="s">
@@ -5248,19 +5284,19 @@
         <v>53</v>
       </c>
       <c r="H61" s="35"/>
-      <c r="I61" s="73">
+      <c r="I61" s="71">
         <v>45093</v>
       </c>
       <c r="J61" s="3">
         <v>10019607</v>
       </c>
-      <c r="K61" s="83">
+      <c r="K61" s="81">
         <v>45142</v>
       </c>
-      <c r="L61" s="4">
+      <c r="L61" s="157">
         <v>4500020061</v>
       </c>
-      <c r="M61" s="84">
+      <c r="M61" s="82">
         <v>45161</v>
       </c>
       <c r="N61" s="4"/>
@@ -5274,7 +5310,7 @@
         <v>234</v>
       </c>
       <c r="R61" s="4"/>
-      <c r="S61" s="84"/>
+      <c r="S61" s="82"/>
       <c r="T61" s="4"/>
       <c r="U61" s="4"/>
     </row>
@@ -5301,19 +5337,19 @@
         <v>53</v>
       </c>
       <c r="H62" s="35"/>
-      <c r="I62" s="73">
+      <c r="I62" s="71">
         <v>45094</v>
       </c>
       <c r="J62" s="3">
         <v>10019607</v>
       </c>
-      <c r="K62" s="83">
+      <c r="K62" s="81">
         <v>45142</v>
       </c>
-      <c r="L62" s="4">
+      <c r="L62" s="157">
         <v>4500020061</v>
       </c>
-      <c r="M62" s="84">
+      <c r="M62" s="82">
         <v>45161</v>
       </c>
       <c r="N62" s="4"/>
@@ -5327,7 +5363,7 @@
         <v>234</v>
       </c>
       <c r="R62" s="4"/>
-      <c r="S62" s="84"/>
+      <c r="S62" s="82"/>
       <c r="T62" s="4"/>
       <c r="U62" s="4"/>
     </row>
@@ -5341,7 +5377,7 @@
       <c r="C63" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D63" s="87">
+      <c r="D63" s="85">
         <v>504183</v>
       </c>
       <c r="E63" s="1" t="s">
@@ -5354,19 +5390,19 @@
         <v>53</v>
       </c>
       <c r="H63" s="35"/>
-      <c r="I63" s="73">
+      <c r="I63" s="71">
         <v>45095</v>
       </c>
       <c r="J63" s="3">
         <v>10019607</v>
       </c>
-      <c r="K63" s="83">
+      <c r="K63" s="81">
         <v>45142</v>
       </c>
-      <c r="L63" s="4">
+      <c r="L63" s="157">
         <v>4500020061</v>
       </c>
-      <c r="M63" s="84">
+      <c r="M63" s="82">
         <v>45161</v>
       </c>
       <c r="N63" s="4"/>
@@ -5380,7 +5416,7 @@
         <v>234</v>
       </c>
       <c r="R63" s="4"/>
-      <c r="S63" s="84"/>
+      <c r="S63" s="82"/>
       <c r="T63" s="4"/>
       <c r="U63" s="4"/>
     </row>
@@ -5407,19 +5443,19 @@
         <v>53</v>
       </c>
       <c r="H64" s="35"/>
-      <c r="I64" s="73">
+      <c r="I64" s="71">
         <v>45096</v>
       </c>
       <c r="J64" s="3">
         <v>10019607</v>
       </c>
-      <c r="K64" s="83">
+      <c r="K64" s="81">
         <v>45142</v>
       </c>
-      <c r="L64" s="4">
+      <c r="L64" s="157">
         <v>4500020061</v>
       </c>
-      <c r="M64" s="84">
+      <c r="M64" s="82">
         <v>45161</v>
       </c>
       <c r="N64" s="4"/>
@@ -5433,50 +5469,50 @@
         <v>234</v>
       </c>
       <c r="R64" s="4"/>
-      <c r="S64" s="84"/>
+      <c r="S64" s="82"/>
       <c r="T64" s="4"/>
       <c r="U64" s="4"/>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A65" s="117" t="s">
+      <c r="A65" s="115" t="s">
         <v>50</v>
       </c>
-      <c r="B65" s="117" t="s">
+      <c r="B65" s="115" t="s">
         <v>51</v>
       </c>
-      <c r="C65" s="117" t="s">
+      <c r="C65" s="115" t="s">
         <v>27</v>
       </c>
       <c r="D65" s="43">
         <v>501901</v>
       </c>
-      <c r="E65" s="118" t="s">
+      <c r="E65" s="116" t="s">
         <v>28</v>
       </c>
       <c r="F65" s="43">
         <v>150</v>
       </c>
-      <c r="G65" s="117" t="s">
+      <c r="G65" s="115" t="s">
         <v>53</v>
       </c>
       <c r="H65" s="44"/>
-      <c r="I65" s="73">
+      <c r="I65" s="71">
         <v>45097</v>
       </c>
       <c r="J65" s="3">
         <v>10019607</v>
       </c>
-      <c r="K65" s="119">
+      <c r="K65" s="117">
         <v>45142</v>
       </c>
-      <c r="L65" s="4">
+      <c r="L65" s="157">
         <v>4500020061</v>
       </c>
-      <c r="M65" s="84">
+      <c r="M65" s="82">
         <v>45161</v>
       </c>
-      <c r="N65" s="117"/>
-      <c r="O65" s="117" t="s">
+      <c r="N65" s="115"/>
+      <c r="O65" s="115" t="s">
         <v>26</v>
       </c>
       <c r="P65" s="4" t="s">
@@ -5486,7 +5522,7 @@
         <v>234</v>
       </c>
       <c r="R65" s="4"/>
-      <c r="S65" s="84"/>
+      <c r="S65" s="82"/>
       <c r="T65" s="4"/>
       <c r="U65" s="4"/>
     </row>
@@ -5513,19 +5549,19 @@
         <v>53</v>
       </c>
       <c r="H66" s="35"/>
-      <c r="I66" s="73">
+      <c r="I66" s="71">
         <v>45098</v>
       </c>
       <c r="J66" s="3">
         <v>10019607</v>
       </c>
-      <c r="K66" s="83">
+      <c r="K66" s="81">
         <v>45142</v>
       </c>
-      <c r="L66" s="4">
+      <c r="L66" s="157">
         <v>4500020061</v>
       </c>
-      <c r="M66" s="84">
+      <c r="M66" s="82">
         <v>45161</v>
       </c>
       <c r="N66" s="4"/>
@@ -5539,15 +5575,15 @@
         <v>234</v>
       </c>
       <c r="R66" s="4"/>
-      <c r="S66" s="84"/>
+      <c r="S66" s="82"/>
       <c r="T66" s="4"/>
       <c r="U66" s="4"/>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A67" s="120" t="s">
+      <c r="A67" s="118" t="s">
         <v>132</v>
       </c>
-      <c r="B67" s="120" t="s">
+      <c r="B67" s="118" t="s">
         <v>66</v>
       </c>
       <c r="C67" s="46" t="s">
@@ -5562,21 +5598,21 @@
       <c r="F67" s="46">
         <v>1</v>
       </c>
-      <c r="G67" s="120" t="s">
+      <c r="G67" s="118" t="s">
         <v>133</v>
       </c>
       <c r="H67" s="47"/>
-      <c r="I67" s="73">
+      <c r="I67" s="71">
         <v>45099</v>
       </c>
       <c r="J67" s="48">
         <v>10019806</v>
       </c>
-      <c r="K67" s="121">
+      <c r="K67" s="119">
         <v>45141</v>
       </c>
-      <c r="L67" s="46"/>
-      <c r="M67" s="122"/>
+      <c r="L67" s="164"/>
+      <c r="M67" s="120"/>
       <c r="N67" s="46"/>
       <c r="O67" s="46" t="s">
         <v>26</v>
@@ -5588,15 +5624,15 @@
         <v>234</v>
       </c>
       <c r="R67" s="46"/>
-      <c r="S67" s="122"/>
+      <c r="S67" s="120"/>
       <c r="T67" s="46"/>
       <c r="U67" s="46"/>
     </row>
     <row r="68" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="120" t="s">
+      <c r="A68" s="118" t="s">
         <v>134</v>
       </c>
-      <c r="B68" s="123" t="s">
+      <c r="B68" s="121" t="s">
         <v>135</v>
       </c>
       <c r="C68" s="46" t="s">
@@ -5611,23 +5647,23 @@
       <c r="F68" s="46">
         <v>1</v>
       </c>
-      <c r="G68" s="120" t="s">
+      <c r="G68" s="118" t="s">
         <v>107</v>
       </c>
       <c r="H68" s="47"/>
-      <c r="I68" s="73">
+      <c r="I68" s="71">
         <v>45100</v>
       </c>
       <c r="J68" s="48">
         <v>10019687</v>
       </c>
-      <c r="K68" s="121">
+      <c r="K68" s="119">
         <v>45141</v>
       </c>
-      <c r="L68" s="46">
+      <c r="L68" s="164">
         <v>4500020991</v>
       </c>
-      <c r="M68" s="122">
+      <c r="M68" s="120">
         <v>45194</v>
       </c>
       <c r="N68" s="46"/>
@@ -5641,15 +5677,15 @@
         <v>234</v>
       </c>
       <c r="R68" s="46"/>
-      <c r="S68" s="122"/>
+      <c r="S68" s="120"/>
       <c r="T68" s="46"/>
       <c r="U68" s="46"/>
     </row>
     <row r="69" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="123" t="s">
+      <c r="A69" s="121" t="s">
         <v>136</v>
       </c>
-      <c r="B69" s="124" t="s">
+      <c r="B69" s="122" t="s">
         <v>137</v>
       </c>
       <c r="C69" s="46" t="s">
@@ -5658,29 +5694,29 @@
       <c r="D69" s="45">
         <v>504176</v>
       </c>
-      <c r="E69" s="125" t="s">
+      <c r="E69" s="123" t="s">
         <v>45</v>
       </c>
       <c r="F69" s="46">
         <v>1</v>
       </c>
-      <c r="G69" s="120" t="s">
+      <c r="G69" s="118" t="s">
         <v>138</v>
       </c>
       <c r="H69" s="47"/>
-      <c r="I69" s="73">
+      <c r="I69" s="71">
         <v>45101</v>
       </c>
       <c r="J69" s="48">
         <v>10019804</v>
       </c>
-      <c r="K69" s="121">
+      <c r="K69" s="119">
         <v>45141</v>
       </c>
-      <c r="L69" s="46">
+      <c r="L69" s="164">
         <v>4500020993</v>
       </c>
-      <c r="M69" s="122">
+      <c r="M69" s="120">
         <v>45194</v>
       </c>
       <c r="N69" s="46"/>
@@ -5694,15 +5730,15 @@
         <v>234</v>
       </c>
       <c r="R69" s="46"/>
-      <c r="S69" s="122"/>
+      <c r="S69" s="120"/>
       <c r="T69" s="46"/>
       <c r="U69" s="46"/>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A70" s="120" t="s">
+      <c r="A70" s="118" t="s">
         <v>139</v>
       </c>
-      <c r="B70" s="120" t="s">
+      <c r="B70" s="118" t="s">
         <v>106</v>
       </c>
       <c r="C70" s="46" t="s">
@@ -5717,23 +5753,23 @@
       <c r="F70" s="46">
         <v>1</v>
       </c>
-      <c r="G70" s="120" t="s">
+      <c r="G70" s="118" t="s">
         <v>107</v>
       </c>
       <c r="H70" s="47"/>
-      <c r="I70" s="73">
+      <c r="I70" s="71">
         <v>45102</v>
       </c>
       <c r="J70" s="48">
         <v>10019687</v>
       </c>
-      <c r="K70" s="121">
+      <c r="K70" s="119">
         <v>45141</v>
       </c>
-      <c r="L70" s="46">
+      <c r="L70" s="164">
         <v>4500020991</v>
       </c>
-      <c r="M70" s="122">
+      <c r="M70" s="120">
         <v>45194</v>
       </c>
       <c r="N70" s="46"/>
@@ -5747,15 +5783,15 @@
         <v>234</v>
       </c>
       <c r="R70" s="46"/>
-      <c r="S70" s="122"/>
+      <c r="S70" s="120"/>
       <c r="T70" s="46"/>
       <c r="U70" s="46"/>
     </row>
     <row r="71" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="123" t="s">
+      <c r="A71" s="121" t="s">
         <v>140</v>
       </c>
-      <c r="B71" s="120" t="s">
+      <c r="B71" s="118" t="s">
         <v>141</v>
       </c>
       <c r="C71" s="46" t="s">
@@ -5764,29 +5800,29 @@
       <c r="D71" s="49">
         <v>504176</v>
       </c>
-      <c r="E71" s="125" t="s">
+      <c r="E71" s="123" t="s">
         <v>45</v>
       </c>
       <c r="F71" s="46">
         <v>1</v>
       </c>
-      <c r="G71" s="120" t="s">
+      <c r="G71" s="118" t="s">
         <v>138</v>
       </c>
       <c r="H71" s="47"/>
-      <c r="I71" s="73">
+      <c r="I71" s="71">
         <v>45103</v>
       </c>
       <c r="J71" s="48">
         <v>10019804</v>
       </c>
-      <c r="K71" s="121">
+      <c r="K71" s="119">
         <v>45141</v>
       </c>
-      <c r="L71" s="46">
+      <c r="L71" s="164">
         <v>4500020993</v>
       </c>
-      <c r="M71" s="122">
+      <c r="M71" s="120">
         <v>45194</v>
       </c>
       <c r="N71" s="46"/>
@@ -5800,7 +5836,7 @@
         <v>234</v>
       </c>
       <c r="R71" s="46"/>
-      <c r="S71" s="122"/>
+      <c r="S71" s="120"/>
       <c r="T71" s="46"/>
       <c r="U71" s="46"/>
     </row>
@@ -5827,19 +5863,19 @@
         <v>144</v>
       </c>
       <c r="H72" s="50"/>
-      <c r="I72" s="74">
+      <c r="I72" s="72">
         <v>45173</v>
       </c>
       <c r="J72" s="6">
         <v>10020312</v>
       </c>
-      <c r="K72" s="86">
+      <c r="K72" s="84">
         <v>45176</v>
       </c>
-      <c r="L72" s="6">
+      <c r="L72" s="156">
         <v>4500020516</v>
       </c>
-      <c r="M72" s="85">
+      <c r="M72" s="83">
         <v>45180</v>
       </c>
       <c r="N72" s="6"/>
@@ -5853,7 +5889,7 @@
         <v>234</v>
       </c>
       <c r="R72" s="6"/>
-      <c r="S72" s="85"/>
+      <c r="S72" s="83"/>
       <c r="T72" s="6"/>
       <c r="U72" s="6"/>
     </row>
@@ -5880,19 +5916,19 @@
         <v>146</v>
       </c>
       <c r="H73" s="50"/>
-      <c r="I73" s="74">
+      <c r="I73" s="72">
         <v>45173</v>
       </c>
       <c r="J73" s="6">
         <v>10020312</v>
       </c>
-      <c r="K73" s="86">
+      <c r="K73" s="84">
         <v>45176</v>
       </c>
-      <c r="L73" s="6">
+      <c r="L73" s="156">
         <v>4500020516</v>
       </c>
-      <c r="M73" s="85">
+      <c r="M73" s="83">
         <v>45180</v>
       </c>
       <c r="N73" s="6"/>
@@ -5906,7 +5942,7 @@
         <v>234</v>
       </c>
       <c r="R73" s="6"/>
-      <c r="S73" s="85"/>
+      <c r="S73" s="83"/>
       <c r="T73" s="6"/>
       <c r="U73" s="6"/>
     </row>
@@ -5933,19 +5969,19 @@
         <v>144</v>
       </c>
       <c r="H74" s="50"/>
-      <c r="I74" s="74">
+      <c r="I74" s="72">
         <v>45173</v>
       </c>
       <c r="J74" s="6">
         <v>10020312</v>
       </c>
-      <c r="K74" s="86">
+      <c r="K74" s="84">
         <v>45176</v>
       </c>
-      <c r="L74" s="6">
+      <c r="L74" s="156">
         <v>4500020516</v>
       </c>
-      <c r="M74" s="85">
+      <c r="M74" s="83">
         <v>45180</v>
       </c>
       <c r="N74" s="6"/>
@@ -5959,7 +5995,7 @@
         <v>234</v>
       </c>
       <c r="R74" s="6"/>
-      <c r="S74" s="85"/>
+      <c r="S74" s="83"/>
       <c r="T74" s="6"/>
       <c r="U74" s="6"/>
     </row>
@@ -5986,19 +6022,19 @@
         <v>146</v>
       </c>
       <c r="H75" s="50"/>
-      <c r="I75" s="74">
+      <c r="I75" s="72">
         <v>45173</v>
       </c>
       <c r="J75" s="6">
         <v>10020312</v>
       </c>
-      <c r="K75" s="86">
+      <c r="K75" s="84">
         <v>45176</v>
       </c>
-      <c r="L75" s="6">
+      <c r="L75" s="156">
         <v>4500020516</v>
       </c>
-      <c r="M75" s="85">
+      <c r="M75" s="83">
         <v>45180</v>
       </c>
       <c r="N75" s="6"/>
@@ -6012,7 +6048,7 @@
         <v>234</v>
       </c>
       <c r="R75" s="6"/>
-      <c r="S75" s="85"/>
+      <c r="S75" s="83"/>
       <c r="T75" s="6"/>
       <c r="U75" s="6"/>
     </row>
@@ -6029,7 +6065,7 @@
       <c r="D76" s="29">
         <v>503606</v>
       </c>
-      <c r="E76" s="97" t="s">
+      <c r="E76" s="95" t="s">
         <v>148</v>
       </c>
       <c r="F76" s="6">
@@ -6039,19 +6075,19 @@
         <v>144</v>
       </c>
       <c r="H76" s="50"/>
-      <c r="I76" s="74">
+      <c r="I76" s="72">
         <v>45173</v>
       </c>
       <c r="J76" s="6">
         <v>10020312</v>
       </c>
-      <c r="K76" s="86">
+      <c r="K76" s="84">
         <v>45176</v>
       </c>
-      <c r="L76" s="6">
+      <c r="L76" s="156">
         <v>4500020516</v>
       </c>
-      <c r="M76" s="85">
+      <c r="M76" s="83">
         <v>45180</v>
       </c>
       <c r="N76" s="6"/>
@@ -6065,7 +6101,7 @@
         <v>234</v>
       </c>
       <c r="R76" s="6"/>
-      <c r="S76" s="85"/>
+      <c r="S76" s="83"/>
       <c r="T76" s="6"/>
       <c r="U76" s="6"/>
     </row>
@@ -6082,7 +6118,7 @@
       <c r="D77" s="29">
         <v>503606</v>
       </c>
-      <c r="E77" s="97" t="s">
+      <c r="E77" s="95" t="s">
         <v>148</v>
       </c>
       <c r="F77" s="6">
@@ -6092,19 +6128,19 @@
         <v>146</v>
       </c>
       <c r="H77" s="50"/>
-      <c r="I77" s="74">
+      <c r="I77" s="72">
         <v>45173</v>
       </c>
       <c r="J77" s="6">
         <v>10020312</v>
       </c>
-      <c r="K77" s="86">
+      <c r="K77" s="84">
         <v>45176</v>
       </c>
-      <c r="L77" s="6">
+      <c r="L77" s="156">
         <v>4500020516</v>
       </c>
-      <c r="M77" s="85">
+      <c r="M77" s="83">
         <v>45180</v>
       </c>
       <c r="N77" s="6"/>
@@ -6118,7 +6154,7 @@
         <v>234</v>
       </c>
       <c r="R77" s="6"/>
-      <c r="S77" s="85"/>
+      <c r="S77" s="83"/>
       <c r="T77" s="6"/>
       <c r="U77" s="6"/>
     </row>
@@ -6129,13 +6165,13 @@
       <c r="B78" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="C78" s="117" t="s">
+      <c r="C78" s="115" t="s">
         <v>38</v>
       </c>
       <c r="D78" s="29">
         <v>333620</v>
       </c>
-      <c r="E78" s="126" t="s">
+      <c r="E78" s="124" t="s">
         <v>149</v>
       </c>
       <c r="F78" s="51">
@@ -6145,19 +6181,19 @@
         <v>144</v>
       </c>
       <c r="H78" s="52"/>
-      <c r="I78" s="76">
+      <c r="I78" s="74">
         <v>45173</v>
       </c>
       <c r="J78" s="6">
         <v>10020312</v>
       </c>
-      <c r="K78" s="127">
+      <c r="K78" s="125">
         <v>45176</v>
       </c>
-      <c r="L78" s="51">
+      <c r="L78" s="165">
         <v>4500020516</v>
       </c>
-      <c r="M78" s="128">
+      <c r="M78" s="126">
         <v>45180</v>
       </c>
       <c r="N78" s="51"/>
@@ -6171,7 +6207,7 @@
         <v>234</v>
       </c>
       <c r="R78" s="6"/>
-      <c r="S78" s="85"/>
+      <c r="S78" s="83"/>
       <c r="T78" s="6"/>
       <c r="U78" s="6"/>
     </row>
@@ -6188,7 +6224,7 @@
       <c r="D79" s="29">
         <v>333620</v>
       </c>
-      <c r="E79" s="97" t="s">
+      <c r="E79" s="95" t="s">
         <v>149</v>
       </c>
       <c r="F79" s="6">
@@ -6198,19 +6234,19 @@
         <v>146</v>
       </c>
       <c r="H79" s="50"/>
-      <c r="I79" s="74">
+      <c r="I79" s="72">
         <v>45173</v>
       </c>
       <c r="J79" s="6">
         <v>10020312</v>
       </c>
-      <c r="K79" s="86">
+      <c r="K79" s="84">
         <v>45176</v>
       </c>
-      <c r="L79" s="6">
+      <c r="L79" s="156">
         <v>4500020516</v>
       </c>
-      <c r="M79" s="85">
+      <c r="M79" s="83">
         <v>45180</v>
       </c>
       <c r="N79" s="6"/>
@@ -6224,7 +6260,7 @@
         <v>234</v>
       </c>
       <c r="R79" s="6"/>
-      <c r="S79" s="85"/>
+      <c r="S79" s="83"/>
       <c r="T79" s="6"/>
       <c r="U79" s="6"/>
     </row>
@@ -6241,7 +6277,7 @@
       <c r="D80" s="29">
         <v>333621</v>
       </c>
-      <c r="E80" s="97" t="s">
+      <c r="E80" s="95" t="s">
         <v>150</v>
       </c>
       <c r="F80" s="6">
@@ -6251,19 +6287,19 @@
         <v>144</v>
       </c>
       <c r="H80" s="50"/>
-      <c r="I80" s="74">
+      <c r="I80" s="72">
         <v>45173</v>
       </c>
       <c r="J80" s="6">
         <v>10020312</v>
       </c>
-      <c r="K80" s="86">
+      <c r="K80" s="84">
         <v>45176</v>
       </c>
-      <c r="L80" s="6">
+      <c r="L80" s="156">
         <v>4500020516</v>
       </c>
-      <c r="M80" s="85">
+      <c r="M80" s="83">
         <v>45180</v>
       </c>
       <c r="N80" s="6"/>
@@ -6277,7 +6313,7 @@
         <v>234</v>
       </c>
       <c r="R80" s="6"/>
-      <c r="S80" s="85"/>
+      <c r="S80" s="83"/>
       <c r="T80" s="6"/>
       <c r="U80" s="6"/>
     </row>
@@ -6294,7 +6330,7 @@
       <c r="D81" s="29">
         <v>333621</v>
       </c>
-      <c r="E81" s="97" t="s">
+      <c r="E81" s="95" t="s">
         <v>150</v>
       </c>
       <c r="F81" s="6">
@@ -6304,19 +6340,19 @@
         <v>146</v>
       </c>
       <c r="H81" s="50"/>
-      <c r="I81" s="74">
+      <c r="I81" s="72">
         <v>45173</v>
       </c>
       <c r="J81" s="6">
         <v>10020312</v>
       </c>
-      <c r="K81" s="86">
+      <c r="K81" s="84">
         <v>45176</v>
       </c>
-      <c r="L81" s="6">
+      <c r="L81" s="156">
         <v>4500020516</v>
       </c>
-      <c r="M81" s="85">
+      <c r="M81" s="83">
         <v>45180</v>
       </c>
       <c r="N81" s="6"/>
@@ -6330,7 +6366,7 @@
         <v>234</v>
       </c>
       <c r="R81" s="6"/>
-      <c r="S81" s="85"/>
+      <c r="S81" s="83"/>
       <c r="T81" s="6"/>
       <c r="U81" s="6"/>
     </row>
@@ -6357,19 +6393,19 @@
         <v>153</v>
       </c>
       <c r="H82" s="50"/>
-      <c r="I82" s="74">
+      <c r="I82" s="72">
         <v>45173</v>
       </c>
       <c r="J82" s="6">
         <v>10020388</v>
       </c>
-      <c r="K82" s="86">
+      <c r="K82" s="84">
         <v>45180</v>
       </c>
-      <c r="L82" s="6">
+      <c r="L82" s="156">
         <v>4500020746</v>
       </c>
-      <c r="M82" s="85">
+      <c r="M82" s="83">
         <v>45188</v>
       </c>
       <c r="N82" s="4"/>
@@ -6383,7 +6419,7 @@
         <v>234</v>
       </c>
       <c r="R82" s="6"/>
-      <c r="S82" s="85"/>
+      <c r="S82" s="83"/>
       <c r="T82" s="6"/>
       <c r="U82" s="6"/>
     </row>
@@ -6400,7 +6436,7 @@
       <c r="D83" s="29">
         <v>502295</v>
       </c>
-      <c r="E83" s="88" t="s">
+      <c r="E83" s="86" t="s">
         <v>40</v>
       </c>
       <c r="F83" s="53">
@@ -6410,19 +6446,19 @@
         <v>153</v>
       </c>
       <c r="H83" s="50"/>
-      <c r="I83" s="74">
+      <c r="I83" s="72">
         <v>45173</v>
       </c>
       <c r="J83" s="6">
         <v>10020388</v>
       </c>
-      <c r="K83" s="86">
+      <c r="K83" s="84">
         <v>45180</v>
       </c>
-      <c r="L83" s="6">
+      <c r="L83" s="156">
         <v>4500020746</v>
       </c>
-      <c r="M83" s="85">
+      <c r="M83" s="83">
         <v>45188</v>
       </c>
       <c r="N83" s="4"/>
@@ -6436,7 +6472,7 @@
         <v>234</v>
       </c>
       <c r="R83" s="6"/>
-      <c r="S83" s="85"/>
+      <c r="S83" s="83"/>
       <c r="T83" s="6"/>
       <c r="U83" s="6"/>
     </row>
@@ -6453,7 +6489,7 @@
       <c r="D84" s="29">
         <v>333620</v>
       </c>
-      <c r="E84" s="97" t="s">
+      <c r="E84" s="95" t="s">
         <v>149</v>
       </c>
       <c r="F84" s="6">
@@ -6463,19 +6499,19 @@
         <v>156</v>
       </c>
       <c r="H84" s="50"/>
-      <c r="I84" s="74">
+      <c r="I84" s="72">
         <v>45174</v>
       </c>
       <c r="J84" s="8">
         <v>10020393</v>
       </c>
-      <c r="K84" s="86">
+      <c r="K84" s="84">
         <v>45180</v>
       </c>
-      <c r="L84" s="6">
+      <c r="L84" s="156">
         <v>4500021369</v>
       </c>
-      <c r="M84" s="85">
+      <c r="M84" s="83">
         <v>45208</v>
       </c>
       <c r="N84" s="6"/>
@@ -6489,7 +6525,7 @@
         <v>234</v>
       </c>
       <c r="R84" s="6"/>
-      <c r="S84" s="85"/>
+      <c r="S84" s="83"/>
       <c r="T84" s="6"/>
       <c r="U84" s="6"/>
     </row>
@@ -6516,19 +6552,19 @@
         <v>156</v>
       </c>
       <c r="H85" s="50"/>
-      <c r="I85" s="74">
+      <c r="I85" s="72">
         <v>45174</v>
       </c>
       <c r="J85" s="8">
         <v>10020393</v>
       </c>
-      <c r="K85" s="86">
+      <c r="K85" s="84">
         <v>45180</v>
       </c>
-      <c r="L85" s="6">
+      <c r="L85" s="156">
         <v>4500021369</v>
       </c>
-      <c r="M85" s="85">
+      <c r="M85" s="83">
         <v>45208</v>
       </c>
       <c r="N85" s="6"/>
@@ -6542,7 +6578,7 @@
         <v>234</v>
       </c>
       <c r="R85" s="6"/>
-      <c r="S85" s="85"/>
+      <c r="S85" s="83"/>
       <c r="T85" s="6"/>
       <c r="U85" s="6"/>
     </row>
@@ -6559,7 +6595,7 @@
       <c r="D86" s="29">
         <v>503595</v>
       </c>
-      <c r="E86" s="97" t="s">
+      <c r="E86" s="95" t="s">
         <v>143</v>
       </c>
       <c r="F86" s="6">
@@ -6569,19 +6605,19 @@
         <v>156</v>
       </c>
       <c r="H86" s="50"/>
-      <c r="I86" s="74">
+      <c r="I86" s="72">
         <v>45174</v>
       </c>
       <c r="J86" s="8">
         <v>10020393</v>
       </c>
-      <c r="K86" s="86">
+      <c r="K86" s="84">
         <v>45180</v>
       </c>
-      <c r="L86" s="6">
+      <c r="L86" s="156">
         <v>4500021369</v>
       </c>
-      <c r="M86" s="85">
+      <c r="M86" s="83">
         <v>45208</v>
       </c>
       <c r="N86" s="6"/>
@@ -6595,7 +6631,7 @@
         <v>234</v>
       </c>
       <c r="R86" s="6"/>
-      <c r="S86" s="85"/>
+      <c r="S86" s="83"/>
       <c r="T86" s="6"/>
       <c r="U86" s="6"/>
     </row>
@@ -6612,29 +6648,29 @@
       <c r="D87" s="29">
         <v>504179</v>
       </c>
-      <c r="E87" s="105" t="s">
+      <c r="E87" s="103" t="s">
         <v>48</v>
       </c>
       <c r="F87" s="6">
         <v>4</v>
       </c>
-      <c r="G87" s="129" t="s">
+      <c r="G87" s="127" t="s">
         <v>158</v>
       </c>
       <c r="H87" s="50"/>
-      <c r="I87" s="74">
+      <c r="I87" s="72">
         <v>45176</v>
       </c>
       <c r="J87" s="54">
         <v>10020360</v>
       </c>
-      <c r="K87" s="86">
+      <c r="K87" s="84">
         <v>45177</v>
       </c>
-      <c r="L87" s="6">
+      <c r="L87" s="156">
         <v>4500020680</v>
       </c>
-      <c r="M87" s="85">
+      <c r="M87" s="83">
         <v>45184</v>
       </c>
       <c r="N87" s="6"/>
@@ -6648,7 +6684,7 @@
         <v>234</v>
       </c>
       <c r="R87" s="6"/>
-      <c r="S87" s="85"/>
+      <c r="S87" s="83"/>
       <c r="T87" s="6"/>
       <c r="U87" s="6"/>
     </row>
@@ -6665,29 +6701,29 @@
       <c r="D88" s="29">
         <v>502295</v>
       </c>
-      <c r="E88" s="105" t="s">
+      <c r="E88" s="103" t="s">
         <v>40</v>
       </c>
       <c r="F88" s="6">
         <v>4</v>
       </c>
-      <c r="G88" s="129" t="s">
+      <c r="G88" s="127" t="s">
         <v>158</v>
       </c>
       <c r="H88" s="50"/>
-      <c r="I88" s="74">
+      <c r="I88" s="72">
         <v>45176</v>
       </c>
       <c r="J88" s="54">
         <v>10020360</v>
       </c>
-      <c r="K88" s="86">
+      <c r="K88" s="84">
         <v>45177</v>
       </c>
-      <c r="L88" s="6">
+      <c r="L88" s="156">
         <v>4500020680</v>
       </c>
-      <c r="M88" s="85">
+      <c r="M88" s="83">
         <v>45184</v>
       </c>
       <c r="N88" s="6"/>
@@ -6701,7 +6737,7 @@
         <v>234</v>
       </c>
       <c r="R88" s="6"/>
-      <c r="S88" s="85"/>
+      <c r="S88" s="83"/>
       <c r="T88" s="6"/>
       <c r="U88" s="6"/>
     </row>
@@ -6724,23 +6760,23 @@
       <c r="F89" s="6">
         <v>15</v>
       </c>
-      <c r="G89" s="130" t="s">
+      <c r="G89" s="128" t="s">
         <v>161</v>
       </c>
       <c r="H89" s="50"/>
-      <c r="I89" s="74">
+      <c r="I89" s="72">
         <v>45176</v>
       </c>
       <c r="J89" s="8">
         <v>10020347</v>
       </c>
-      <c r="K89" s="86">
+      <c r="K89" s="84">
         <v>45176</v>
       </c>
-      <c r="L89" s="6">
+      <c r="L89" s="156">
         <v>4500021069</v>
       </c>
-      <c r="M89" s="85">
+      <c r="M89" s="83">
         <v>45196</v>
       </c>
       <c r="N89" s="6"/>
@@ -6754,7 +6790,7 @@
         <v>234</v>
       </c>
       <c r="R89" s="6"/>
-      <c r="S89" s="85"/>
+      <c r="S89" s="83"/>
       <c r="T89" s="6"/>
       <c r="U89" s="6"/>
     </row>
@@ -6781,19 +6817,19 @@
         <v>164</v>
       </c>
       <c r="H90" s="50"/>
-      <c r="I90" s="74">
+      <c r="I90" s="72">
         <v>45180</v>
       </c>
       <c r="J90" s="8">
         <v>10020416</v>
       </c>
-      <c r="K90" s="86">
+      <c r="K90" s="84">
         <v>45181</v>
       </c>
-      <c r="L90" s="6">
+      <c r="L90" s="156">
         <v>4500021070</v>
       </c>
-      <c r="M90" s="85">
+      <c r="M90" s="83">
         <v>45196</v>
       </c>
       <c r="N90" s="6"/>
@@ -6807,7 +6843,7 @@
         <v>234</v>
       </c>
       <c r="R90" s="6"/>
-      <c r="S90" s="85"/>
+      <c r="S90" s="83"/>
       <c r="T90" s="6"/>
       <c r="U90" s="6"/>
     </row>
@@ -6824,29 +6860,29 @@
       <c r="D91" s="29">
         <v>502295</v>
       </c>
-      <c r="E91" s="88" t="s">
+      <c r="E91" s="86" t="s">
         <v>40</v>
       </c>
       <c r="F91" s="6">
         <v>3</v>
       </c>
-      <c r="G91" s="131" t="s">
+      <c r="G91" s="129" t="s">
         <v>166</v>
       </c>
       <c r="H91" s="50"/>
-      <c r="I91" s="74">
+      <c r="I91" s="72">
         <v>45180</v>
       </c>
       <c r="J91" s="6">
         <v>10020390</v>
       </c>
-      <c r="K91" s="86">
+      <c r="K91" s="84">
         <v>45180</v>
       </c>
-      <c r="L91" s="6">
+      <c r="L91" s="156">
         <v>4500020681</v>
       </c>
-      <c r="M91" s="85">
+      <c r="M91" s="83">
         <v>45184</v>
       </c>
       <c r="N91" s="6"/>
@@ -6860,15 +6896,15 @@
         <v>234</v>
       </c>
       <c r="R91" s="6"/>
-      <c r="S91" s="85"/>
+      <c r="S91" s="83"/>
       <c r="T91" s="6"/>
       <c r="U91" s="6"/>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A92" s="132" t="s">
+      <c r="A92" s="130" t="s">
         <v>167</v>
       </c>
-      <c r="B92" s="132" t="s">
+      <c r="B92" s="130" t="s">
         <v>168</v>
       </c>
       <c r="C92" s="56" t="s">
@@ -6877,7 +6913,7 @@
       <c r="D92" s="55">
         <v>505334</v>
       </c>
-      <c r="E92" s="133" t="s">
+      <c r="E92" s="131" t="s">
         <v>124</v>
       </c>
       <c r="F92" s="56">
@@ -6887,19 +6923,19 @@
         <v>169</v>
       </c>
       <c r="H92" s="57"/>
-      <c r="I92" s="77">
+      <c r="I92" s="75">
         <v>45187</v>
       </c>
       <c r="J92" s="56">
         <v>10020594</v>
       </c>
-      <c r="K92" s="134">
+      <c r="K92" s="132">
         <v>45187</v>
       </c>
-      <c r="L92" s="56">
+      <c r="L92" s="166">
         <v>4500020873</v>
       </c>
-      <c r="M92" s="85">
+      <c r="M92" s="83">
         <v>45191</v>
       </c>
       <c r="N92" s="4"/>
@@ -6913,15 +6949,15 @@
         <v>234</v>
       </c>
       <c r="R92" s="6"/>
-      <c r="S92" s="85"/>
+      <c r="S92" s="83"/>
       <c r="T92" s="6"/>
       <c r="U92" s="6"/>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A93" s="132" t="s">
+      <c r="A93" s="130" t="s">
         <v>167</v>
       </c>
-      <c r="B93" s="132" t="s">
+      <c r="B93" s="130" t="s">
         <v>168</v>
       </c>
       <c r="C93" s="56" t="s">
@@ -6930,7 +6966,7 @@
       <c r="D93" s="55">
         <v>500194</v>
       </c>
-      <c r="E93" s="133" t="s">
+      <c r="E93" s="131" t="s">
         <v>170</v>
       </c>
       <c r="F93" s="56">
@@ -6940,19 +6976,19 @@
         <v>169</v>
       </c>
       <c r="H93" s="57"/>
-      <c r="I93" s="77">
+      <c r="I93" s="75">
         <v>45187</v>
       </c>
       <c r="J93" s="56">
         <v>10020594</v>
       </c>
-      <c r="K93" s="134">
+      <c r="K93" s="132">
         <v>45187</v>
       </c>
-      <c r="L93" s="56">
+      <c r="L93" s="166">
         <v>4500020873</v>
       </c>
-      <c r="M93" s="85">
+      <c r="M93" s="83">
         <v>45191</v>
       </c>
       <c r="N93" s="4"/>
@@ -6966,7 +7002,7 @@
         <v>234</v>
       </c>
       <c r="R93" s="6"/>
-      <c r="S93" s="85"/>
+      <c r="S93" s="83"/>
       <c r="T93" s="6"/>
       <c r="U93" s="6"/>
     </row>
@@ -6993,19 +7029,19 @@
         <v>173</v>
       </c>
       <c r="H94" s="50"/>
-      <c r="I94" s="74">
+      <c r="I94" s="72">
         <v>45180</v>
       </c>
       <c r="J94" s="6">
         <v>10020404</v>
       </c>
-      <c r="K94" s="86">
+      <c r="K94" s="84">
         <v>45181</v>
       </c>
-      <c r="L94" s="6">
+      <c r="L94" s="156">
         <v>4500020747</v>
       </c>
-      <c r="M94" s="85">
+      <c r="M94" s="83">
         <v>45188</v>
       </c>
       <c r="N94" s="6"/>
@@ -7019,7 +7055,7 @@
         <v>234</v>
       </c>
       <c r="R94" s="6"/>
-      <c r="S94" s="85"/>
+      <c r="S94" s="83"/>
       <c r="T94" s="6"/>
       <c r="U94" s="6"/>
     </row>
@@ -7046,19 +7082,19 @@
         <v>173</v>
       </c>
       <c r="H95" s="50"/>
-      <c r="I95" s="74">
+      <c r="I95" s="72">
         <v>45180</v>
       </c>
       <c r="J95" s="6">
         <v>10020404</v>
       </c>
-      <c r="K95" s="86">
+      <c r="K95" s="84">
         <v>45181</v>
       </c>
-      <c r="L95" s="6">
+      <c r="L95" s="156">
         <v>4500020747</v>
       </c>
-      <c r="M95" s="85">
+      <c r="M95" s="83">
         <v>45188</v>
       </c>
       <c r="N95" s="6"/>
@@ -7072,7 +7108,7 @@
         <v>234</v>
       </c>
       <c r="R95" s="6"/>
-      <c r="S95" s="85"/>
+      <c r="S95" s="83"/>
       <c r="T95" s="6"/>
       <c r="U95" s="6"/>
     </row>
@@ -7089,7 +7125,7 @@
       <c r="D96" s="29">
         <v>502295</v>
       </c>
-      <c r="E96" s="88" t="s">
+      <c r="E96" s="86" t="s">
         <v>40</v>
       </c>
       <c r="F96" s="6">
@@ -7099,19 +7135,19 @@
         <v>176</v>
       </c>
       <c r="H96" s="50"/>
-      <c r="I96" s="74">
+      <c r="I96" s="72">
         <v>45182</v>
       </c>
       <c r="J96" s="8">
         <v>10020556</v>
       </c>
-      <c r="K96" s="86">
+      <c r="K96" s="84">
         <v>45184</v>
       </c>
-      <c r="L96" s="6">
+      <c r="L96" s="156">
         <v>4500020994</v>
       </c>
-      <c r="M96" s="122">
+      <c r="M96" s="120">
         <v>45194</v>
       </c>
       <c r="N96" s="6"/>
@@ -7125,7 +7161,7 @@
         <v>234</v>
       </c>
       <c r="R96" s="6"/>
-      <c r="S96" s="85"/>
+      <c r="S96" s="83"/>
       <c r="T96" s="46"/>
       <c r="U96" s="6"/>
     </row>
@@ -7142,7 +7178,7 @@
       <c r="D97" s="29">
         <v>502295</v>
       </c>
-      <c r="E97" s="88" t="s">
+      <c r="E97" s="86" t="s">
         <v>40</v>
       </c>
       <c r="F97" s="6">
@@ -7152,19 +7188,19 @@
         <v>179</v>
       </c>
       <c r="H97" s="50"/>
-      <c r="I97" s="74">
+      <c r="I97" s="72">
         <v>45182</v>
       </c>
       <c r="J97" s="8">
         <v>10020651</v>
       </c>
-      <c r="K97" s="86">
+      <c r="K97" s="84">
         <v>45188</v>
       </c>
-      <c r="L97" s="6">
+      <c r="L97" s="156">
         <v>4500021488</v>
       </c>
-      <c r="M97" s="85">
+      <c r="M97" s="83">
         <v>45210</v>
       </c>
       <c r="N97" s="6"/>
@@ -7178,7 +7214,7 @@
         <v>234</v>
       </c>
       <c r="R97" s="6"/>
-      <c r="S97" s="85"/>
+      <c r="S97" s="83"/>
       <c r="T97" s="6"/>
       <c r="U97" s="6"/>
     </row>
@@ -7205,19 +7241,19 @@
         <v>179</v>
       </c>
       <c r="H98" s="50"/>
-      <c r="I98" s="74">
+      <c r="I98" s="72">
         <v>45182</v>
       </c>
       <c r="J98" s="8">
         <v>10020651</v>
       </c>
-      <c r="K98" s="86">
+      <c r="K98" s="84">
         <v>45188</v>
       </c>
-      <c r="L98" s="6">
+      <c r="L98" s="156">
         <v>4500021488</v>
       </c>
-      <c r="M98" s="85">
+      <c r="M98" s="83">
         <v>45210</v>
       </c>
       <c r="N98" s="6"/>
@@ -7231,7 +7267,7 @@
         <v>234</v>
       </c>
       <c r="R98" s="6"/>
-      <c r="S98" s="85"/>
+      <c r="S98" s="83"/>
       <c r="T98" s="6"/>
       <c r="U98" s="6"/>
     </row>
@@ -7258,19 +7294,19 @@
         <v>179</v>
       </c>
       <c r="H99" s="50"/>
-      <c r="I99" s="74">
+      <c r="I99" s="72">
         <v>45182</v>
       </c>
       <c r="J99" s="8">
         <v>10020651</v>
       </c>
-      <c r="K99" s="86">
+      <c r="K99" s="84">
         <v>45188</v>
       </c>
-      <c r="L99" s="6">
+      <c r="L99" s="156">
         <v>4500021488</v>
       </c>
-      <c r="M99" s="85">
+      <c r="M99" s="83">
         <v>45210</v>
       </c>
       <c r="N99" s="6"/>
@@ -7284,7 +7320,7 @@
         <v>234</v>
       </c>
       <c r="R99" s="6"/>
-      <c r="S99" s="85"/>
+      <c r="S99" s="83"/>
       <c r="T99" s="6"/>
       <c r="U99" s="6"/>
     </row>
@@ -7311,19 +7347,19 @@
         <v>90</v>
       </c>
       <c r="H100" s="50"/>
-      <c r="I100" s="74">
+      <c r="I100" s="72">
         <v>45184</v>
       </c>
       <c r="J100" s="6">
         <v>10020565</v>
       </c>
-      <c r="K100" s="86">
+      <c r="K100" s="84">
         <v>45184</v>
       </c>
-      <c r="L100" s="6">
+      <c r="L100" s="156">
         <v>4500021146</v>
       </c>
-      <c r="M100" s="85">
+      <c r="M100" s="83">
         <v>45201</v>
       </c>
       <c r="N100" s="6"/>
@@ -7337,7 +7373,7 @@
         <v>234</v>
       </c>
       <c r="R100" s="6"/>
-      <c r="S100" s="85"/>
+      <c r="S100" s="83"/>
       <c r="T100" s="6"/>
       <c r="U100" s="6"/>
     </row>
@@ -7354,7 +7390,7 @@
       <c r="D101" s="29">
         <v>504172</v>
       </c>
-      <c r="E101" s="135" t="s">
+      <c r="E101" s="133" t="s">
         <v>183</v>
       </c>
       <c r="F101" s="6">
@@ -7364,19 +7400,19 @@
         <v>184</v>
       </c>
       <c r="H101" s="50"/>
-      <c r="I101" s="74">
+      <c r="I101" s="72">
         <v>45096</v>
       </c>
       <c r="J101" s="6">
         <v>10018515</v>
       </c>
-      <c r="K101" s="86">
+      <c r="K101" s="84">
         <v>45096</v>
       </c>
-      <c r="L101" s="6">
+      <c r="L101" s="156">
         <v>4500019558</v>
       </c>
-      <c r="M101" s="85">
+      <c r="M101" s="83">
         <v>45135</v>
       </c>
       <c r="N101" s="6"/>
@@ -7390,7 +7426,7 @@
         <v>234</v>
       </c>
       <c r="R101" s="6"/>
-      <c r="S101" s="85">
+      <c r="S101" s="83">
         <v>45189</v>
       </c>
       <c r="T101" s="6"/>
@@ -7419,19 +7455,19 @@
         <v>185</v>
       </c>
       <c r="H102" s="50"/>
-      <c r="I102" s="74">
+      <c r="I102" s="72">
         <v>45189</v>
       </c>
       <c r="J102" s="6">
         <v>10020739</v>
       </c>
-      <c r="K102" s="86">
+      <c r="K102" s="84">
         <v>45191</v>
       </c>
-      <c r="L102" s="6">
+      <c r="L102" s="156">
         <v>4500021175</v>
       </c>
-      <c r="M102" s="85">
+      <c r="M102" s="83">
         <v>45202</v>
       </c>
       <c r="N102" s="4"/>
@@ -7445,7 +7481,7 @@
         <v>234</v>
       </c>
       <c r="R102" s="6"/>
-      <c r="S102" s="85"/>
+      <c r="S102" s="83"/>
       <c r="T102" s="6"/>
       <c r="U102" s="6"/>
     </row>
@@ -7462,7 +7498,7 @@
       <c r="D103" s="29">
         <v>502295</v>
       </c>
-      <c r="E103" s="88" t="s">
+      <c r="E103" s="86" t="s">
         <v>40</v>
       </c>
       <c r="F103" s="6">
@@ -7472,19 +7508,19 @@
         <v>185</v>
       </c>
       <c r="H103" s="50"/>
-      <c r="I103" s="74">
+      <c r="I103" s="72">
         <v>45189</v>
       </c>
       <c r="J103" s="6">
         <v>10020739</v>
       </c>
-      <c r="K103" s="86">
+      <c r="K103" s="84">
         <v>45191</v>
       </c>
-      <c r="L103" s="6">
+      <c r="L103" s="156">
         <v>4500021175</v>
       </c>
-      <c r="M103" s="85">
+      <c r="M103" s="83">
         <v>45202</v>
       </c>
       <c r="N103" s="4"/>
@@ -7498,7 +7534,7 @@
         <v>234</v>
       </c>
       <c r="R103" s="6"/>
-      <c r="S103" s="85"/>
+      <c r="S103" s="83"/>
       <c r="T103" s="6"/>
       <c r="U103" s="6"/>
     </row>
@@ -7525,19 +7561,19 @@
         <v>138</v>
       </c>
       <c r="H104" s="50"/>
-      <c r="I104" s="74">
+      <c r="I104" s="72">
         <v>45189</v>
       </c>
       <c r="J104" s="6">
         <v>10020739</v>
       </c>
-      <c r="K104" s="86">
+      <c r="K104" s="84">
         <v>45191</v>
       </c>
-      <c r="L104" s="6">
+      <c r="L104" s="156">
         <v>4500021175</v>
       </c>
-      <c r="M104" s="85">
+      <c r="M104" s="83">
         <v>45202</v>
       </c>
       <c r="N104" s="4"/>
@@ -7551,7 +7587,7 @@
         <v>234</v>
       </c>
       <c r="R104" s="6"/>
-      <c r="S104" s="85"/>
+      <c r="S104" s="83"/>
       <c r="T104" s="6"/>
       <c r="U104" s="6"/>
     </row>
@@ -7568,7 +7604,7 @@
       <c r="D105" s="29">
         <v>502295</v>
       </c>
-      <c r="E105" s="88" t="s">
+      <c r="E105" s="86" t="s">
         <v>40</v>
       </c>
       <c r="F105" s="6">
@@ -7578,19 +7614,19 @@
         <v>138</v>
       </c>
       <c r="H105" s="50"/>
-      <c r="I105" s="74">
+      <c r="I105" s="72">
         <v>45189</v>
       </c>
       <c r="J105" s="6">
         <v>10020739</v>
       </c>
-      <c r="K105" s="86">
+      <c r="K105" s="84">
         <v>45191</v>
       </c>
-      <c r="L105" s="6">
+      <c r="L105" s="156">
         <v>4500021175</v>
       </c>
-      <c r="M105" s="85">
+      <c r="M105" s="83">
         <v>45202</v>
       </c>
       <c r="N105" s="4"/>
@@ -7604,7 +7640,7 @@
         <v>234</v>
       </c>
       <c r="R105" s="6"/>
-      <c r="S105" s="85"/>
+      <c r="S105" s="83"/>
       <c r="T105" s="6"/>
       <c r="U105" s="6"/>
     </row>
@@ -7621,7 +7657,7 @@
       <c r="D106" s="29">
         <v>505330</v>
       </c>
-      <c r="E106" s="136" t="s">
+      <c r="E106" s="134" t="s">
         <v>101</v>
       </c>
       <c r="F106" s="6">
@@ -7631,19 +7667,19 @@
         <v>188</v>
       </c>
       <c r="H106" s="50"/>
-      <c r="I106" s="74">
+      <c r="I106" s="72">
         <v>45191</v>
       </c>
       <c r="J106" s="6">
         <v>10020783</v>
       </c>
-      <c r="K106" s="86">
+      <c r="K106" s="84">
         <v>45194</v>
       </c>
-      <c r="L106" s="6">
+      <c r="L106" s="156">
         <v>4500021421</v>
       </c>
-      <c r="M106" s="85">
+      <c r="M106" s="83">
         <v>45209</v>
       </c>
       <c r="N106" s="4"/>
@@ -7657,15 +7693,15 @@
         <v>234</v>
       </c>
       <c r="R106" s="6"/>
-      <c r="S106" s="85"/>
+      <c r="S106" s="83"/>
       <c r="T106" s="6"/>
       <c r="U106" s="6"/>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A107" s="137" t="s">
+      <c r="A107" s="135" t="s">
         <v>186</v>
       </c>
-      <c r="B107" s="137" t="s">
+      <c r="B107" s="135" t="s">
         <v>187</v>
       </c>
       <c r="C107" s="17" t="s">
@@ -7674,29 +7710,29 @@
       <c r="D107" s="29">
         <v>303483</v>
       </c>
-      <c r="E107" s="138" t="s">
+      <c r="E107" s="136" t="s">
         <v>104</v>
       </c>
       <c r="F107" s="17">
         <v>10</v>
       </c>
-      <c r="G107" s="139" t="s">
+      <c r="G107" s="137" t="s">
         <v>188</v>
       </c>
       <c r="H107" s="50"/>
-      <c r="I107" s="74">
+      <c r="I107" s="72">
         <v>45191</v>
       </c>
       <c r="J107" s="6">
         <v>10020783</v>
       </c>
-      <c r="K107" s="86">
+      <c r="K107" s="84">
         <v>45194</v>
       </c>
-      <c r="L107" s="6">
+      <c r="L107" s="156">
         <v>4500021421</v>
       </c>
-      <c r="M107" s="85">
+      <c r="M107" s="83">
         <v>45209</v>
       </c>
       <c r="N107" s="4"/>
@@ -7710,7 +7746,7 @@
         <v>234</v>
       </c>
       <c r="R107" s="6"/>
-      <c r="S107" s="85"/>
+      <c r="S107" s="83"/>
       <c r="T107" s="6"/>
       <c r="U107" s="6"/>
     </row>
@@ -7727,7 +7763,7 @@
       <c r="D108" s="6">
         <v>505330</v>
       </c>
-      <c r="E108" s="136" t="s">
+      <c r="E108" s="134" t="s">
         <v>101</v>
       </c>
       <c r="F108" s="58">
@@ -7737,17 +7773,17 @@
         <v>166</v>
       </c>
       <c r="H108" s="50"/>
-      <c r="I108" s="74">
+      <c r="I108" s="72">
         <v>45203</v>
       </c>
       <c r="J108" s="6">
         <v>10021561</v>
       </c>
-      <c r="K108" s="86">
+      <c r="K108" s="84">
         <v>45219</v>
       </c>
-      <c r="L108" s="6"/>
-      <c r="M108" s="85"/>
+      <c r="L108" s="156"/>
+      <c r="M108" s="83"/>
       <c r="N108" s="4"/>
       <c r="O108" s="4" t="s">
         <v>189</v>
@@ -7759,7 +7795,7 @@
         <v>234</v>
       </c>
       <c r="R108" s="6"/>
-      <c r="S108" s="85"/>
+      <c r="S108" s="83"/>
       <c r="T108" s="6"/>
       <c r="U108" s="6"/>
     </row>
@@ -7776,27 +7812,27 @@
       <c r="D109" s="28">
         <v>503600</v>
       </c>
-      <c r="E109" s="140" t="s">
+      <c r="E109" s="138" t="s">
         <v>93</v>
       </c>
       <c r="F109" s="4">
         <v>1</v>
       </c>
-      <c r="G109" s="141" t="s">
+      <c r="G109" s="139" t="s">
         <v>191</v>
       </c>
       <c r="H109" s="50"/>
-      <c r="I109" s="74">
+      <c r="I109" s="72">
         <v>45201</v>
       </c>
       <c r="J109" s="13">
         <v>10021036</v>
       </c>
-      <c r="K109" s="86">
+      <c r="K109" s="84">
         <v>45203</v>
       </c>
-      <c r="L109" s="6"/>
-      <c r="M109" s="85"/>
+      <c r="L109" s="156"/>
+      <c r="M109" s="83"/>
       <c r="N109" s="6"/>
       <c r="O109" s="6" t="s">
         <v>64</v>
@@ -7808,7 +7844,7 @@
         <v>234</v>
       </c>
       <c r="R109" s="6"/>
-      <c r="S109" s="85"/>
+      <c r="S109" s="83"/>
       <c r="T109" s="6"/>
       <c r="U109" s="6"/>
     </row>
@@ -7825,27 +7861,27 @@
       <c r="D110" s="28">
         <v>333620</v>
       </c>
-      <c r="E110" s="105" t="s">
+      <c r="E110" s="103" t="s">
         <v>149</v>
       </c>
       <c r="F110" s="4">
         <v>1</v>
       </c>
-      <c r="G110" s="141" t="s">
+      <c r="G110" s="139" t="s">
         <v>191</v>
       </c>
       <c r="H110" s="50"/>
-      <c r="I110" s="74">
+      <c r="I110" s="72">
         <v>45201</v>
       </c>
       <c r="J110" s="13">
         <v>10021036</v>
       </c>
-      <c r="K110" s="86">
+      <c r="K110" s="84">
         <v>45203</v>
       </c>
-      <c r="L110" s="6"/>
-      <c r="M110" s="85"/>
+      <c r="L110" s="156"/>
+      <c r="M110" s="83"/>
       <c r="N110" s="6"/>
       <c r="O110" s="6" t="s">
         <v>64</v>
@@ -7857,15 +7893,15 @@
         <v>234</v>
       </c>
       <c r="R110" s="6"/>
-      <c r="S110" s="85"/>
+      <c r="S110" s="83"/>
       <c r="T110" s="6"/>
       <c r="U110" s="6"/>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A111" s="142" t="s">
+      <c r="A111" s="140" t="s">
         <v>190</v>
       </c>
-      <c r="B111" s="142" t="s">
+      <c r="B111" s="140" t="s">
         <v>66</v>
       </c>
       <c r="C111" s="13" t="s">
@@ -7874,27 +7910,27 @@
       <c r="D111" s="15">
         <v>503600</v>
       </c>
-      <c r="E111" s="143" t="s">
+      <c r="E111" s="141" t="s">
         <v>93</v>
       </c>
       <c r="F111" s="13">
         <v>5</v>
       </c>
-      <c r="G111" s="144" t="s">
+      <c r="G111" s="142" t="s">
         <v>192</v>
       </c>
       <c r="H111" s="59"/>
-      <c r="I111" s="75">
+      <c r="I111" s="73">
         <v>45201</v>
       </c>
       <c r="J111" s="13">
         <v>10021036</v>
       </c>
-      <c r="K111" s="86">
+      <c r="K111" s="84">
         <v>45203</v>
       </c>
-      <c r="L111" s="13"/>
-      <c r="M111" s="93"/>
+      <c r="L111" s="158"/>
+      <c r="M111" s="91"/>
       <c r="N111" s="13"/>
       <c r="O111" s="13" t="s">
         <v>64</v>
@@ -7906,15 +7942,15 @@
         <v>234</v>
       </c>
       <c r="R111" s="13"/>
-      <c r="S111" s="93"/>
+      <c r="S111" s="91"/>
       <c r="T111" s="13"/>
       <c r="U111" s="13"/>
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A112" s="142" t="s">
+      <c r="A112" s="140" t="s">
         <v>190</v>
       </c>
-      <c r="B112" s="142" t="s">
+      <c r="B112" s="140" t="s">
         <v>66</v>
       </c>
       <c r="C112" s="13" t="s">
@@ -7923,27 +7959,27 @@
       <c r="D112" s="15">
         <v>333620</v>
       </c>
-      <c r="E112" s="143" t="s">
+      <c r="E112" s="141" t="s">
         <v>149</v>
       </c>
       <c r="F112" s="13">
         <v>5</v>
       </c>
-      <c r="G112" s="144" t="s">
+      <c r="G112" s="142" t="s">
         <v>192</v>
       </c>
       <c r="H112" s="59"/>
-      <c r="I112" s="75">
+      <c r="I112" s="73">
         <v>45201</v>
       </c>
       <c r="J112" s="13">
         <v>10021036</v>
       </c>
-      <c r="K112" s="86">
+      <c r="K112" s="84">
         <v>45203</v>
       </c>
-      <c r="L112" s="13"/>
-      <c r="M112" s="93"/>
+      <c r="L112" s="158"/>
+      <c r="M112" s="91"/>
       <c r="N112" s="13"/>
       <c r="O112" s="13" t="s">
         <v>64</v>
@@ -7955,15 +7991,15 @@
         <v>234</v>
       </c>
       <c r="R112" s="13"/>
-      <c r="S112" s="93"/>
+      <c r="S112" s="91"/>
       <c r="T112" s="13"/>
       <c r="U112" s="13"/>
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A113" s="142" t="s">
+      <c r="A113" s="140" t="s">
         <v>190</v>
       </c>
-      <c r="B113" s="142" t="s">
+      <c r="B113" s="140" t="s">
         <v>66</v>
       </c>
       <c r="C113" s="13" t="s">
@@ -7972,27 +8008,27 @@
       <c r="D113" s="15">
         <v>503590</v>
       </c>
-      <c r="E113" s="143" t="s">
+      <c r="E113" s="141" t="s">
         <v>193</v>
       </c>
       <c r="F113" s="13">
         <v>4</v>
       </c>
-      <c r="G113" s="144" t="s">
+      <c r="G113" s="142" t="s">
         <v>192</v>
       </c>
       <c r="H113" s="59"/>
-      <c r="I113" s="75">
+      <c r="I113" s="73">
         <v>45201</v>
       </c>
       <c r="J113" s="13">
         <v>10021036</v>
       </c>
-      <c r="K113" s="86">
+      <c r="K113" s="84">
         <v>45203</v>
       </c>
-      <c r="L113" s="60"/>
-      <c r="M113" s="145"/>
+      <c r="L113" s="167"/>
+      <c r="M113" s="143"/>
       <c r="N113" s="13"/>
       <c r="O113" s="13" t="s">
         <v>64</v>
@@ -8004,15 +8040,15 @@
         <v>234</v>
       </c>
       <c r="R113" s="13"/>
-      <c r="S113" s="93"/>
+      <c r="S113" s="91"/>
       <c r="T113" s="13"/>
       <c r="U113" s="13"/>
     </row>
     <row r="114" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A114" s="142" t="s">
+      <c r="A114" s="140" t="s">
         <v>190</v>
       </c>
-      <c r="B114" s="142" t="s">
+      <c r="B114" s="140" t="s">
         <v>66</v>
       </c>
       <c r="C114" s="13" t="s">
@@ -8021,27 +8057,27 @@
       <c r="D114" s="15">
         <v>503599</v>
       </c>
-      <c r="E114" s="143" t="s">
+      <c r="E114" s="141" t="s">
         <v>194</v>
       </c>
       <c r="F114" s="13">
         <v>4</v>
       </c>
-      <c r="G114" s="144" t="s">
+      <c r="G114" s="142" t="s">
         <v>192</v>
       </c>
       <c r="H114" s="59"/>
-      <c r="I114" s="75">
+      <c r="I114" s="73">
         <v>45201</v>
       </c>
       <c r="J114" s="13">
         <v>10021036</v>
       </c>
-      <c r="K114" s="86">
+      <c r="K114" s="84">
         <v>45203</v>
       </c>
-      <c r="L114" s="60"/>
-      <c r="M114" s="145"/>
+      <c r="L114" s="167"/>
+      <c r="M114" s="143"/>
       <c r="N114" s="13"/>
       <c r="O114" s="13" t="s">
         <v>64</v>
@@ -8053,7 +8089,7 @@
         <v>234</v>
       </c>
       <c r="R114" s="13"/>
-      <c r="S114" s="93"/>
+      <c r="S114" s="91"/>
       <c r="T114" s="13"/>
       <c r="U114" s="13"/>
     </row>
@@ -8070,27 +8106,27 @@
       <c r="D115" s="28">
         <v>333635</v>
       </c>
-      <c r="E115" s="105" t="s">
+      <c r="E115" s="103" t="s">
         <v>195</v>
       </c>
       <c r="F115" s="4">
         <v>1</v>
       </c>
-      <c r="G115" s="146" t="s">
+      <c r="G115" s="144" t="s">
         <v>196</v>
       </c>
       <c r="H115" s="50"/>
-      <c r="I115" s="74">
+      <c r="I115" s="72">
         <v>45201</v>
       </c>
       <c r="J115" s="13">
         <v>10021036</v>
       </c>
-      <c r="K115" s="86">
+      <c r="K115" s="84">
         <v>45203</v>
       </c>
-      <c r="L115" s="61"/>
-      <c r="M115" s="128"/>
+      <c r="L115" s="168"/>
+      <c r="M115" s="126"/>
       <c r="N115" s="6"/>
       <c r="O115" s="6" t="s">
         <v>64</v>
@@ -8102,7 +8138,7 @@
         <v>234</v>
       </c>
       <c r="R115" s="6"/>
-      <c r="S115" s="85"/>
+      <c r="S115" s="83"/>
       <c r="T115" s="6"/>
       <c r="U115" s="6"/>
     </row>
@@ -8119,27 +8155,27 @@
       <c r="D116" s="28">
         <v>503605</v>
       </c>
-      <c r="E116" s="105" t="s">
+      <c r="E116" s="103" t="s">
         <v>74</v>
       </c>
       <c r="F116" s="4">
         <v>4</v>
       </c>
-      <c r="G116" s="146" t="s">
+      <c r="G116" s="144" t="s">
         <v>196</v>
       </c>
       <c r="H116" s="50"/>
-      <c r="I116" s="74">
+      <c r="I116" s="72">
         <v>45201</v>
       </c>
       <c r="J116" s="13">
         <v>10021036</v>
       </c>
-      <c r="K116" s="86">
+      <c r="K116" s="84">
         <v>45203</v>
       </c>
-      <c r="L116" s="61"/>
-      <c r="M116" s="128"/>
+      <c r="L116" s="168"/>
+      <c r="M116" s="126"/>
       <c r="N116" s="6"/>
       <c r="O116" s="6" t="s">
         <v>64</v>
@@ -8151,7 +8187,7 @@
         <v>234</v>
       </c>
       <c r="R116" s="6"/>
-      <c r="S116" s="85"/>
+      <c r="S116" s="83"/>
       <c r="T116" s="6"/>
       <c r="U116" s="6"/>
     </row>
@@ -8168,27 +8204,27 @@
       <c r="D117" s="28">
         <v>333620</v>
       </c>
-      <c r="E117" s="105" t="s">
+      <c r="E117" s="103" t="s">
         <v>149</v>
       </c>
       <c r="F117" s="4">
         <v>1</v>
       </c>
-      <c r="G117" s="146" t="s">
+      <c r="G117" s="144" t="s">
         <v>196</v>
       </c>
       <c r="H117" s="50"/>
-      <c r="I117" s="74">
+      <c r="I117" s="72">
         <v>45201</v>
       </c>
       <c r="J117" s="13">
         <v>10021036</v>
       </c>
-      <c r="K117" s="86">
+      <c r="K117" s="84">
         <v>45203</v>
       </c>
-      <c r="L117" s="6"/>
-      <c r="M117" s="85"/>
+      <c r="L117" s="156"/>
+      <c r="M117" s="83"/>
       <c r="N117" s="6"/>
       <c r="O117" s="6" t="s">
         <v>64</v>
@@ -8200,7 +8236,7 @@
         <v>234</v>
       </c>
       <c r="R117" s="6"/>
-      <c r="S117" s="85"/>
+      <c r="S117" s="83"/>
       <c r="T117" s="6"/>
       <c r="U117" s="6"/>
     </row>
@@ -8214,30 +8250,30 @@
       <c r="C118" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="D118" s="147">
+      <c r="D118" s="145">
         <v>504175</v>
       </c>
-      <c r="E118" s="88" t="s">
+      <c r="E118" s="86" t="s">
         <v>127</v>
       </c>
       <c r="F118" s="53">
         <v>1</v>
       </c>
-      <c r="G118" s="88" t="s">
+      <c r="G118" s="86" t="s">
         <v>107</v>
       </c>
-      <c r="H118" s="62"/>
-      <c r="I118" s="78">
+      <c r="H118" s="60"/>
+      <c r="I118" s="76">
         <v>45210</v>
       </c>
       <c r="J118" s="6">
         <v>10021344</v>
       </c>
-      <c r="K118" s="86">
+      <c r="K118" s="84">
         <v>45212</v>
       </c>
-      <c r="L118" s="58"/>
-      <c r="M118" s="85"/>
+      <c r="L118" s="169"/>
+      <c r="M118" s="83"/>
       <c r="N118" s="6"/>
       <c r="O118" s="6" t="s">
         <v>26</v>
@@ -8249,7 +8285,7 @@
         <v>234</v>
       </c>
       <c r="R118" s="6"/>
-      <c r="S118" s="85"/>
+      <c r="S118" s="83"/>
       <c r="T118" s="6"/>
       <c r="U118" s="6"/>
     </row>
@@ -8263,30 +8299,30 @@
       <c r="C119" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="D119" s="147">
+      <c r="D119" s="145">
         <v>504175</v>
       </c>
-      <c r="E119" s="88" t="s">
+      <c r="E119" s="86" t="s">
         <v>127</v>
       </c>
       <c r="F119" s="53">
         <v>1</v>
       </c>
-      <c r="G119" s="88" t="s">
+      <c r="G119" s="86" t="s">
         <v>107</v>
       </c>
       <c r="H119" s="50"/>
-      <c r="I119" s="74">
+      <c r="I119" s="72">
         <v>45210</v>
       </c>
       <c r="J119" s="6">
         <v>10021344</v>
       </c>
-      <c r="K119" s="86">
+      <c r="K119" s="84">
         <v>45212</v>
       </c>
-      <c r="L119" s="58"/>
-      <c r="M119" s="85"/>
+      <c r="L119" s="169"/>
+      <c r="M119" s="83"/>
       <c r="N119" s="6"/>
       <c r="O119" s="6" t="s">
         <v>26</v>
@@ -8298,7 +8334,7 @@
         <v>234</v>
       </c>
       <c r="R119" s="6"/>
-      <c r="S119" s="85"/>
+      <c r="S119" s="83"/>
       <c r="T119" s="6"/>
       <c r="U119" s="6"/>
     </row>
@@ -8315,27 +8351,27 @@
       <c r="D120" s="10">
         <v>501901</v>
       </c>
-      <c r="E120" s="88" t="s">
+      <c r="E120" s="86" t="s">
         <v>28</v>
       </c>
       <c r="F120" s="53">
         <v>1</v>
       </c>
-      <c r="G120" s="88" t="s">
+      <c r="G120" s="86" t="s">
         <v>107</v>
       </c>
       <c r="H120" s="50"/>
-      <c r="I120" s="74">
+      <c r="I120" s="72">
         <v>45210</v>
       </c>
       <c r="J120" s="6">
         <v>10021344</v>
       </c>
-      <c r="K120" s="86">
+      <c r="K120" s="84">
         <v>45212</v>
       </c>
-      <c r="L120" s="58"/>
-      <c r="M120" s="85"/>
+      <c r="L120" s="169"/>
+      <c r="M120" s="83"/>
       <c r="N120" s="6"/>
       <c r="O120" s="6" t="s">
         <v>26</v>
@@ -8347,7 +8383,7 @@
         <v>234</v>
       </c>
       <c r="R120" s="6"/>
-      <c r="S120" s="85"/>
+      <c r="S120" s="83"/>
       <c r="T120" s="6"/>
       <c r="U120" s="6"/>
     </row>
@@ -8361,30 +8397,30 @@
       <c r="C121" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="D121" s="63">
+      <c r="D121" s="61">
         <v>502295</v>
       </c>
-      <c r="E121" s="88" t="s">
+      <c r="E121" s="86" t="s">
         <v>40</v>
       </c>
       <c r="F121" s="53">
         <v>1</v>
       </c>
-      <c r="G121" s="88" t="s">
+      <c r="G121" s="86" t="s">
         <v>107</v>
       </c>
       <c r="H121" s="50"/>
-      <c r="I121" s="74">
+      <c r="I121" s="72">
         <v>45210</v>
       </c>
       <c r="J121" s="6">
         <v>10021344</v>
       </c>
-      <c r="K121" s="86">
+      <c r="K121" s="84">
         <v>45212</v>
       </c>
-      <c r="L121" s="58"/>
-      <c r="M121" s="85"/>
+      <c r="L121" s="169"/>
+      <c r="M121" s="83"/>
       <c r="N121" s="6"/>
       <c r="O121" s="6" t="s">
         <v>26</v>
@@ -8396,7 +8432,7 @@
         <v>234</v>
       </c>
       <c r="R121" s="6"/>
-      <c r="S121" s="85"/>
+      <c r="S121" s="83"/>
       <c r="T121" s="6"/>
       <c r="U121" s="6"/>
     </row>
@@ -8410,10 +8446,10 @@
       <c r="C122" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="D122" s="96">
+      <c r="D122" s="94">
         <v>504175</v>
       </c>
-      <c r="E122" s="88" t="s">
+      <c r="E122" s="86" t="s">
         <v>127</v>
       </c>
       <c r="F122" s="53">
@@ -8423,17 +8459,17 @@
         <v>197</v>
       </c>
       <c r="H122" s="50"/>
-      <c r="I122" s="74">
+      <c r="I122" s="72">
         <v>45210</v>
       </c>
       <c r="J122" s="6">
         <v>10021344</v>
       </c>
-      <c r="K122" s="86">
+      <c r="K122" s="84">
         <v>45212</v>
       </c>
-      <c r="L122" s="6"/>
-      <c r="M122" s="85"/>
+      <c r="L122" s="156"/>
+      <c r="M122" s="83"/>
       <c r="N122" s="6"/>
       <c r="O122" s="6" t="s">
         <v>26</v>
@@ -8445,7 +8481,7 @@
         <v>234</v>
       </c>
       <c r="R122" s="6"/>
-      <c r="S122" s="85"/>
+      <c r="S122" s="83"/>
       <c r="T122" s="6"/>
       <c r="U122" s="6"/>
     </row>
@@ -8462,27 +8498,27 @@
       <c r="D123" s="6">
         <v>505330</v>
       </c>
-      <c r="E123" s="136" t="s">
+      <c r="E123" s="134" t="s">
         <v>101</v>
       </c>
       <c r="F123" s="58">
         <v>1</v>
       </c>
-      <c r="G123" s="131" t="s">
+      <c r="G123" s="129" t="s">
         <v>200</v>
       </c>
       <c r="H123" s="50"/>
-      <c r="I123" s="74">
+      <c r="I123" s="72">
         <v>45201</v>
       </c>
       <c r="J123" s="6">
         <v>10021249</v>
       </c>
-      <c r="K123" s="86">
+      <c r="K123" s="84">
         <v>45209</v>
       </c>
-      <c r="L123" s="6"/>
-      <c r="M123" s="85"/>
+      <c r="L123" s="156"/>
+      <c r="M123" s="83"/>
       <c r="N123" s="4"/>
       <c r="O123" s="4" t="s">
         <v>189</v>
@@ -8494,7 +8530,7 @@
         <v>234</v>
       </c>
       <c r="R123" s="6"/>
-      <c r="S123" s="85"/>
+      <c r="S123" s="83"/>
       <c r="T123" s="6"/>
       <c r="U123" s="6"/>
     </row>
@@ -8508,10 +8544,10 @@
       <c r="C124" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="D124" s="64">
+      <c r="D124" s="62">
         <v>501901</v>
       </c>
-      <c r="E124" s="140" t="s">
+      <c r="E124" s="138" t="s">
         <v>28</v>
       </c>
       <c r="F124" s="6">
@@ -8521,17 +8557,17 @@
         <v>203</v>
       </c>
       <c r="H124" s="50"/>
-      <c r="I124" s="74">
+      <c r="I124" s="72">
         <v>45202</v>
       </c>
       <c r="J124" s="6">
         <v>10021234</v>
       </c>
-      <c r="K124" s="86">
+      <c r="K124" s="84">
         <v>45209</v>
       </c>
-      <c r="L124" s="6"/>
-      <c r="M124" s="85"/>
+      <c r="L124" s="156"/>
+      <c r="M124" s="83"/>
       <c r="N124" s="6"/>
       <c r="O124" s="6" t="s">
         <v>26</v>
@@ -8543,7 +8579,7 @@
         <v>234</v>
       </c>
       <c r="R124" s="6"/>
-      <c r="S124" s="85"/>
+      <c r="S124" s="83"/>
       <c r="T124" s="6"/>
       <c r="U124" s="6"/>
     </row>
@@ -8560,7 +8596,7 @@
       <c r="D125" s="10">
         <v>337928</v>
       </c>
-      <c r="E125" s="105" t="s">
+      <c r="E125" s="103" t="s">
         <v>204</v>
       </c>
       <c r="F125" s="6">
@@ -8570,17 +8606,17 @@
         <v>203</v>
       </c>
       <c r="H125" s="50"/>
-      <c r="I125" s="74">
+      <c r="I125" s="72">
         <v>45202</v>
       </c>
       <c r="J125" s="6">
         <v>10021234</v>
       </c>
-      <c r="K125" s="86">
+      <c r="K125" s="84">
         <v>45209</v>
       </c>
-      <c r="L125" s="6"/>
-      <c r="M125" s="85"/>
+      <c r="L125" s="156"/>
+      <c r="M125" s="83"/>
       <c r="N125" s="6"/>
       <c r="O125" s="6" t="s">
         <v>26</v>
@@ -8592,7 +8628,7 @@
         <v>234</v>
       </c>
       <c r="R125" s="6"/>
-      <c r="S125" s="85"/>
+      <c r="S125" s="83"/>
       <c r="T125" s="6"/>
       <c r="U125" s="6"/>
     </row>
@@ -8609,27 +8645,27 @@
       <c r="D126" s="6">
         <v>505330</v>
       </c>
-      <c r="E126" s="136" t="s">
+      <c r="E126" s="134" t="s">
         <v>101</v>
       </c>
       <c r="F126" s="58">
         <v>10</v>
       </c>
-      <c r="G126" s="148" t="s">
+      <c r="G126" s="146" t="s">
         <v>207</v>
       </c>
       <c r="H126" s="50"/>
-      <c r="I126" s="74">
+      <c r="I126" s="72">
         <v>45203</v>
       </c>
       <c r="J126" s="6">
         <v>10021343</v>
       </c>
-      <c r="K126" s="86">
+      <c r="K126" s="84">
         <v>45212</v>
       </c>
-      <c r="L126" s="6"/>
-      <c r="M126" s="85"/>
+      <c r="L126" s="156"/>
+      <c r="M126" s="83"/>
       <c r="N126" s="4"/>
       <c r="O126" s="4" t="s">
         <v>189</v>
@@ -8641,7 +8677,7 @@
         <v>234</v>
       </c>
       <c r="R126" s="6"/>
-      <c r="S126" s="85"/>
+      <c r="S126" s="83"/>
       <c r="T126" s="6"/>
       <c r="U126" s="6"/>
     </row>
@@ -8658,7 +8694,7 @@
       <c r="D127" s="6">
         <v>505330</v>
       </c>
-      <c r="E127" s="136" t="s">
+      <c r="E127" s="134" t="s">
         <v>101</v>
       </c>
       <c r="F127" s="58">
@@ -8668,17 +8704,17 @@
         <v>210</v>
       </c>
       <c r="H127" s="50"/>
-      <c r="I127" s="74">
+      <c r="I127" s="72">
         <v>45203</v>
       </c>
       <c r="J127" s="6">
         <v>10021341</v>
       </c>
-      <c r="K127" s="86">
+      <c r="K127" s="84">
         <v>45212</v>
       </c>
-      <c r="L127" s="6"/>
-      <c r="M127" s="85"/>
+      <c r="L127" s="156"/>
+      <c r="M127" s="83"/>
       <c r="N127" s="4"/>
       <c r="O127" s="4" t="s">
         <v>189</v>
@@ -8690,7 +8726,7 @@
         <v>234</v>
       </c>
       <c r="R127" s="6"/>
-      <c r="S127" s="85"/>
+      <c r="S127" s="83"/>
       <c r="T127" s="6"/>
       <c r="U127" s="6"/>
     </row>
@@ -8717,17 +8753,17 @@
         <v>213</v>
       </c>
       <c r="H128" s="5"/>
-      <c r="I128" s="73">
+      <c r="I128" s="71">
         <v>45204</v>
       </c>
       <c r="J128" s="4">
         <v>10021239</v>
       </c>
-      <c r="K128" s="83">
+      <c r="K128" s="81">
         <v>45209</v>
       </c>
-      <c r="L128" s="4"/>
-      <c r="M128" s="84"/>
+      <c r="L128" s="157"/>
+      <c r="M128" s="82"/>
       <c r="N128" s="4"/>
       <c r="O128" s="4" t="s">
         <v>189</v>
@@ -8739,7 +8775,7 @@
         <v>234</v>
       </c>
       <c r="R128" s="6"/>
-      <c r="S128" s="85"/>
+      <c r="S128" s="83"/>
       <c r="T128" s="6"/>
       <c r="U128" s="6"/>
     </row>
@@ -8753,10 +8789,10 @@
       <c r="C129" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="D129" s="96">
+      <c r="D129" s="94">
         <v>504178</v>
       </c>
-      <c r="E129" s="105" t="s">
+      <c r="E129" s="103" t="s">
         <v>214</v>
       </c>
       <c r="F129" s="4">
@@ -8766,17 +8802,17 @@
         <v>37</v>
       </c>
       <c r="H129" s="50"/>
-      <c r="I129" s="74">
+      <c r="I129" s="72">
         <v>45209</v>
       </c>
       <c r="J129" s="6">
         <v>10021331</v>
       </c>
-      <c r="K129" s="86">
+      <c r="K129" s="84">
         <v>45212</v>
       </c>
-      <c r="L129" s="6"/>
-      <c r="M129" s="85"/>
+      <c r="L129" s="156"/>
+      <c r="M129" s="83"/>
       <c r="N129" s="6"/>
       <c r="O129" s="6" t="s">
         <v>26</v>
@@ -8788,7 +8824,7 @@
         <v>234</v>
       </c>
       <c r="R129" s="6"/>
-      <c r="S129" s="85"/>
+      <c r="S129" s="83"/>
       <c r="T129" s="6"/>
       <c r="U129" s="6"/>
     </row>
@@ -8805,7 +8841,7 @@
       <c r="D130" s="7">
         <v>502295</v>
       </c>
-      <c r="E130" s="105" t="s">
+      <c r="E130" s="103" t="s">
         <v>40</v>
       </c>
       <c r="F130" s="4">
@@ -8815,17 +8851,17 @@
         <v>37</v>
       </c>
       <c r="H130" s="50"/>
-      <c r="I130" s="74">
+      <c r="I130" s="72">
         <v>45209</v>
       </c>
       <c r="J130" s="6">
         <v>10021331</v>
       </c>
-      <c r="K130" s="86">
+      <c r="K130" s="84">
         <v>45212</v>
       </c>
-      <c r="L130" s="6"/>
-      <c r="M130" s="85"/>
+      <c r="L130" s="156"/>
+      <c r="M130" s="83"/>
       <c r="N130" s="6"/>
       <c r="O130" s="6" t="s">
         <v>26</v>
@@ -8837,7 +8873,7 @@
         <v>234</v>
       </c>
       <c r="R130" s="6"/>
-      <c r="S130" s="85"/>
+      <c r="S130" s="83"/>
       <c r="T130" s="6"/>
       <c r="U130" s="6"/>
     </row>
@@ -8864,17 +8900,17 @@
         <v>107</v>
       </c>
       <c r="H131" s="50"/>
-      <c r="I131" s="74">
+      <c r="I131" s="72">
         <v>45208</v>
       </c>
       <c r="J131" s="54">
         <v>10021333</v>
       </c>
-      <c r="K131" s="86">
+      <c r="K131" s="84">
         <v>45212</v>
       </c>
-      <c r="L131" s="6"/>
-      <c r="M131" s="85"/>
+      <c r="L131" s="156"/>
+      <c r="M131" s="83"/>
       <c r="N131" s="4"/>
       <c r="O131" s="4" t="s">
         <v>189</v>
@@ -8886,7 +8922,7 @@
         <v>234</v>
       </c>
       <c r="R131" s="6"/>
-      <c r="S131" s="85"/>
+      <c r="S131" s="83"/>
       <c r="T131" s="6"/>
       <c r="U131" s="6"/>
     </row>
@@ -8913,17 +8949,17 @@
         <v>107</v>
       </c>
       <c r="H132" s="50"/>
-      <c r="I132" s="74">
+      <c r="I132" s="72">
         <v>45208</v>
       </c>
       <c r="J132" s="54">
         <v>10021333</v>
       </c>
-      <c r="K132" s="86">
+      <c r="K132" s="84">
         <v>45212</v>
       </c>
-      <c r="L132" s="6"/>
-      <c r="M132" s="85"/>
+      <c r="L132" s="156"/>
+      <c r="M132" s="83"/>
       <c r="N132" s="4"/>
       <c r="O132" s="4" t="s">
         <v>189</v>
@@ -8935,44 +8971,44 @@
         <v>234</v>
       </c>
       <c r="R132" s="6"/>
-      <c r="S132" s="85"/>
+      <c r="S132" s="83"/>
       <c r="T132" s="6"/>
       <c r="U132" s="6"/>
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A133" s="149" t="s">
+      <c r="A133" s="147" t="s">
         <v>211</v>
       </c>
-      <c r="B133" s="149" t="s">
+      <c r="B133" s="147" t="s">
         <v>219</v>
       </c>
-      <c r="C133" s="149" t="s">
+      <c r="C133" s="147" t="s">
         <v>20</v>
       </c>
       <c r="D133" s="6">
         <v>505328</v>
       </c>
-      <c r="E133" s="136" t="s">
+      <c r="E133" s="134" t="s">
         <v>220</v>
       </c>
-      <c r="F133" s="65">
+      <c r="F133" s="63">
         <v>30</v>
       </c>
-      <c r="G133" s="149" t="s">
+      <c r="G133" s="147" t="s">
         <v>53</v>
       </c>
       <c r="H133" s="50"/>
-      <c r="I133" s="74">
+      <c r="I133" s="72">
         <v>45209</v>
       </c>
       <c r="J133" s="6">
         <v>10021462</v>
       </c>
-      <c r="K133" s="86">
+      <c r="K133" s="84">
         <v>45216</v>
       </c>
-      <c r="L133" s="6"/>
-      <c r="M133" s="85"/>
+      <c r="L133" s="156"/>
+      <c r="M133" s="83"/>
       <c r="N133" s="4"/>
       <c r="O133" s="4" t="s">
         <v>189</v>
@@ -8984,44 +9020,44 @@
         <v>234</v>
       </c>
       <c r="R133" s="6"/>
-      <c r="S133" s="85"/>
+      <c r="S133" s="83"/>
       <c r="T133" s="6"/>
       <c r="U133" s="6"/>
     </row>
     <row r="134" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A134" s="149" t="s">
+      <c r="A134" s="147" t="s">
         <v>211</v>
       </c>
-      <c r="B134" s="149" t="s">
+      <c r="B134" s="147" t="s">
         <v>219</v>
       </c>
-      <c r="C134" s="149" t="s">
+      <c r="C134" s="147" t="s">
         <v>38</v>
       </c>
       <c r="D134" s="6">
         <v>311201</v>
       </c>
-      <c r="E134" s="150" t="s">
+      <c r="E134" s="148" t="s">
         <v>94</v>
       </c>
-      <c r="F134" s="65">
+      <c r="F134" s="63">
         <v>30</v>
       </c>
-      <c r="G134" s="149" t="s">
+      <c r="G134" s="147" t="s">
         <v>53</v>
       </c>
       <c r="H134" s="50"/>
-      <c r="I134" s="74">
+      <c r="I134" s="72">
         <v>45209</v>
       </c>
       <c r="J134" s="6">
         <v>10021462</v>
       </c>
-      <c r="K134" s="86">
+      <c r="K134" s="84">
         <v>45216</v>
       </c>
-      <c r="L134" s="6"/>
-      <c r="M134" s="85"/>
+      <c r="L134" s="156"/>
+      <c r="M134" s="83"/>
       <c r="N134" s="4"/>
       <c r="O134" s="4" t="s">
         <v>189</v>
@@ -9033,44 +9069,44 @@
         <v>234</v>
       </c>
       <c r="R134" s="6"/>
-      <c r="S134" s="85"/>
+      <c r="S134" s="83"/>
       <c r="T134" s="6"/>
       <c r="U134" s="6"/>
     </row>
     <row r="135" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A135" s="149" t="s">
+      <c r="A135" s="147" t="s">
         <v>211</v>
       </c>
-      <c r="B135" s="149" t="s">
+      <c r="B135" s="147" t="s">
         <v>219</v>
       </c>
-      <c r="C135" s="149" t="s">
+      <c r="C135" s="147" t="s">
         <v>27</v>
       </c>
       <c r="D135" s="6">
         <v>500194</v>
       </c>
-      <c r="E135" s="136" t="s">
+      <c r="E135" s="134" t="s">
         <v>170</v>
       </c>
-      <c r="F135" s="65">
+      <c r="F135" s="63">
         <v>150</v>
       </c>
-      <c r="G135" s="149" t="s">
+      <c r="G135" s="147" t="s">
         <v>53</v>
       </c>
       <c r="H135" s="50"/>
-      <c r="I135" s="74">
+      <c r="I135" s="72">
         <v>45209</v>
       </c>
       <c r="J135" s="6">
         <v>10021462</v>
       </c>
-      <c r="K135" s="86">
+      <c r="K135" s="84">
         <v>45217</v>
       </c>
-      <c r="L135" s="6"/>
-      <c r="M135" s="85"/>
+      <c r="L135" s="156"/>
+      <c r="M135" s="83"/>
       <c r="N135" s="4"/>
       <c r="O135" s="4" t="s">
         <v>189</v>
@@ -9082,44 +9118,44 @@
         <v>234</v>
       </c>
       <c r="R135" s="6"/>
-      <c r="S135" s="85"/>
+      <c r="S135" s="83"/>
       <c r="T135" s="6"/>
       <c r="U135" s="6"/>
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A136" s="149" t="s">
+      <c r="A136" s="147" t="s">
         <v>211</v>
       </c>
-      <c r="B136" s="149" t="s">
+      <c r="B136" s="147" t="s">
         <v>219</v>
       </c>
-      <c r="C136" s="151" t="s">
+      <c r="C136" s="149" t="s">
         <v>103</v>
       </c>
       <c r="D136" s="6">
         <v>303483</v>
       </c>
-      <c r="E136" s="136" t="s">
+      <c r="E136" s="134" t="s">
         <v>104</v>
       </c>
-      <c r="F136" s="65">
+      <c r="F136" s="63">
         <v>50</v>
       </c>
-      <c r="G136" s="149" t="s">
+      <c r="G136" s="147" t="s">
         <v>53</v>
       </c>
       <c r="H136" s="50"/>
-      <c r="I136" s="74">
+      <c r="I136" s="72">
         <v>45209</v>
       </c>
       <c r="J136" s="6">
         <v>10021462</v>
       </c>
-      <c r="K136" s="86">
+      <c r="K136" s="84">
         <v>45218</v>
       </c>
-      <c r="L136" s="6"/>
-      <c r="M136" s="85"/>
+      <c r="L136" s="156"/>
+      <c r="M136" s="83"/>
       <c r="N136" s="4"/>
       <c r="O136" s="4" t="s">
         <v>189</v>
@@ -9131,44 +9167,44 @@
         <v>234</v>
       </c>
       <c r="R136" s="6"/>
-      <c r="S136" s="85"/>
+      <c r="S136" s="83"/>
       <c r="T136" s="6"/>
       <c r="U136" s="6"/>
     </row>
     <row r="137" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A137" s="149" t="s">
+      <c r="A137" s="147" t="s">
         <v>211</v>
       </c>
-      <c r="B137" s="149" t="s">
+      <c r="B137" s="147" t="s">
         <v>219</v>
       </c>
-      <c r="C137" s="151" t="s">
+      <c r="C137" s="149" t="s">
         <v>47</v>
       </c>
       <c r="D137" s="6">
         <v>505334</v>
       </c>
-      <c r="E137" s="136" t="s">
+      <c r="E137" s="134" t="s">
         <v>124</v>
       </c>
-      <c r="F137" s="65">
+      <c r="F137" s="63">
         <v>100</v>
       </c>
-      <c r="G137" s="149" t="s">
+      <c r="G137" s="147" t="s">
         <v>53</v>
       </c>
       <c r="H137" s="50"/>
-      <c r="I137" s="74">
+      <c r="I137" s="72">
         <v>45209</v>
       </c>
       <c r="J137" s="6">
         <v>10021462</v>
       </c>
-      <c r="K137" s="86">
+      <c r="K137" s="84">
         <v>45219</v>
       </c>
-      <c r="L137" s="6"/>
-      <c r="M137" s="85"/>
+      <c r="L137" s="156"/>
+      <c r="M137" s="83"/>
       <c r="N137" s="4"/>
       <c r="O137" s="4" t="s">
         <v>189</v>
@@ -9180,44 +9216,44 @@
         <v>234</v>
       </c>
       <c r="R137" s="6"/>
-      <c r="S137" s="85"/>
+      <c r="S137" s="83"/>
       <c r="T137" s="6"/>
       <c r="U137" s="6"/>
     </row>
     <row r="138" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A138" s="149" t="s">
+      <c r="A138" s="147" t="s">
         <v>211</v>
       </c>
-      <c r="B138" s="149" t="s">
+      <c r="B138" s="147" t="s">
         <v>219</v>
       </c>
-      <c r="C138" s="151" t="s">
+      <c r="C138" s="149" t="s">
         <v>27</v>
       </c>
       <c r="D138" s="6">
         <v>503717</v>
       </c>
-      <c r="E138" s="136" t="s">
+      <c r="E138" s="134" t="s">
         <v>217</v>
       </c>
-      <c r="F138" s="65">
+      <c r="F138" s="63">
         <v>20</v>
       </c>
-      <c r="G138" s="149" t="s">
+      <c r="G138" s="147" t="s">
         <v>53</v>
       </c>
       <c r="H138" s="50"/>
-      <c r="I138" s="74">
+      <c r="I138" s="72">
         <v>45209</v>
       </c>
       <c r="J138" s="6">
         <v>10021462</v>
       </c>
-      <c r="K138" s="86">
+      <c r="K138" s="84">
         <v>45220</v>
       </c>
-      <c r="L138" s="6"/>
-      <c r="M138" s="85"/>
+      <c r="L138" s="156"/>
+      <c r="M138" s="83"/>
       <c r="N138" s="4"/>
       <c r="O138" s="4" t="s">
         <v>189</v>
@@ -9229,7 +9265,7 @@
         <v>234</v>
       </c>
       <c r="R138" s="6"/>
-      <c r="S138" s="85"/>
+      <c r="S138" s="83"/>
       <c r="T138" s="6"/>
       <c r="U138" s="6"/>
     </row>
@@ -9246,27 +9282,27 @@
       <c r="D139" s="6">
         <v>505330</v>
       </c>
-      <c r="E139" s="136" t="s">
+      <c r="E139" s="134" t="s">
         <v>101</v>
       </c>
-      <c r="F139" s="66">
+      <c r="F139" s="64">
         <v>20</v>
       </c>
       <c r="G139" s="31" t="s">
         <v>63</v>
       </c>
       <c r="H139" s="50"/>
-      <c r="I139" s="74">
+      <c r="I139" s="72">
         <v>45209</v>
       </c>
       <c r="J139" s="6">
         <v>10021462</v>
       </c>
-      <c r="K139" s="86">
+      <c r="K139" s="84">
         <v>45221</v>
       </c>
-      <c r="L139" s="6"/>
-      <c r="M139" s="85"/>
+      <c r="L139" s="156"/>
+      <c r="M139" s="83"/>
       <c r="N139" s="4"/>
       <c r="O139" s="4" t="s">
         <v>189</v>
@@ -9278,7 +9314,7 @@
         <v>234</v>
       </c>
       <c r="R139" s="6"/>
-      <c r="S139" s="85"/>
+      <c r="S139" s="83"/>
       <c r="T139" s="6"/>
       <c r="U139" s="6"/>
     </row>
@@ -9295,27 +9331,27 @@
       <c r="D140" s="6">
         <v>311201</v>
       </c>
-      <c r="E140" s="97" t="s">
+      <c r="E140" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="F140" s="66">
+      <c r="F140" s="64">
         <v>50</v>
       </c>
       <c r="G140" s="31" t="s">
         <v>63</v>
       </c>
       <c r="H140" s="50"/>
-      <c r="I140" s="74">
+      <c r="I140" s="72">
         <v>45209</v>
       </c>
       <c r="J140" s="6">
         <v>10021462</v>
       </c>
-      <c r="K140" s="86">
+      <c r="K140" s="84">
         <v>45222</v>
       </c>
-      <c r="L140" s="6"/>
-      <c r="M140" s="85"/>
+      <c r="L140" s="156"/>
+      <c r="M140" s="83"/>
       <c r="N140" s="4"/>
       <c r="O140" s="4" t="s">
         <v>189</v>
@@ -9327,7 +9363,7 @@
         <v>234</v>
       </c>
       <c r="R140" s="6"/>
-      <c r="S140" s="85"/>
+      <c r="S140" s="83"/>
       <c r="T140" s="6"/>
       <c r="U140" s="6"/>
     </row>
@@ -9344,27 +9380,27 @@
       <c r="D141" s="6">
         <v>500194</v>
       </c>
-      <c r="E141" s="136" t="s">
+      <c r="E141" s="134" t="s">
         <v>170</v>
       </c>
-      <c r="F141" s="66">
+      <c r="F141" s="64">
         <v>50</v>
       </c>
       <c r="G141" s="31" t="s">
         <v>63</v>
       </c>
       <c r="H141" s="50"/>
-      <c r="I141" s="74">
+      <c r="I141" s="72">
         <v>45209</v>
       </c>
       <c r="J141" s="6">
         <v>10021462</v>
       </c>
-      <c r="K141" s="86">
+      <c r="K141" s="84">
         <v>45223</v>
       </c>
-      <c r="L141" s="6"/>
-      <c r="M141" s="85"/>
+      <c r="L141" s="156"/>
+      <c r="M141" s="83"/>
       <c r="N141" s="4"/>
       <c r="O141" s="4" t="s">
         <v>189</v>
@@ -9376,44 +9412,44 @@
         <v>234</v>
       </c>
       <c r="R141" s="6"/>
-      <c r="S141" s="85"/>
+      <c r="S141" s="83"/>
       <c r="T141" s="6"/>
       <c r="U141" s="6"/>
     </row>
     <row r="142" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A142" s="152" t="s">
+      <c r="A142" s="150" t="s">
         <v>211</v>
       </c>
-      <c r="B142" s="152" t="s">
+      <c r="B142" s="150" t="s">
         <v>221</v>
       </c>
-      <c r="C142" s="152" t="s">
+      <c r="C142" s="150" t="s">
         <v>20</v>
       </c>
       <c r="D142" s="6">
         <v>505330</v>
       </c>
-      <c r="E142" s="136" t="s">
+      <c r="E142" s="134" t="s">
         <v>101</v>
       </c>
-      <c r="F142" s="67">
+      <c r="F142" s="65">
         <v>30</v>
       </c>
-      <c r="G142" s="131" t="s">
+      <c r="G142" s="129" t="s">
         <v>222</v>
       </c>
       <c r="H142" s="50"/>
-      <c r="I142" s="74">
+      <c r="I142" s="72">
         <v>45209</v>
       </c>
       <c r="J142" s="6">
         <v>10021462</v>
       </c>
-      <c r="K142" s="86">
+      <c r="K142" s="84">
         <v>45224</v>
       </c>
-      <c r="L142" s="6"/>
-      <c r="M142" s="85"/>
+      <c r="L142" s="156"/>
+      <c r="M142" s="83"/>
       <c r="N142" s="4"/>
       <c r="O142" s="4" t="s">
         <v>189</v>
@@ -9425,44 +9461,44 @@
         <v>234</v>
       </c>
       <c r="R142" s="6"/>
-      <c r="S142" s="85"/>
+      <c r="S142" s="83"/>
       <c r="T142" s="6"/>
       <c r="U142" s="6"/>
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A143" s="152" t="s">
+      <c r="A143" s="150" t="s">
         <v>211</v>
       </c>
-      <c r="B143" s="152" t="s">
+      <c r="B143" s="150" t="s">
         <v>221</v>
       </c>
-      <c r="C143" s="152" t="s">
+      <c r="C143" s="150" t="s">
         <v>38</v>
       </c>
       <c r="D143" s="6">
         <v>311201</v>
       </c>
-      <c r="E143" s="153" t="s">
+      <c r="E143" s="151" t="s">
         <v>94</v>
       </c>
-      <c r="F143" s="67">
+      <c r="F143" s="65">
         <v>50</v>
       </c>
-      <c r="G143" s="131" t="s">
+      <c r="G143" s="129" t="s">
         <v>222</v>
       </c>
       <c r="H143" s="50"/>
-      <c r="I143" s="74">
+      <c r="I143" s="72">
         <v>45209</v>
       </c>
       <c r="J143" s="6">
         <v>10021462</v>
       </c>
-      <c r="K143" s="86">
+      <c r="K143" s="84">
         <v>45225</v>
       </c>
-      <c r="L143" s="6"/>
-      <c r="M143" s="85"/>
+      <c r="L143" s="156"/>
+      <c r="M143" s="83"/>
       <c r="N143" s="4"/>
       <c r="O143" s="4" t="s">
         <v>189</v>
@@ -9474,44 +9510,44 @@
         <v>234</v>
       </c>
       <c r="R143" s="6"/>
-      <c r="S143" s="85"/>
+      <c r="S143" s="83"/>
       <c r="T143" s="6"/>
       <c r="U143" s="6"/>
     </row>
     <row r="144" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A144" s="152" t="s">
+      <c r="A144" s="150" t="s">
         <v>211</v>
       </c>
-      <c r="B144" s="152" t="s">
+      <c r="B144" s="150" t="s">
         <v>221</v>
       </c>
-      <c r="C144" s="152" t="s">
+      <c r="C144" s="150" t="s">
         <v>27</v>
       </c>
       <c r="D144" s="6">
         <v>500194</v>
       </c>
-      <c r="E144" s="136" t="s">
+      <c r="E144" s="134" t="s">
         <v>170</v>
       </c>
-      <c r="F144" s="67">
+      <c r="F144" s="65">
         <v>50</v>
       </c>
-      <c r="G144" s="131" t="s">
+      <c r="G144" s="129" t="s">
         <v>222</v>
       </c>
       <c r="H144" s="50"/>
-      <c r="I144" s="74">
+      <c r="I144" s="72">
         <v>45209</v>
       </c>
       <c r="J144" s="6">
         <v>10021462</v>
       </c>
-      <c r="K144" s="86">
+      <c r="K144" s="84">
         <v>45226</v>
       </c>
-      <c r="L144" s="6"/>
-      <c r="M144" s="85"/>
+      <c r="L144" s="156"/>
+      <c r="M144" s="83"/>
       <c r="N144" s="4"/>
       <c r="O144" s="4" t="s">
         <v>189</v>
@@ -9523,44 +9559,44 @@
         <v>234</v>
       </c>
       <c r="R144" s="6"/>
-      <c r="S144" s="85"/>
+      <c r="S144" s="83"/>
       <c r="T144" s="6"/>
       <c r="U144" s="6"/>
     </row>
     <row r="145" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A145" s="152" t="s">
+      <c r="A145" s="150" t="s">
         <v>211</v>
       </c>
-      <c r="B145" s="152" t="s">
+      <c r="B145" s="150" t="s">
         <v>221</v>
       </c>
-      <c r="C145" s="154" t="s">
+      <c r="C145" s="152" t="s">
         <v>103</v>
       </c>
       <c r="D145" s="6">
         <v>303483</v>
       </c>
-      <c r="E145" s="136" t="s">
+      <c r="E145" s="134" t="s">
         <v>104</v>
       </c>
-      <c r="F145" s="67">
+      <c r="F145" s="65">
         <v>100</v>
       </c>
-      <c r="G145" s="131" t="s">
+      <c r="G145" s="129" t="s">
         <v>222</v>
       </c>
       <c r="H145" s="50"/>
-      <c r="I145" s="74">
+      <c r="I145" s="72">
         <v>45209</v>
       </c>
       <c r="J145" s="6">
         <v>10021462</v>
       </c>
-      <c r="K145" s="86">
+      <c r="K145" s="84">
         <v>45227</v>
       </c>
-      <c r="L145" s="6"/>
-      <c r="M145" s="85"/>
+      <c r="L145" s="156"/>
+      <c r="M145" s="83"/>
       <c r="N145" s="4"/>
       <c r="O145" s="4" t="s">
         <v>189</v>
@@ -9572,44 +9608,44 @@
         <v>234</v>
       </c>
       <c r="R145" s="6"/>
-      <c r="S145" s="85"/>
+      <c r="S145" s="83"/>
       <c r="T145" s="6"/>
       <c r="U145" s="6"/>
     </row>
     <row r="146" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A146" s="152" t="s">
+      <c r="A146" s="150" t="s">
         <v>223</v>
       </c>
-      <c r="B146" s="152" t="s">
+      <c r="B146" s="150" t="s">
         <v>160</v>
       </c>
-      <c r="C146" s="152" t="s">
+      <c r="C146" s="150" t="s">
         <v>20</v>
       </c>
       <c r="D146" s="6">
         <v>505330</v>
       </c>
-      <c r="E146" s="155" t="s">
+      <c r="E146" s="153" t="s">
         <v>101</v>
       </c>
       <c r="F146" s="6">
         <v>2</v>
       </c>
-      <c r="G146" s="156" t="s">
+      <c r="G146" s="154" t="s">
         <v>224</v>
       </c>
       <c r="H146" s="50"/>
-      <c r="I146" s="74">
+      <c r="I146" s="72">
         <v>45209</v>
       </c>
       <c r="J146" s="6">
         <v>10021535</v>
       </c>
-      <c r="K146" s="86">
+      <c r="K146" s="84">
         <v>45228</v>
       </c>
-      <c r="L146" s="6"/>
-      <c r="M146" s="85"/>
+      <c r="L146" s="156"/>
+      <c r="M146" s="83"/>
       <c r="N146" s="4"/>
       <c r="O146" s="4" t="s">
         <v>189</v>
@@ -9621,7 +9657,7 @@
         <v>234</v>
       </c>
       <c r="R146" s="6"/>
-      <c r="S146" s="85"/>
+      <c r="S146" s="83"/>
       <c r="T146" s="6"/>
       <c r="U146" s="6"/>
     </row>
@@ -9632,13 +9668,13 @@
       <c r="B147" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C147" s="152" t="s">
+      <c r="C147" s="150" t="s">
         <v>44</v>
       </c>
       <c r="D147" s="10">
         <v>504176</v>
       </c>
-      <c r="E147" s="105" t="s">
+      <c r="E147" s="103" t="s">
         <v>45</v>
       </c>
       <c r="F147" s="6">
@@ -9648,17 +9684,17 @@
         <v>77</v>
       </c>
       <c r="H147" s="50"/>
-      <c r="I147" s="74">
+      <c r="I147" s="72">
         <v>45209</v>
       </c>
       <c r="J147" s="6">
         <v>10021406</v>
       </c>
-      <c r="K147" s="86">
+      <c r="K147" s="84">
         <v>45229</v>
       </c>
-      <c r="L147" s="6"/>
-      <c r="M147" s="85"/>
+      <c r="L147" s="156"/>
+      <c r="M147" s="83"/>
       <c r="N147" s="6"/>
       <c r="O147" s="6" t="s">
         <v>26</v>
@@ -9670,7 +9706,7 @@
         <v>234</v>
       </c>
       <c r="R147" s="6"/>
-      <c r="S147" s="85"/>
+      <c r="S147" s="83"/>
       <c r="T147" s="6"/>
       <c r="U147" s="6"/>
     </row>
@@ -9687,27 +9723,27 @@
       <c r="D148" s="6">
         <v>505330</v>
       </c>
-      <c r="E148" s="136" t="s">
+      <c r="E148" s="134" t="s">
         <v>101</v>
       </c>
       <c r="F148" s="6">
         <v>2</v>
       </c>
-      <c r="G148" s="157" t="s">
+      <c r="G148" s="155" t="s">
         <v>225</v>
       </c>
       <c r="H148" s="50"/>
-      <c r="I148" s="74">
+      <c r="I148" s="72">
         <v>45209</v>
       </c>
       <c r="J148" s="6">
         <v>10021386</v>
       </c>
-      <c r="K148" s="86">
+      <c r="K148" s="84">
         <v>45230</v>
       </c>
-      <c r="L148" s="6"/>
-      <c r="M148" s="85"/>
+      <c r="L148" s="156"/>
+      <c r="M148" s="83"/>
       <c r="N148" s="4"/>
       <c r="O148" s="4" t="s">
         <v>189</v>
@@ -9719,7 +9755,7 @@
         <v>234</v>
       </c>
       <c r="R148" s="6"/>
-      <c r="S148" s="85"/>
+      <c r="S148" s="83"/>
       <c r="T148" s="6"/>
       <c r="U148" s="6"/>
     </row>
@@ -9736,27 +9772,27 @@
       <c r="D149" s="6">
         <v>311201</v>
       </c>
-      <c r="E149" s="136" t="s">
+      <c r="E149" s="134" t="s">
         <v>226</v>
       </c>
       <c r="F149" s="6">
         <v>4</v>
       </c>
-      <c r="G149" s="157" t="s">
+      <c r="G149" s="155" t="s">
         <v>225</v>
       </c>
       <c r="H149" s="50"/>
-      <c r="I149" s="74">
+      <c r="I149" s="72">
         <v>45209</v>
       </c>
       <c r="J149" s="6">
         <v>10021386</v>
       </c>
-      <c r="K149" s="86">
+      <c r="K149" s="84">
         <v>45231</v>
       </c>
-      <c r="L149" s="6"/>
-      <c r="M149" s="85"/>
+      <c r="L149" s="156"/>
+      <c r="M149" s="83"/>
       <c r="N149" s="4"/>
       <c r="O149" s="4" t="s">
         <v>189</v>
@@ -9768,7 +9804,7 @@
         <v>234</v>
       </c>
       <c r="R149" s="6"/>
-      <c r="S149" s="85"/>
+      <c r="S149" s="83"/>
       <c r="T149" s="6"/>
       <c r="U149" s="6"/>
     </row>
@@ -9785,27 +9821,27 @@
       <c r="D150" s="6">
         <v>303483</v>
       </c>
-      <c r="E150" s="136" t="s">
+      <c r="E150" s="134" t="s">
         <v>104</v>
       </c>
       <c r="F150" s="6">
         <v>4</v>
       </c>
-      <c r="G150" s="157" t="s">
+      <c r="G150" s="155" t="s">
         <v>225</v>
       </c>
       <c r="H150" s="50"/>
-      <c r="I150" s="74">
+      <c r="I150" s="72">
         <v>45209</v>
       </c>
       <c r="J150" s="6">
         <v>10021386</v>
       </c>
-      <c r="K150" s="86">
+      <c r="K150" s="84">
         <v>45232</v>
       </c>
-      <c r="L150" s="6"/>
-      <c r="M150" s="85"/>
+      <c r="L150" s="156"/>
+      <c r="M150" s="83"/>
       <c r="N150" s="4"/>
       <c r="O150" s="4" t="s">
         <v>189</v>
@@ -9817,7 +9853,7 @@
         <v>234</v>
       </c>
       <c r="R150" s="6"/>
-      <c r="S150" s="85"/>
+      <c r="S150" s="83"/>
       <c r="T150" s="6"/>
       <c r="U150" s="6"/>
     </row>
@@ -9834,27 +9870,27 @@
       <c r="D151" s="6">
         <v>503717</v>
       </c>
-      <c r="E151" s="136" t="s">
+      <c r="E151" s="134" t="s">
         <v>217</v>
       </c>
       <c r="F151" s="6">
         <v>3</v>
       </c>
-      <c r="G151" s="157" t="s">
+      <c r="G151" s="155" t="s">
         <v>225</v>
       </c>
       <c r="H151" s="50"/>
-      <c r="I151" s="74">
+      <c r="I151" s="72">
         <v>45209</v>
       </c>
       <c r="J151" s="6">
         <v>10021386</v>
       </c>
-      <c r="K151" s="86">
+      <c r="K151" s="84">
         <v>45233</v>
       </c>
-      <c r="L151" s="6"/>
-      <c r="M151" s="85"/>
+      <c r="L151" s="156"/>
+      <c r="M151" s="83"/>
       <c r="N151" s="4"/>
       <c r="O151" s="4" t="s">
         <v>189</v>
@@ -9866,7 +9902,7 @@
         <v>234</v>
       </c>
       <c r="R151" s="6"/>
-      <c r="S151" s="85"/>
+      <c r="S151" s="83"/>
       <c r="T151" s="6"/>
       <c r="U151" s="6"/>
     </row>
@@ -9883,27 +9919,27 @@
       <c r="D152" s="27">
         <v>504176</v>
       </c>
-      <c r="E152" s="105" t="s">
+      <c r="E152" s="103" t="s">
         <v>45</v>
       </c>
       <c r="F152" s="6">
         <v>1</v>
       </c>
-      <c r="G152" s="157" t="s">
+      <c r="G152" s="155" t="s">
         <v>225</v>
       </c>
       <c r="H152" s="50"/>
-      <c r="I152" s="74">
+      <c r="I152" s="72">
         <v>45209</v>
       </c>
       <c r="J152" s="6">
         <v>10021386</v>
       </c>
-      <c r="K152" s="86">
+      <c r="K152" s="84">
         <v>45234</v>
       </c>
-      <c r="L152" s="6"/>
-      <c r="M152" s="85"/>
+      <c r="L152" s="156"/>
+      <c r="M152" s="83"/>
       <c r="N152" s="6"/>
       <c r="O152" s="6" t="s">
         <v>26</v>
@@ -9915,7 +9951,7 @@
         <v>234</v>
       </c>
       <c r="R152" s="6"/>
-      <c r="S152" s="85"/>
+      <c r="S152" s="83"/>
       <c r="T152" s="6"/>
       <c r="U152" s="6"/>
     </row>
@@ -9932,7 +9968,7 @@
       <c r="D153" s="6">
         <v>500194</v>
       </c>
-      <c r="E153" s="136" t="s">
+      <c r="E153" s="134" t="s">
         <v>170</v>
       </c>
       <c r="F153" s="6">
@@ -9942,17 +9978,17 @@
         <v>227</v>
       </c>
       <c r="H153" s="50"/>
-      <c r="I153" s="74">
+      <c r="I153" s="72">
         <v>45209</v>
       </c>
       <c r="J153" s="6">
         <v>10021386</v>
       </c>
-      <c r="K153" s="86">
+      <c r="K153" s="84">
         <v>45235</v>
       </c>
-      <c r="L153" s="6"/>
-      <c r="M153" s="85"/>
+      <c r="L153" s="156"/>
+      <c r="M153" s="83"/>
       <c r="N153" s="4"/>
       <c r="O153" s="4" t="s">
         <v>189</v>
@@ -9964,7 +10000,7 @@
         <v>234</v>
       </c>
       <c r="R153" s="6"/>
-      <c r="S153" s="85"/>
+      <c r="S153" s="83"/>
       <c r="T153" s="6"/>
       <c r="U153" s="6"/>
     </row>
@@ -9981,7 +10017,7 @@
       <c r="D154" s="6">
         <v>500194</v>
       </c>
-      <c r="E154" s="136" t="s">
+      <c r="E154" s="134" t="s">
         <v>170</v>
       </c>
       <c r="F154" s="6">
@@ -9991,13 +10027,13 @@
         <v>229</v>
       </c>
       <c r="H154" s="50"/>
-      <c r="I154" s="74">
+      <c r="I154" s="72">
         <v>45218</v>
       </c>
       <c r="J154" s="6"/>
-      <c r="K154" s="86"/>
-      <c r="L154" s="6"/>
-      <c r="M154" s="85"/>
+      <c r="K154" s="84"/>
+      <c r="L154" s="156"/>
+      <c r="M154" s="83"/>
       <c r="N154" s="4"/>
       <c r="O154" s="4" t="s">
         <v>189</v>
@@ -10009,7 +10045,7 @@
         <v>234</v>
       </c>
       <c r="R154" s="6"/>
-      <c r="S154" s="85"/>
+      <c r="S154" s="83"/>
       <c r="T154" s="6"/>
       <c r="U154" s="6"/>
     </row>
@@ -10026,7 +10062,7 @@
       <c r="D155" s="6">
         <v>311201</v>
       </c>
-      <c r="E155" s="136" t="s">
+      <c r="E155" s="134" t="s">
         <v>230</v>
       </c>
       <c r="F155" s="6">
@@ -10036,13 +10072,13 @@
         <v>229</v>
       </c>
       <c r="H155" s="50"/>
-      <c r="I155" s="74">
+      <c r="I155" s="72">
         <v>45218</v>
       </c>
       <c r="J155" s="6"/>
-      <c r="K155" s="86"/>
-      <c r="L155" s="6"/>
-      <c r="M155" s="85"/>
+      <c r="K155" s="84"/>
+      <c r="L155" s="156"/>
+      <c r="M155" s="83"/>
       <c r="N155" s="4"/>
       <c r="O155" s="4" t="s">
         <v>189</v>
@@ -10054,7 +10090,7 @@
         <v>234</v>
       </c>
       <c r="R155" s="6"/>
-      <c r="S155" s="85"/>
+      <c r="S155" s="83"/>
       <c r="T155" s="6"/>
       <c r="U155" s="6"/>
     </row>
@@ -10071,7 +10107,7 @@
       <c r="D156" s="30">
         <v>501901</v>
       </c>
-      <c r="E156" s="106" t="s">
+      <c r="E156" s="104" t="s">
         <v>28</v>
       </c>
       <c r="F156" s="6">
@@ -10081,17 +10117,17 @@
         <v>233</v>
       </c>
       <c r="H156" s="50"/>
-      <c r="I156" s="74">
+      <c r="I156" s="72">
         <v>45219</v>
       </c>
       <c r="J156" s="6">
         <v>10021565</v>
       </c>
-      <c r="K156" s="86">
+      <c r="K156" s="84">
         <v>45219</v>
       </c>
-      <c r="L156" s="6"/>
-      <c r="M156" s="85"/>
+      <c r="L156" s="156"/>
+      <c r="M156" s="83"/>
       <c r="N156" s="6"/>
       <c r="O156" s="6" t="s">
         <v>26</v>
@@ -10103,13 +10139,13 @@
         <v>234</v>
       </c>
       <c r="R156" s="6"/>
-      <c r="S156" s="85"/>
+      <c r="S156" s="83"/>
       <c r="T156" s="6"/>
       <c r="U156" s="6"/>
     </row>
     <row r="157" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="K157" s="72"/>
-      <c r="S157" s="80"/>
+      <c r="K157" s="70"/>
+      <c r="S157" s="78"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:U156" xr:uid="{00000000-0001-0000-0000-000000000000}"/>

--- a/backend/static/test.xlsx
+++ b/backend/static/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\app\backend\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE94B57-BD41-4BE3-8B6A-42E686CC3CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79685B6E-E304-4680-BB0B-03E66E983ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="237">
   <si>
     <t>Demandeur</t>
   </si>
@@ -401,9 +401,6 @@
   </si>
   <si>
     <t xml:space="preserve">102-EQ-REG </t>
-  </si>
-  <si>
-    <t>BC sans DA</t>
   </si>
   <si>
     <t>Laptop Ultra leger</t>
@@ -1122,7 +1119,7 @@
     </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1583,46 +1580,10 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1934,10 +1895,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="L86" sqref="L86"/>
+      <selection pane="bottomLeft" activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1976,7 +1937,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="66" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E1" s="66" t="s">
         <v>3</v>
@@ -2073,10 +2034,10 @@
         <v>26</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R2" s="4"/>
       <c r="S2" s="82"/>
@@ -2126,10 +2087,10 @@
         <v>26</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R3" s="4"/>
       <c r="S3" s="82"/>
@@ -2179,10 +2140,10 @@
         <v>26</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R4" s="4"/>
       <c r="S4" s="82"/>
@@ -2232,10 +2193,10 @@
         <v>26</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R5" s="4"/>
       <c r="S5" s="82"/>
@@ -2285,10 +2246,10 @@
         <v>26</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R6" s="4"/>
       <c r="S6" s="82"/>
@@ -2338,10 +2299,10 @@
         <v>26</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R7" s="4"/>
       <c r="S7" s="82"/>
@@ -2380,7 +2341,7 @@
       <c r="K8" s="81">
         <v>45146</v>
       </c>
-      <c r="L8" s="156">
+      <c r="L8" s="6">
         <v>4500020381</v>
       </c>
       <c r="M8" s="82">
@@ -2391,10 +2352,10 @@
         <v>26</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R8" s="4"/>
       <c r="S8" s="82"/>
@@ -2433,7 +2394,7 @@
       <c r="K9" s="81">
         <v>45146</v>
       </c>
-      <c r="L9" s="156">
+      <c r="L9" s="6">
         <v>4500020381</v>
       </c>
       <c r="M9" s="82">
@@ -2444,10 +2405,10 @@
         <v>26</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R9" s="6"/>
       <c r="S9" s="83"/>
@@ -2486,7 +2447,7 @@
       <c r="K10" s="81">
         <v>45135</v>
       </c>
-      <c r="L10" s="157">
+      <c r="L10" s="4">
         <v>4500019238</v>
       </c>
       <c r="M10" s="82">
@@ -2497,10 +2458,10 @@
         <v>26</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R10" s="4"/>
       <c r="S10" s="82"/>
@@ -2539,7 +2500,7 @@
       <c r="K11" s="81">
         <v>45135</v>
       </c>
-      <c r="L11" s="157">
+      <c r="L11" s="4">
         <v>4500019238</v>
       </c>
       <c r="M11" s="83">
@@ -2550,10 +2511,10 @@
         <v>26</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R11" s="6"/>
       <c r="S11" s="83"/>
@@ -2592,7 +2553,7 @@
       <c r="K12" s="84">
         <v>45097</v>
       </c>
-      <c r="L12" s="156">
+      <c r="L12" s="6">
         <v>4500019162</v>
       </c>
       <c r="M12" s="83">
@@ -2606,7 +2567,7 @@
         <v>54</v>
       </c>
       <c r="Q12" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R12" s="6">
         <v>2311563</v>
@@ -2649,7 +2610,7 @@
       <c r="K13" s="84">
         <v>45097</v>
       </c>
-      <c r="L13" s="156">
+      <c r="L13" s="6">
         <v>4500019238</v>
       </c>
       <c r="M13" s="83">
@@ -2663,7 +2624,7 @@
         <v>54</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R13" s="6">
         <v>2310468</v>
@@ -2708,7 +2669,7 @@
       <c r="K14" s="84">
         <v>45097</v>
       </c>
-      <c r="L14" s="156">
+      <c r="L14" s="6">
         <v>4500019238</v>
       </c>
       <c r="M14" s="83">
@@ -2719,10 +2680,10 @@
         <v>26</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R14" s="6"/>
       <c r="S14" s="83"/>
@@ -2761,7 +2722,7 @@
       <c r="K15" s="81">
         <v>45097</v>
       </c>
-      <c r="L15" s="157">
+      <c r="L15" s="4">
         <v>4500019238</v>
       </c>
       <c r="M15" s="82">
@@ -2775,7 +2736,7 @@
         <v>54</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R15" s="6">
         <v>2310468</v>
@@ -2820,7 +2781,7 @@
       <c r="K16" s="81">
         <v>45097</v>
       </c>
-      <c r="L16" s="157">
+      <c r="L16" s="4">
         <v>4500019238</v>
       </c>
       <c r="M16" s="82">
@@ -2831,10 +2792,10 @@
         <v>26</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q16" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R16" s="4"/>
       <c r="S16" s="82"/>
@@ -2873,7 +2834,7 @@
       <c r="K17" s="84">
         <v>45097</v>
       </c>
-      <c r="L17" s="156">
+      <c r="L17" s="6">
         <v>4500019238</v>
       </c>
       <c r="M17" s="83">
@@ -2884,10 +2845,10 @@
         <v>26</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q17" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R17" s="6"/>
       <c r="S17" s="83"/>
@@ -2926,7 +2887,7 @@
       <c r="K18" s="81">
         <v>45097</v>
       </c>
-      <c r="L18" s="157">
+      <c r="L18" s="4">
         <v>4500018851</v>
       </c>
       <c r="M18" s="82">
@@ -2940,7 +2901,7 @@
         <v>54</v>
       </c>
       <c r="Q18" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R18" s="4"/>
       <c r="S18" s="82"/>
@@ -2979,7 +2940,7 @@
       <c r="K19" s="81">
         <v>45097</v>
       </c>
-      <c r="L19" s="157">
+      <c r="L19" s="4">
         <v>4500018851</v>
       </c>
       <c r="M19" s="82">
@@ -2993,7 +2954,7 @@
         <v>54</v>
       </c>
       <c r="Q19" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R19" s="4">
         <v>2310312</v>
@@ -3038,7 +2999,7 @@
       <c r="K20" s="81">
         <v>45097</v>
       </c>
-      <c r="L20" s="157">
+      <c r="L20" s="4">
         <v>4500018851</v>
       </c>
       <c r="M20" s="82">
@@ -3052,7 +3013,7 @@
         <v>54</v>
       </c>
       <c r="Q20" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R20" s="4">
         <v>2311432</v>
@@ -3095,7 +3056,7 @@
       <c r="K21" s="81">
         <v>45114</v>
       </c>
-      <c r="L21" s="157">
+      <c r="L21" s="4">
         <v>4500019560</v>
       </c>
       <c r="M21" s="82">
@@ -3109,7 +3070,7 @@
         <v>54</v>
       </c>
       <c r="Q21" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R21" s="88">
         <v>45147</v>
@@ -3156,7 +3117,7 @@
       <c r="K22" s="90">
         <v>45117</v>
       </c>
-      <c r="L22" s="158">
+      <c r="L22" s="13">
         <v>4500020880</v>
       </c>
       <c r="M22" s="91">
@@ -3167,10 +3128,10 @@
         <v>64</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q22" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R22" s="13"/>
       <c r="S22" s="91"/>
@@ -3209,7 +3170,7 @@
       <c r="K23" s="90">
         <v>45117</v>
       </c>
-      <c r="L23" s="158">
+      <c r="L23" s="13">
         <v>4500020880</v>
       </c>
       <c r="M23" s="91">
@@ -3220,10 +3181,10 @@
         <v>64</v>
       </c>
       <c r="P23" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q23" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R23" s="13"/>
       <c r="S23" s="91"/>
@@ -3262,7 +3223,7 @@
       <c r="K24" s="90">
         <v>45117</v>
       </c>
-      <c r="L24" s="158">
+      <c r="L24" s="13">
         <v>4500020880</v>
       </c>
       <c r="M24" s="91">
@@ -3273,10 +3234,10 @@
         <v>64</v>
       </c>
       <c r="P24" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q24" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R24" s="13"/>
       <c r="S24" s="91"/>
@@ -3315,7 +3276,7 @@
       <c r="K25" s="90">
         <v>45117</v>
       </c>
-      <c r="L25" s="158">
+      <c r="L25" s="13">
         <v>4500020880</v>
       </c>
       <c r="M25" s="91">
@@ -3326,10 +3287,10 @@
         <v>64</v>
       </c>
       <c r="P25" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q25" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R25" s="13"/>
       <c r="S25" s="91"/>
@@ -3368,7 +3329,7 @@
       <c r="K26" s="90">
         <v>45117</v>
       </c>
-      <c r="L26" s="158">
+      <c r="L26" s="13">
         <v>4500020880</v>
       </c>
       <c r="M26" s="91">
@@ -3379,10 +3340,10 @@
         <v>64</v>
       </c>
       <c r="P26" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q26" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R26" s="13"/>
       <c r="S26" s="91"/>
@@ -3421,7 +3382,7 @@
       <c r="K27" s="84">
         <v>45118</v>
       </c>
-      <c r="L27" s="156">
+      <c r="L27" s="6">
         <v>4500019324</v>
       </c>
       <c r="M27" s="83">
@@ -3435,7 +3396,7 @@
         <v>54</v>
       </c>
       <c r="Q27" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R27" s="6"/>
       <c r="S27" s="83"/>
@@ -3474,7 +3435,7 @@
       <c r="K28" s="84">
         <v>45117</v>
       </c>
-      <c r="L28" s="156">
+      <c r="L28" s="6">
         <v>4500019903</v>
       </c>
       <c r="M28" s="83">
@@ -3485,10 +3446,10 @@
         <v>26</v>
       </c>
       <c r="P28" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q28" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R28" s="6"/>
       <c r="S28" s="83"/>
@@ -3527,7 +3488,7 @@
       <c r="K29" s="84">
         <v>45117</v>
       </c>
-      <c r="L29" s="156">
+      <c r="L29" s="6">
         <v>4500019903</v>
       </c>
       <c r="M29" s="83">
@@ -3538,10 +3499,10 @@
         <v>26</v>
       </c>
       <c r="P29" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q29" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R29" s="6"/>
       <c r="S29" s="83"/>
@@ -3580,7 +3541,7 @@
       <c r="K30" s="96">
         <v>45099</v>
       </c>
-      <c r="L30" s="159">
+      <c r="L30" s="18">
         <v>4500019550</v>
       </c>
       <c r="M30" s="97">
@@ -3591,10 +3552,10 @@
         <v>26</v>
       </c>
       <c r="P30" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q30" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R30" s="6"/>
       <c r="S30" s="83"/>
@@ -3633,7 +3594,7 @@
       <c r="K31" s="96">
         <v>45099</v>
       </c>
-      <c r="L31" s="159">
+      <c r="L31" s="18">
         <v>4500019550</v>
       </c>
       <c r="M31" s="97">
@@ -3644,10 +3605,10 @@
         <v>26</v>
       </c>
       <c r="P31" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q31" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R31" s="6"/>
       <c r="S31" s="83"/>
@@ -3686,7 +3647,7 @@
       <c r="K32" s="96">
         <v>45099</v>
       </c>
-      <c r="L32" s="159">
+      <c r="L32" s="18">
         <v>4500019550</v>
       </c>
       <c r="M32" s="97">
@@ -3697,10 +3658,10 @@
         <v>26</v>
       </c>
       <c r="P32" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q32" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R32" s="4"/>
       <c r="S32" s="82"/>
@@ -3739,7 +3700,7 @@
       <c r="K33" s="81">
         <v>45118</v>
       </c>
-      <c r="L33" s="157">
+      <c r="L33" s="4">
         <v>4500019549</v>
       </c>
       <c r="M33" s="82">
@@ -3750,10 +3711,10 @@
         <v>26</v>
       </c>
       <c r="P33" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q33" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R33" s="4"/>
       <c r="S33" s="82"/>
@@ -3792,7 +3753,7 @@
       <c r="K34" s="84">
         <v>45118</v>
       </c>
-      <c r="L34" s="156">
+      <c r="L34" s="6">
         <v>4500019549</v>
       </c>
       <c r="M34" s="83">
@@ -3803,10 +3764,10 @@
         <v>26</v>
       </c>
       <c r="P34" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q34" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R34" s="6"/>
       <c r="S34" s="83"/>
@@ -3845,7 +3806,7 @@
       <c r="K35" s="100">
         <v>45124</v>
       </c>
-      <c r="L35" s="160">
+      <c r="L35" s="23">
         <v>4500019320</v>
       </c>
       <c r="M35" s="101">
@@ -3859,7 +3820,7 @@
         <v>54</v>
       </c>
       <c r="Q35" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R35" s="23"/>
       <c r="S35" s="101">
@@ -3900,7 +3861,7 @@
       <c r="K36" s="100">
         <v>45124</v>
       </c>
-      <c r="L36" s="160">
+      <c r="L36" s="23">
         <v>4500019320</v>
       </c>
       <c r="M36" s="101">
@@ -3914,7 +3875,7 @@
         <v>54</v>
       </c>
       <c r="Q36" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R36" s="23"/>
       <c r="S36" s="101">
@@ -3955,7 +3916,7 @@
       <c r="K37" s="100">
         <v>45124</v>
       </c>
-      <c r="L37" s="160">
+      <c r="L37" s="23">
         <v>4500019320</v>
       </c>
       <c r="M37" s="101">
@@ -3969,7 +3930,7 @@
         <v>54</v>
       </c>
       <c r="Q37" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R37" s="23"/>
       <c r="S37" s="101">
@@ -4010,7 +3971,7 @@
       <c r="K38" s="81">
         <v>45124</v>
       </c>
-      <c r="L38" s="157">
+      <c r="L38" s="4">
         <v>4500019319</v>
       </c>
       <c r="M38" s="82">
@@ -4024,7 +3985,7 @@
         <v>54</v>
       </c>
       <c r="Q38" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R38" s="23">
         <v>2311431</v>
@@ -4067,7 +4028,7 @@
       <c r="K39" s="81">
         <v>45135</v>
       </c>
-      <c r="L39" s="157">
+      <c r="L39" s="4">
         <v>4500019904</v>
       </c>
       <c r="M39" s="82">
@@ -4078,10 +4039,10 @@
         <v>26</v>
       </c>
       <c r="P39" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q39" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R39" s="4"/>
       <c r="S39" s="82"/>
@@ -4120,7 +4081,7 @@
       <c r="K40" s="81">
         <v>45135</v>
       </c>
-      <c r="L40" s="157">
+      <c r="L40" s="4">
         <v>4500019904</v>
       </c>
       <c r="M40" s="82">
@@ -4134,7 +4095,7 @@
         <v>54</v>
       </c>
       <c r="Q40" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R40" s="6">
         <v>2311433</v>
@@ -4177,7 +4138,7 @@
       <c r="K41" s="81">
         <v>45135</v>
       </c>
-      <c r="L41" s="157">
+      <c r="L41" s="4">
         <v>4500019904</v>
       </c>
       <c r="M41" s="82">
@@ -4188,10 +4149,10 @@
         <v>26</v>
       </c>
       <c r="P41" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q41" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R41" s="6"/>
       <c r="S41" s="83"/>
@@ -4230,7 +4191,7 @@
       <c r="K42" s="81">
         <v>45135</v>
       </c>
-      <c r="L42" s="157">
+      <c r="L42" s="4">
         <v>4500019904</v>
       </c>
       <c r="M42" s="82">
@@ -4241,10 +4202,10 @@
         <v>26</v>
       </c>
       <c r="P42" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q42" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R42" s="6"/>
       <c r="S42" s="83"/>
@@ -4283,7 +4244,7 @@
       <c r="K43" s="81">
         <v>45135</v>
       </c>
-      <c r="L43" s="157">
+      <c r="L43" s="4">
         <v>4500019939</v>
       </c>
       <c r="M43" s="82">
@@ -4297,7 +4258,7 @@
         <v>54</v>
       </c>
       <c r="Q43" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R43" s="4" t="s">
         <v>98</v>
@@ -4342,7 +4303,7 @@
       <c r="K44" s="81">
         <v>45135</v>
       </c>
-      <c r="L44" s="157">
+      <c r="L44" s="4">
         <v>4500019939</v>
       </c>
       <c r="M44" s="82">
@@ -4356,7 +4317,7 @@
         <v>54</v>
       </c>
       <c r="Q44" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R44" s="4" t="s">
         <v>98</v>
@@ -4399,7 +4360,7 @@
       <c r="K45" s="81">
         <v>45135</v>
       </c>
-      <c r="L45" s="157">
+      <c r="L45" s="4">
         <v>4500019939</v>
       </c>
       <c r="M45" s="82">
@@ -4413,7 +4374,7 @@
         <v>54</v>
       </c>
       <c r="Q45" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R45" s="4" t="s">
         <v>98</v>
@@ -4456,7 +4417,7 @@
       <c r="K46" s="81">
         <v>45131</v>
       </c>
-      <c r="L46" s="156">
+      <c r="L46" s="6">
         <v>4500019424</v>
       </c>
       <c r="M46" s="83">
@@ -4464,13 +4425,13 @@
       </c>
       <c r="N46" s="4"/>
       <c r="O46" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P46" s="6" t="s">
         <v>54</v>
       </c>
       <c r="Q46" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R46" s="6" t="s">
         <v>102</v>
@@ -4513,7 +4474,7 @@
       <c r="K47" s="81">
         <v>45131</v>
       </c>
-      <c r="L47" s="156">
+      <c r="L47" s="6">
         <v>4500019424</v>
       </c>
       <c r="M47" s="83">
@@ -4521,13 +4482,13 @@
       </c>
       <c r="N47" s="4"/>
       <c r="O47" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P47" s="6" t="s">
         <v>54</v>
       </c>
       <c r="Q47" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R47" s="6" t="s">
         <v>102</v>
@@ -4570,7 +4531,7 @@
       <c r="K48" s="106">
         <v>45133</v>
       </c>
-      <c r="L48" s="161">
+      <c r="L48" s="31">
         <v>4500019905</v>
       </c>
       <c r="M48" s="107">
@@ -4581,10 +4542,10 @@
         <v>26</v>
       </c>
       <c r="P48" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q48" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R48" s="31"/>
       <c r="S48" s="107"/>
@@ -4623,7 +4584,7 @@
       <c r="K49" s="81">
         <v>45133</v>
       </c>
-      <c r="L49" s="157">
+      <c r="L49" s="4">
         <v>4500019905</v>
       </c>
       <c r="M49" s="82">
@@ -4637,7 +4598,7 @@
         <v>54</v>
       </c>
       <c r="Q49" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R49" s="4">
         <v>2311435</v>
@@ -4680,7 +4641,7 @@
       <c r="K50" s="84">
         <v>45146</v>
       </c>
-      <c r="L50" s="156">
+      <c r="L50" s="6">
         <v>4500020102</v>
       </c>
       <c r="M50" s="83">
@@ -4691,10 +4652,10 @@
         <v>26</v>
       </c>
       <c r="P50" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q50" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R50" s="6"/>
       <c r="S50" s="83"/>
@@ -4733,7 +4694,7 @@
       <c r="K51" s="84">
         <v>45140</v>
       </c>
-      <c r="L51" s="156">
+      <c r="L51" s="6">
         <v>4500019906</v>
       </c>
       <c r="M51" s="83">
@@ -4744,10 +4705,10 @@
         <v>26</v>
       </c>
       <c r="P51" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q51" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R51" s="6"/>
       <c r="S51" s="83"/>
@@ -4786,7 +4747,7 @@
       <c r="K52" s="81">
         <v>45143</v>
       </c>
-      <c r="L52" s="157">
+      <c r="L52" s="4">
         <v>4500020378</v>
       </c>
       <c r="M52" s="82">
@@ -4800,7 +4761,7 @@
         <v>54</v>
       </c>
       <c r="Q52" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R52" s="88">
         <v>45177</v>
@@ -4847,7 +4808,7 @@
       <c r="K53" s="109">
         <v>45142</v>
       </c>
-      <c r="L53" s="162">
+      <c r="L53" s="37">
         <v>4500021068</v>
       </c>
       <c r="M53" s="110">
@@ -4858,10 +4819,10 @@
         <v>26</v>
       </c>
       <c r="P53" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q53" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R53" s="37"/>
       <c r="S53" s="110"/>
@@ -4900,7 +4861,7 @@
       <c r="K54" s="84">
         <v>45142</v>
       </c>
-      <c r="L54" s="162">
+      <c r="L54" s="37">
         <v>4500021068</v>
       </c>
       <c r="M54" s="110">
@@ -4911,10 +4872,10 @@
         <v>26</v>
       </c>
       <c r="P54" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q54" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R54" s="6"/>
       <c r="S54" s="83"/>
@@ -4953,7 +4914,7 @@
       <c r="K55" s="81">
         <v>45140</v>
       </c>
-      <c r="L55" s="157">
+      <c r="L55" s="4">
         <v>4500019940</v>
       </c>
       <c r="M55" s="82">
@@ -4967,7 +4928,7 @@
         <v>54</v>
       </c>
       <c r="Q55" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R55" s="4" t="s">
         <v>120</v>
@@ -5012,7 +4973,7 @@
       <c r="K56" s="81">
         <v>45140</v>
       </c>
-      <c r="L56" s="156">
+      <c r="L56" s="6">
         <v>4500019940</v>
       </c>
       <c r="M56" s="83">
@@ -5023,10 +4984,10 @@
         <v>64</v>
       </c>
       <c r="P56" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q56" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R56" s="6"/>
       <c r="S56" s="83"/>
@@ -5059,13 +5020,13 @@
       <c r="I57" s="71">
         <v>45089</v>
       </c>
-      <c r="J57" s="40" t="s">
-        <v>126</v>
+      <c r="J57" s="40">
+        <v>99999</v>
       </c>
       <c r="K57" s="112">
         <v>45141</v>
       </c>
-      <c r="L57" s="163">
+      <c r="L57" s="40">
         <v>4500019735</v>
       </c>
       <c r="M57" s="113">
@@ -5073,13 +5034,13 @@
       </c>
       <c r="N57" s="4"/>
       <c r="O57" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P57" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q57" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R57" s="40"/>
       <c r="S57" s="113"/>
@@ -5112,13 +5073,13 @@
       <c r="I58" s="71">
         <v>45090</v>
       </c>
-      <c r="J58" s="40" t="s">
-        <v>126</v>
+      <c r="J58" s="40">
+        <v>99999</v>
       </c>
       <c r="K58" s="112">
         <v>45141</v>
       </c>
-      <c r="L58" s="163">
+      <c r="L58" s="40">
         <v>4500019735</v>
       </c>
       <c r="M58" s="113">
@@ -5126,13 +5087,13 @@
       </c>
       <c r="N58" s="4"/>
       <c r="O58" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P58" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q58" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R58" s="40"/>
       <c r="S58" s="113"/>
@@ -5153,7 +5114,7 @@
         <v>504175</v>
       </c>
       <c r="E59" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F59" s="1">
         <v>50</v>
@@ -5171,7 +5132,7 @@
       <c r="K59" s="81">
         <v>45142</v>
       </c>
-      <c r="L59" s="157">
+      <c r="L59" s="4">
         <v>4500020061</v>
       </c>
       <c r="M59" s="82">
@@ -5182,10 +5143,10 @@
         <v>26</v>
       </c>
       <c r="P59" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Q59" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R59" s="4">
         <v>2310915</v>
@@ -5194,7 +5155,7 @@
         <v>45182</v>
       </c>
       <c r="T59" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="U59" s="4">
         <v>32</v>
@@ -5232,7 +5193,7 @@
       <c r="K60" s="81">
         <v>45142</v>
       </c>
-      <c r="L60" s="157">
+      <c r="L60" s="4">
         <v>4500020061</v>
       </c>
       <c r="M60" s="82">
@@ -5243,10 +5204,10 @@
         <v>26</v>
       </c>
       <c r="P60" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Q60" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R60" s="4">
         <v>2310915</v>
@@ -5255,7 +5216,7 @@
         <v>45182</v>
       </c>
       <c r="T60" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="U60" s="4">
         <v>87</v>
@@ -5293,7 +5254,7 @@
       <c r="K61" s="81">
         <v>45142</v>
       </c>
-      <c r="L61" s="157">
+      <c r="L61" s="4">
         <v>4500020061</v>
       </c>
       <c r="M61" s="82">
@@ -5304,10 +5265,10 @@
         <v>26</v>
       </c>
       <c r="P61" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q61" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R61" s="4"/>
       <c r="S61" s="82"/>
@@ -5346,7 +5307,7 @@
       <c r="K62" s="81">
         <v>45142</v>
       </c>
-      <c r="L62" s="157">
+      <c r="L62" s="4">
         <v>4500020061</v>
       </c>
       <c r="M62" s="82">
@@ -5357,10 +5318,10 @@
         <v>26</v>
       </c>
       <c r="P62" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q62" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R62" s="4"/>
       <c r="S62" s="82"/>
@@ -5381,7 +5342,7 @@
         <v>504183</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F63" s="1">
         <v>150</v>
@@ -5399,7 +5360,7 @@
       <c r="K63" s="81">
         <v>45142</v>
       </c>
-      <c r="L63" s="157">
+      <c r="L63" s="4">
         <v>4500020061</v>
       </c>
       <c r="M63" s="82">
@@ -5410,10 +5371,10 @@
         <v>26</v>
       </c>
       <c r="P63" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q63" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R63" s="4"/>
       <c r="S63" s="82"/>
@@ -5452,7 +5413,7 @@
       <c r="K64" s="81">
         <v>45142</v>
       </c>
-      <c r="L64" s="157">
+      <c r="L64" s="4">
         <v>4500020061</v>
       </c>
       <c r="M64" s="82">
@@ -5463,10 +5424,10 @@
         <v>26</v>
       </c>
       <c r="P64" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q64" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R64" s="4"/>
       <c r="S64" s="82"/>
@@ -5505,7 +5466,7 @@
       <c r="K65" s="117">
         <v>45142</v>
       </c>
-      <c r="L65" s="157">
+      <c r="L65" s="4">
         <v>4500020061</v>
       </c>
       <c r="M65" s="82">
@@ -5516,10 +5477,10 @@
         <v>26</v>
       </c>
       <c r="P65" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q65" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R65" s="4"/>
       <c r="S65" s="82"/>
@@ -5558,7 +5519,7 @@
       <c r="K66" s="81">
         <v>45142</v>
       </c>
-      <c r="L66" s="157">
+      <c r="L66" s="4">
         <v>4500020061</v>
       </c>
       <c r="M66" s="82">
@@ -5569,10 +5530,10 @@
         <v>26</v>
       </c>
       <c r="P66" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q66" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R66" s="4"/>
       <c r="S66" s="82"/>
@@ -5581,7 +5542,7 @@
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" s="118" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B67" s="118" t="s">
         <v>66</v>
@@ -5599,7 +5560,7 @@
         <v>1</v>
       </c>
       <c r="G67" s="118" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H67" s="47"/>
       <c r="I67" s="71">
@@ -5611,7 +5572,7 @@
       <c r="K67" s="119">
         <v>45141</v>
       </c>
-      <c r="L67" s="164"/>
+      <c r="L67" s="46"/>
       <c r="M67" s="120"/>
       <c r="N67" s="46"/>
       <c r="O67" s="46" t="s">
@@ -5621,7 +5582,7 @@
         <v>21</v>
       </c>
       <c r="Q67" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R67" s="46"/>
       <c r="S67" s="120"/>
@@ -5630,10 +5591,10 @@
     </row>
     <row r="68" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A68" s="118" t="s">
+        <v>133</v>
+      </c>
+      <c r="B68" s="121" t="s">
         <v>134</v>
-      </c>
-      <c r="B68" s="121" t="s">
-        <v>135</v>
       </c>
       <c r="C68" s="46" t="s">
         <v>44</v>
@@ -5660,7 +5621,7 @@
       <c r="K68" s="119">
         <v>45141</v>
       </c>
-      <c r="L68" s="164">
+      <c r="L68" s="46">
         <v>4500020991</v>
       </c>
       <c r="M68" s="120">
@@ -5671,10 +5632,10 @@
         <v>26</v>
       </c>
       <c r="P68" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q68" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R68" s="46"/>
       <c r="S68" s="120"/>
@@ -5683,10 +5644,10 @@
     </row>
     <row r="69" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A69" s="121" t="s">
+        <v>135</v>
+      </c>
+      <c r="B69" s="122" t="s">
         <v>136</v>
-      </c>
-      <c r="B69" s="122" t="s">
-        <v>137</v>
       </c>
       <c r="C69" s="46" t="s">
         <v>44</v>
@@ -5701,7 +5662,7 @@
         <v>1</v>
       </c>
       <c r="G69" s="118" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H69" s="47"/>
       <c r="I69" s="71">
@@ -5713,7 +5674,7 @@
       <c r="K69" s="119">
         <v>45141</v>
       </c>
-      <c r="L69" s="164">
+      <c r="L69" s="46">
         <v>4500020993</v>
       </c>
       <c r="M69" s="120">
@@ -5724,10 +5685,10 @@
         <v>26</v>
       </c>
       <c r="P69" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q69" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R69" s="46"/>
       <c r="S69" s="120"/>
@@ -5736,7 +5697,7 @@
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" s="118" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B70" s="118" t="s">
         <v>106</v>
@@ -5766,7 +5727,7 @@
       <c r="K70" s="119">
         <v>45141</v>
       </c>
-      <c r="L70" s="164">
+      <c r="L70" s="46">
         <v>4500020991</v>
       </c>
       <c r="M70" s="120">
@@ -5777,10 +5738,10 @@
         <v>26</v>
       </c>
       <c r="P70" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q70" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R70" s="46"/>
       <c r="S70" s="120"/>
@@ -5789,10 +5750,10 @@
     </row>
     <row r="71" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A71" s="121" t="s">
+        <v>139</v>
+      </c>
+      <c r="B71" s="118" t="s">
         <v>140</v>
-      </c>
-      <c r="B71" s="118" t="s">
-        <v>141</v>
       </c>
       <c r="C71" s="46" t="s">
         <v>44</v>
@@ -5807,7 +5768,7 @@
         <v>1</v>
       </c>
       <c r="G71" s="118" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H71" s="47"/>
       <c r="I71" s="71">
@@ -5819,7 +5780,7 @@
       <c r="K71" s="119">
         <v>45141</v>
       </c>
-      <c r="L71" s="164">
+      <c r="L71" s="46">
         <v>4500020993</v>
       </c>
       <c r="M71" s="120">
@@ -5830,10 +5791,10 @@
         <v>26</v>
       </c>
       <c r="P71" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q71" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R71" s="46"/>
       <c r="S71" s="120"/>
@@ -5842,7 +5803,7 @@
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>114</v>
@@ -5854,13 +5815,13 @@
         <v>503595</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F72" s="6">
         <v>2</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H72" s="50"/>
       <c r="I72" s="72">
@@ -5872,7 +5833,7 @@
       <c r="K72" s="84">
         <v>45176</v>
       </c>
-      <c r="L72" s="156">
+      <c r="L72" s="6">
         <v>4500020516</v>
       </c>
       <c r="M72" s="83">
@@ -5883,10 +5844,10 @@
         <v>64</v>
       </c>
       <c r="P72" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q72" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R72" s="6"/>
       <c r="S72" s="83"/>
@@ -5895,7 +5856,7 @@
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>114</v>
@@ -5907,13 +5868,13 @@
         <v>503595</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F73" s="6">
         <v>1</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H73" s="50"/>
       <c r="I73" s="72">
@@ -5925,7 +5886,7 @@
       <c r="K73" s="84">
         <v>45176</v>
       </c>
-      <c r="L73" s="156">
+      <c r="L73" s="6">
         <v>4500020516</v>
       </c>
       <c r="M73" s="83">
@@ -5936,10 +5897,10 @@
         <v>64</v>
       </c>
       <c r="P73" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q73" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R73" s="6"/>
       <c r="S73" s="83"/>
@@ -5948,7 +5909,7 @@
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>114</v>
@@ -5960,13 +5921,13 @@
         <v>333634</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F74" s="6">
         <v>2</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H74" s="50"/>
       <c r="I74" s="72">
@@ -5978,7 +5939,7 @@
       <c r="K74" s="84">
         <v>45176</v>
       </c>
-      <c r="L74" s="156">
+      <c r="L74" s="6">
         <v>4500020516</v>
       </c>
       <c r="M74" s="83">
@@ -5989,10 +5950,10 @@
         <v>64</v>
       </c>
       <c r="P74" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q74" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R74" s="6"/>
       <c r="S74" s="83"/>
@@ -6001,7 +5962,7 @@
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>114</v>
@@ -6013,13 +5974,13 @@
         <v>333634</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F75" s="6">
         <v>1</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H75" s="50"/>
       <c r="I75" s="72">
@@ -6031,7 +5992,7 @@
       <c r="K75" s="84">
         <v>45176</v>
       </c>
-      <c r="L75" s="156">
+      <c r="L75" s="6">
         <v>4500020516</v>
       </c>
       <c r="M75" s="83">
@@ -6042,10 +6003,10 @@
         <v>64</v>
       </c>
       <c r="P75" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q75" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R75" s="6"/>
       <c r="S75" s="83"/>
@@ -6054,7 +6015,7 @@
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>114</v>
@@ -6066,13 +6027,13 @@
         <v>503606</v>
       </c>
       <c r="E76" s="95" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F76" s="6">
         <v>2</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H76" s="50"/>
       <c r="I76" s="72">
@@ -6084,7 +6045,7 @@
       <c r="K76" s="84">
         <v>45176</v>
       </c>
-      <c r="L76" s="156">
+      <c r="L76" s="6">
         <v>4500020516</v>
       </c>
       <c r="M76" s="83">
@@ -6095,10 +6056,10 @@
         <v>64</v>
       </c>
       <c r="P76" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q76" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R76" s="6"/>
       <c r="S76" s="83"/>
@@ -6107,7 +6068,7 @@
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>114</v>
@@ -6119,13 +6080,13 @@
         <v>503606</v>
       </c>
       <c r="E77" s="95" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F77" s="6">
         <v>1</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H77" s="50"/>
       <c r="I77" s="72">
@@ -6137,7 +6098,7 @@
       <c r="K77" s="84">
         <v>45176</v>
       </c>
-      <c r="L77" s="156">
+      <c r="L77" s="6">
         <v>4500020516</v>
       </c>
       <c r="M77" s="83">
@@ -6148,10 +6109,10 @@
         <v>64</v>
       </c>
       <c r="P77" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q77" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R77" s="6"/>
       <c r="S77" s="83"/>
@@ -6160,7 +6121,7 @@
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78" s="43" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B78" s="43" t="s">
         <v>114</v>
@@ -6172,13 +6133,13 @@
         <v>333620</v>
       </c>
       <c r="E78" s="124" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F78" s="51">
         <v>2</v>
       </c>
       <c r="G78" s="51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H78" s="52"/>
       <c r="I78" s="74">
@@ -6190,7 +6151,7 @@
       <c r="K78" s="125">
         <v>45176</v>
       </c>
-      <c r="L78" s="165">
+      <c r="L78" s="51">
         <v>4500020516</v>
       </c>
       <c r="M78" s="126">
@@ -6201,10 +6162,10 @@
         <v>64</v>
       </c>
       <c r="P78" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q78" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R78" s="6"/>
       <c r="S78" s="83"/>
@@ -6213,7 +6174,7 @@
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>114</v>
@@ -6225,13 +6186,13 @@
         <v>333620</v>
       </c>
       <c r="E79" s="95" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F79" s="6">
         <v>1</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H79" s="50"/>
       <c r="I79" s="72">
@@ -6243,7 +6204,7 @@
       <c r="K79" s="84">
         <v>45176</v>
       </c>
-      <c r="L79" s="156">
+      <c r="L79" s="6">
         <v>4500020516</v>
       </c>
       <c r="M79" s="83">
@@ -6254,10 +6215,10 @@
         <v>64</v>
       </c>
       <c r="P79" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q79" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R79" s="6"/>
       <c r="S79" s="83"/>
@@ -6266,7 +6227,7 @@
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>114</v>
@@ -6278,13 +6239,13 @@
         <v>333621</v>
       </c>
       <c r="E80" s="95" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F80" s="6">
         <v>2</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H80" s="50"/>
       <c r="I80" s="72">
@@ -6296,7 +6257,7 @@
       <c r="K80" s="84">
         <v>45176</v>
       </c>
-      <c r="L80" s="156">
+      <c r="L80" s="6">
         <v>4500020516</v>
       </c>
       <c r="M80" s="83">
@@ -6307,10 +6268,10 @@
         <v>64</v>
       </c>
       <c r="P80" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q80" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R80" s="6"/>
       <c r="S80" s="83"/>
@@ -6319,7 +6280,7 @@
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>114</v>
@@ -6331,13 +6292,13 @@
         <v>333621</v>
       </c>
       <c r="E81" s="95" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F81" s="6">
         <v>1</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H81" s="50"/>
       <c r="I81" s="72">
@@ -6349,7 +6310,7 @@
       <c r="K81" s="84">
         <v>45176</v>
       </c>
-      <c r="L81" s="156">
+      <c r="L81" s="6">
         <v>4500020516</v>
       </c>
       <c r="M81" s="83">
@@ -6360,10 +6321,10 @@
         <v>64</v>
       </c>
       <c r="P81" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q81" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R81" s="6"/>
       <c r="S81" s="83"/>
@@ -6372,10 +6333,10 @@
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>47</v>
@@ -6390,7 +6351,7 @@
         <v>2</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H82" s="50"/>
       <c r="I82" s="72">
@@ -6402,7 +6363,7 @@
       <c r="K82" s="84">
         <v>45180</v>
       </c>
-      <c r="L82" s="156">
+      <c r="L82" s="6">
         <v>4500020746</v>
       </c>
       <c r="M82" s="83">
@@ -6413,10 +6374,10 @@
         <v>26</v>
       </c>
       <c r="P82" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q82" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R82" s="6"/>
       <c r="S82" s="83"/>
@@ -6425,10 +6386,10 @@
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="C83" s="53" t="s">
         <v>27</v>
@@ -6443,7 +6404,7 @@
         <v>2</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H83" s="50"/>
       <c r="I83" s="72">
@@ -6455,7 +6416,7 @@
       <c r="K83" s="84">
         <v>45180</v>
       </c>
-      <c r="L83" s="156">
+      <c r="L83" s="6">
         <v>4500020746</v>
       </c>
       <c r="M83" s="83">
@@ -6466,10 +6427,10 @@
         <v>26</v>
       </c>
       <c r="P83" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q83" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R83" s="6"/>
       <c r="S83" s="83"/>
@@ -6478,10 +6439,10 @@
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>38</v>
@@ -6490,13 +6451,13 @@
         <v>333620</v>
       </c>
       <c r="E84" s="95" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F84" s="6">
         <v>1</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H84" s="50"/>
       <c r="I84" s="72">
@@ -6508,7 +6469,7 @@
       <c r="K84" s="84">
         <v>45180</v>
       </c>
-      <c r="L84" s="156">
+      <c r="L84" s="6">
         <v>4500021369</v>
       </c>
       <c r="M84" s="83">
@@ -6519,10 +6480,10 @@
         <v>64</v>
       </c>
       <c r="P84" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q84" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R84" s="6"/>
       <c r="S84" s="83"/>
@@ -6531,10 +6492,10 @@
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>41</v>
@@ -6543,13 +6504,13 @@
         <v>333634</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F85" s="6">
         <v>1</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H85" s="50"/>
       <c r="I85" s="72">
@@ -6561,7 +6522,7 @@
       <c r="K85" s="84">
         <v>45180</v>
       </c>
-      <c r="L85" s="156">
+      <c r="L85" s="6">
         <v>4500021369</v>
       </c>
       <c r="M85" s="83">
@@ -6572,10 +6533,10 @@
         <v>64</v>
       </c>
       <c r="P85" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q85" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R85" s="6"/>
       <c r="S85" s="83"/>
@@ -6584,10 +6545,10 @@
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>20</v>
@@ -6596,13 +6557,13 @@
         <v>503595</v>
       </c>
       <c r="E86" s="95" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F86" s="6">
         <v>1</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H86" s="50"/>
       <c r="I86" s="72">
@@ -6614,7 +6575,7 @@
       <c r="K86" s="84">
         <v>45180</v>
       </c>
-      <c r="L86" s="156">
+      <c r="L86" s="6">
         <v>4500021369</v>
       </c>
       <c r="M86" s="83">
@@ -6625,10 +6586,10 @@
         <v>64</v>
       </c>
       <c r="P86" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q86" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R86" s="6"/>
       <c r="S86" s="83"/>
@@ -6637,7 +6598,7 @@
     </row>
     <row r="87" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>118</v>
@@ -6655,7 +6616,7 @@
         <v>4</v>
       </c>
       <c r="G87" s="127" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H87" s="50"/>
       <c r="I87" s="72">
@@ -6667,7 +6628,7 @@
       <c r="K87" s="84">
         <v>45177</v>
       </c>
-      <c r="L87" s="156">
+      <c r="L87" s="6">
         <v>4500020680</v>
       </c>
       <c r="M87" s="83">
@@ -6678,10 +6639,10 @@
         <v>26</v>
       </c>
       <c r="P87" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q87" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R87" s="6"/>
       <c r="S87" s="83"/>
@@ -6690,7 +6651,7 @@
     </row>
     <row r="88" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>118</v>
@@ -6708,7 +6669,7 @@
         <v>4</v>
       </c>
       <c r="G88" s="127" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H88" s="50"/>
       <c r="I88" s="72">
@@ -6720,7 +6681,7 @@
       <c r="K88" s="84">
         <v>45177</v>
       </c>
-      <c r="L88" s="156">
+      <c r="L88" s="6">
         <v>4500020680</v>
       </c>
       <c r="M88" s="83">
@@ -6731,10 +6692,10 @@
         <v>26</v>
       </c>
       <c r="P88" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q88" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R88" s="6"/>
       <c r="S88" s="83"/>
@@ -6743,10 +6704,10 @@
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>20</v>
@@ -6761,7 +6722,7 @@
         <v>15</v>
       </c>
       <c r="G89" s="128" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H89" s="50"/>
       <c r="I89" s="72">
@@ -6773,7 +6734,7 @@
       <c r="K89" s="84">
         <v>45176</v>
       </c>
-      <c r="L89" s="156">
+      <c r="L89" s="6">
         <v>4500021069</v>
       </c>
       <c r="M89" s="83">
@@ -6784,10 +6745,10 @@
         <v>26</v>
       </c>
       <c r="P89" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q89" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R89" s="6"/>
       <c r="S89" s="83"/>
@@ -6796,10 +6757,10 @@
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>20</v>
@@ -6814,7 +6775,7 @@
         <v>1</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H90" s="50"/>
       <c r="I90" s="72">
@@ -6826,7 +6787,7 @@
       <c r="K90" s="84">
         <v>45181</v>
       </c>
-      <c r="L90" s="156">
+      <c r="L90" s="6">
         <v>4500021070</v>
       </c>
       <c r="M90" s="83">
@@ -6837,10 +6798,10 @@
         <v>26</v>
       </c>
       <c r="P90" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q90" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R90" s="6"/>
       <c r="S90" s="83"/>
@@ -6849,10 +6810,10 @@
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>27</v>
@@ -6867,7 +6828,7 @@
         <v>3</v>
       </c>
       <c r="G91" s="129" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H91" s="50"/>
       <c r="I91" s="72">
@@ -6879,7 +6840,7 @@
       <c r="K91" s="84">
         <v>45180</v>
       </c>
-      <c r="L91" s="156">
+      <c r="L91" s="6">
         <v>4500020681</v>
       </c>
       <c r="M91" s="83">
@@ -6890,10 +6851,10 @@
         <v>26</v>
       </c>
       <c r="P91" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q91" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R91" s="6"/>
       <c r="S91" s="83"/>
@@ -6902,10 +6863,10 @@
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92" s="130" t="s">
+        <v>166</v>
+      </c>
+      <c r="B92" s="130" t="s">
         <v>167</v>
-      </c>
-      <c r="B92" s="130" t="s">
-        <v>168</v>
       </c>
       <c r="C92" s="56" t="s">
         <v>47</v>
@@ -6920,7 +6881,7 @@
         <v>21</v>
       </c>
       <c r="G92" s="56" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H92" s="57"/>
       <c r="I92" s="75">
@@ -6932,7 +6893,7 @@
       <c r="K92" s="132">
         <v>45187</v>
       </c>
-      <c r="L92" s="166">
+      <c r="L92" s="56">
         <v>4500020873</v>
       </c>
       <c r="M92" s="83">
@@ -6940,13 +6901,13 @@
       </c>
       <c r="N92" s="4"/>
       <c r="O92" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P92" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q92" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R92" s="6"/>
       <c r="S92" s="83"/>
@@ -6955,10 +6916,10 @@
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93" s="130" t="s">
+        <v>166</v>
+      </c>
+      <c r="B93" s="130" t="s">
         <v>167</v>
-      </c>
-      <c r="B93" s="130" t="s">
-        <v>168</v>
       </c>
       <c r="C93" s="56" t="s">
         <v>27</v>
@@ -6967,13 +6928,13 @@
         <v>500194</v>
       </c>
       <c r="E93" s="131" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F93" s="56">
         <v>21</v>
       </c>
       <c r="G93" s="56" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H93" s="57"/>
       <c r="I93" s="75">
@@ -6985,7 +6946,7 @@
       <c r="K93" s="132">
         <v>45187</v>
       </c>
-      <c r="L93" s="166">
+      <c r="L93" s="56">
         <v>4500020873</v>
       </c>
       <c r="M93" s="83">
@@ -6993,13 +6954,13 @@
       </c>
       <c r="N93" s="4"/>
       <c r="O93" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P93" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q93" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R93" s="6"/>
       <c r="S93" s="83"/>
@@ -7008,10 +6969,10 @@
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>27</v>
@@ -7026,7 +6987,7 @@
         <v>4</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H94" s="50"/>
       <c r="I94" s="72">
@@ -7038,7 +6999,7 @@
       <c r="K94" s="84">
         <v>45181</v>
       </c>
-      <c r="L94" s="156">
+      <c r="L94" s="6">
         <v>4500020747</v>
       </c>
       <c r="M94" s="83">
@@ -7049,10 +7010,10 @@
         <v>26</v>
       </c>
       <c r="P94" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q94" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R94" s="6"/>
       <c r="S94" s="83"/>
@@ -7061,10 +7022,10 @@
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>38</v>
@@ -7079,7 +7040,7 @@
         <v>4</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H95" s="50"/>
       <c r="I95" s="72">
@@ -7091,7 +7052,7 @@
       <c r="K95" s="84">
         <v>45181</v>
       </c>
-      <c r="L95" s="156">
+      <c r="L95" s="6">
         <v>4500020747</v>
       </c>
       <c r="M95" s="83">
@@ -7102,10 +7063,10 @@
         <v>26</v>
       </c>
       <c r="P95" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q95" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R95" s="6"/>
       <c r="S95" s="83"/>
@@ -7114,10 +7075,10 @@
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>27</v>
@@ -7132,7 +7093,7 @@
         <v>5</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H96" s="50"/>
       <c r="I96" s="72">
@@ -7144,7 +7105,7 @@
       <c r="K96" s="84">
         <v>45184</v>
       </c>
-      <c r="L96" s="156">
+      <c r="L96" s="6">
         <v>4500020994</v>
       </c>
       <c r="M96" s="120">
@@ -7155,10 +7116,10 @@
         <v>26</v>
       </c>
       <c r="P96" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q96" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R96" s="6"/>
       <c r="S96" s="83"/>
@@ -7167,10 +7128,10 @@
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>178</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>27</v>
@@ -7185,7 +7146,7 @@
         <v>3</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H97" s="50"/>
       <c r="I97" s="72">
@@ -7197,7 +7158,7 @@
       <c r="K97" s="84">
         <v>45188</v>
       </c>
-      <c r="L97" s="156">
+      <c r="L97" s="6">
         <v>4500021488</v>
       </c>
       <c r="M97" s="83">
@@ -7208,10 +7169,10 @@
         <v>26</v>
       </c>
       <c r="P97" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q97" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R97" s="6"/>
       <c r="S97" s="83"/>
@@ -7220,10 +7181,10 @@
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>178</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>47</v>
@@ -7232,13 +7193,13 @@
         <v>504180</v>
       </c>
       <c r="E98" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F98" s="6">
         <v>3</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H98" s="50"/>
       <c r="I98" s="72">
@@ -7250,7 +7211,7 @@
       <c r="K98" s="84">
         <v>45188</v>
       </c>
-      <c r="L98" s="156">
+      <c r="L98" s="6">
         <v>4500021488</v>
       </c>
       <c r="M98" s="83">
@@ -7261,10 +7222,10 @@
         <v>26</v>
       </c>
       <c r="P98" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q98" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R98" s="6"/>
       <c r="S98" s="83"/>
@@ -7273,10 +7234,10 @@
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>178</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>41</v>
@@ -7291,7 +7252,7 @@
         <v>10</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H99" s="50"/>
       <c r="I99" s="72">
@@ -7303,7 +7264,7 @@
       <c r="K99" s="84">
         <v>45188</v>
       </c>
-      <c r="L99" s="156">
+      <c r="L99" s="6">
         <v>4500021488</v>
       </c>
       <c r="M99" s="83">
@@ -7314,10 +7275,10 @@
         <v>26</v>
       </c>
       <c r="P99" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q99" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R99" s="6"/>
       <c r="S99" s="83"/>
@@ -7356,7 +7317,7 @@
       <c r="K100" s="84">
         <v>45184</v>
       </c>
-      <c r="L100" s="156">
+      <c r="L100" s="6">
         <v>4500021146</v>
       </c>
       <c r="M100" s="83">
@@ -7367,10 +7328,10 @@
         <v>26</v>
       </c>
       <c r="P100" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q100" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R100" s="6"/>
       <c r="S100" s="83"/>
@@ -7379,10 +7340,10 @@
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>47</v>
@@ -7391,13 +7352,13 @@
         <v>504172</v>
       </c>
       <c r="E101" s="133" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F101" s="6">
         <v>2</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H101" s="50"/>
       <c r="I101" s="72">
@@ -7409,7 +7370,7 @@
       <c r="K101" s="84">
         <v>45096</v>
       </c>
-      <c r="L101" s="156">
+      <c r="L101" s="6">
         <v>4500019558</v>
       </c>
       <c r="M101" s="83">
@@ -7423,7 +7384,7 @@
         <v>54</v>
       </c>
       <c r="Q101" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R101" s="6"/>
       <c r="S101" s="83">
@@ -7434,10 +7395,10 @@
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>47</v>
@@ -7452,7 +7413,7 @@
         <v>2</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H102" s="50"/>
       <c r="I102" s="72">
@@ -7464,7 +7425,7 @@
       <c r="K102" s="84">
         <v>45191</v>
       </c>
-      <c r="L102" s="156">
+      <c r="L102" s="6">
         <v>4500021175</v>
       </c>
       <c r="M102" s="83">
@@ -7475,10 +7436,10 @@
         <v>26</v>
       </c>
       <c r="P102" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q102" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R102" s="6"/>
       <c r="S102" s="83"/>
@@ -7487,10 +7448,10 @@
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="C103" s="53" t="s">
         <v>27</v>
@@ -7505,7 +7466,7 @@
         <v>2</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H103" s="50"/>
       <c r="I103" s="72">
@@ -7517,7 +7478,7 @@
       <c r="K103" s="84">
         <v>45191</v>
       </c>
-      <c r="L103" s="156">
+      <c r="L103" s="6">
         <v>4500021175</v>
       </c>
       <c r="M103" s="83">
@@ -7528,10 +7489,10 @@
         <v>26</v>
       </c>
       <c r="P103" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q103" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R103" s="6"/>
       <c r="S103" s="83"/>
@@ -7540,10 +7501,10 @@
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>47</v>
@@ -7558,7 +7519,7 @@
         <v>1</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H104" s="50"/>
       <c r="I104" s="72">
@@ -7570,7 +7531,7 @@
       <c r="K104" s="84">
         <v>45191</v>
       </c>
-      <c r="L104" s="156">
+      <c r="L104" s="6">
         <v>4500021175</v>
       </c>
       <c r="M104" s="83">
@@ -7581,10 +7542,10 @@
         <v>26</v>
       </c>
       <c r="P104" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q104" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R104" s="6"/>
       <c r="S104" s="83"/>
@@ -7593,10 +7554,10 @@
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="C105" s="53" t="s">
         <v>27</v>
@@ -7611,7 +7572,7 @@
         <v>1</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H105" s="50"/>
       <c r="I105" s="72">
@@ -7623,7 +7584,7 @@
       <c r="K105" s="84">
         <v>45191</v>
       </c>
-      <c r="L105" s="156">
+      <c r="L105" s="6">
         <v>4500021175</v>
       </c>
       <c r="M105" s="83">
@@ -7634,10 +7595,10 @@
         <v>26</v>
       </c>
       <c r="P105" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q105" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R105" s="6"/>
       <c r="S105" s="83"/>
@@ -7646,10 +7607,10 @@
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>20</v>
@@ -7664,7 +7625,7 @@
         <v>10</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H106" s="50"/>
       <c r="I106" s="72">
@@ -7676,7 +7637,7 @@
       <c r="K106" s="84">
         <v>45194</v>
       </c>
-      <c r="L106" s="156">
+      <c r="L106" s="6">
         <v>4500021421</v>
       </c>
       <c r="M106" s="83">
@@ -7684,13 +7645,13 @@
       </c>
       <c r="N106" s="4"/>
       <c r="O106" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P106" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q106" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R106" s="6"/>
       <c r="S106" s="83"/>
@@ -7699,10 +7660,10 @@
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A107" s="135" t="s">
+        <v>185</v>
+      </c>
+      <c r="B107" s="135" t="s">
         <v>186</v>
-      </c>
-      <c r="B107" s="135" t="s">
-        <v>187</v>
       </c>
       <c r="C107" s="17" t="s">
         <v>20</v>
@@ -7717,7 +7678,7 @@
         <v>10</v>
       </c>
       <c r="G107" s="137" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H107" s="50"/>
       <c r="I107" s="72">
@@ -7729,7 +7690,7 @@
       <c r="K107" s="84">
         <v>45194</v>
       </c>
-      <c r="L107" s="156">
+      <c r="L107" s="6">
         <v>4500021421</v>
       </c>
       <c r="M107" s="83">
@@ -7740,10 +7701,10 @@
         <v>26</v>
       </c>
       <c r="P107" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q107" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R107" s="6"/>
       <c r="S107" s="83"/>
@@ -7752,10 +7713,10 @@
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>20</v>
@@ -7770,7 +7731,7 @@
         <v>1</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H108" s="50"/>
       <c r="I108" s="72">
@@ -7782,17 +7743,17 @@
       <c r="K108" s="84">
         <v>45219</v>
       </c>
-      <c r="L108" s="156"/>
+      <c r="L108" s="6"/>
       <c r="M108" s="83"/>
       <c r="N108" s="4"/>
       <c r="O108" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P108" s="6" t="s">
         <v>21</v>
       </c>
       <c r="Q108" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R108" s="6"/>
       <c r="S108" s="83"/>
@@ -7801,7 +7762,7 @@
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>66</v>
@@ -7819,7 +7780,7 @@
         <v>1</v>
       </c>
       <c r="G109" s="139" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H109" s="50"/>
       <c r="I109" s="72">
@@ -7831,7 +7792,7 @@
       <c r="K109" s="84">
         <v>45203</v>
       </c>
-      <c r="L109" s="156"/>
+      <c r="L109" s="6"/>
       <c r="M109" s="83"/>
       <c r="N109" s="6"/>
       <c r="O109" s="6" t="s">
@@ -7841,7 +7802,7 @@
         <v>21</v>
       </c>
       <c r="Q109" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R109" s="6"/>
       <c r="S109" s="83"/>
@@ -7850,7 +7811,7 @@
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>66</v>
@@ -7862,13 +7823,13 @@
         <v>333620</v>
       </c>
       <c r="E110" s="103" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F110" s="4">
         <v>1</v>
       </c>
       <c r="G110" s="139" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H110" s="50"/>
       <c r="I110" s="72">
@@ -7880,7 +7841,7 @@
       <c r="K110" s="84">
         <v>45203</v>
       </c>
-      <c r="L110" s="156"/>
+      <c r="L110" s="6"/>
       <c r="M110" s="83"/>
       <c r="N110" s="6"/>
       <c r="O110" s="6" t="s">
@@ -7890,7 +7851,7 @@
         <v>21</v>
       </c>
       <c r="Q110" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R110" s="6"/>
       <c r="S110" s="83"/>
@@ -7899,7 +7860,7 @@
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A111" s="140" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B111" s="140" t="s">
         <v>66</v>
@@ -7917,7 +7878,7 @@
         <v>5</v>
       </c>
       <c r="G111" s="142" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H111" s="59"/>
       <c r="I111" s="73">
@@ -7929,7 +7890,7 @@
       <c r="K111" s="84">
         <v>45203</v>
       </c>
-      <c r="L111" s="158"/>
+      <c r="L111" s="13"/>
       <c r="M111" s="91"/>
       <c r="N111" s="13"/>
       <c r="O111" s="13" t="s">
@@ -7939,7 +7900,7 @@
         <v>21</v>
       </c>
       <c r="Q111" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R111" s="13"/>
       <c r="S111" s="91"/>
@@ -7948,7 +7909,7 @@
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A112" s="140" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B112" s="140" t="s">
         <v>66</v>
@@ -7960,13 +7921,13 @@
         <v>333620</v>
       </c>
       <c r="E112" s="141" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F112" s="13">
         <v>5</v>
       </c>
       <c r="G112" s="142" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H112" s="59"/>
       <c r="I112" s="73">
@@ -7978,7 +7939,7 @@
       <c r="K112" s="84">
         <v>45203</v>
       </c>
-      <c r="L112" s="158"/>
+      <c r="L112" s="13"/>
       <c r="M112" s="91"/>
       <c r="N112" s="13"/>
       <c r="O112" s="13" t="s">
@@ -7988,7 +7949,7 @@
         <v>21</v>
       </c>
       <c r="Q112" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R112" s="13"/>
       <c r="S112" s="91"/>
@@ -7997,7 +7958,7 @@
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A113" s="140" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B113" s="140" t="s">
         <v>66</v>
@@ -8009,13 +7970,13 @@
         <v>503590</v>
       </c>
       <c r="E113" s="141" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F113" s="13">
         <v>4</v>
       </c>
       <c r="G113" s="142" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H113" s="59"/>
       <c r="I113" s="73">
@@ -8027,7 +7988,7 @@
       <c r="K113" s="84">
         <v>45203</v>
       </c>
-      <c r="L113" s="167"/>
+      <c r="L113" s="156"/>
       <c r="M113" s="143"/>
       <c r="N113" s="13"/>
       <c r="O113" s="13" t="s">
@@ -8037,7 +7998,7 @@
         <v>21</v>
       </c>
       <c r="Q113" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R113" s="13"/>
       <c r="S113" s="91"/>
@@ -8046,7 +8007,7 @@
     </row>
     <row r="114" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A114" s="140" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B114" s="140" t="s">
         <v>66</v>
@@ -8058,13 +8019,13 @@
         <v>503599</v>
       </c>
       <c r="E114" s="141" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F114" s="13">
         <v>4</v>
       </c>
       <c r="G114" s="142" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H114" s="59"/>
       <c r="I114" s="73">
@@ -8076,7 +8037,7 @@
       <c r="K114" s="84">
         <v>45203</v>
       </c>
-      <c r="L114" s="167"/>
+      <c r="L114" s="156"/>
       <c r="M114" s="143"/>
       <c r="N114" s="13"/>
       <c r="O114" s="13" t="s">
@@ -8086,7 +8047,7 @@
         <v>21</v>
       </c>
       <c r="Q114" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R114" s="13"/>
       <c r="S114" s="91"/>
@@ -8095,7 +8056,7 @@
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>66</v>
@@ -8107,13 +8068,13 @@
         <v>333635</v>
       </c>
       <c r="E115" s="103" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F115" s="4">
         <v>1</v>
       </c>
       <c r="G115" s="144" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H115" s="50"/>
       <c r="I115" s="72">
@@ -8125,7 +8086,7 @@
       <c r="K115" s="84">
         <v>45203</v>
       </c>
-      <c r="L115" s="168"/>
+      <c r="L115" s="157"/>
       <c r="M115" s="126"/>
       <c r="N115" s="6"/>
       <c r="O115" s="6" t="s">
@@ -8135,7 +8096,7 @@
         <v>21</v>
       </c>
       <c r="Q115" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R115" s="6"/>
       <c r="S115" s="83"/>
@@ -8144,7 +8105,7 @@
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>66</v>
@@ -8162,7 +8123,7 @@
         <v>4</v>
       </c>
       <c r="G116" s="144" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H116" s="50"/>
       <c r="I116" s="72">
@@ -8174,7 +8135,7 @@
       <c r="K116" s="84">
         <v>45203</v>
       </c>
-      <c r="L116" s="168"/>
+      <c r="L116" s="157"/>
       <c r="M116" s="126"/>
       <c r="N116" s="6"/>
       <c r="O116" s="6" t="s">
@@ -8184,7 +8145,7 @@
         <v>21</v>
       </c>
       <c r="Q116" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R116" s="6"/>
       <c r="S116" s="83"/>
@@ -8193,7 +8154,7 @@
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>66</v>
@@ -8205,13 +8166,13 @@
         <v>333620</v>
       </c>
       <c r="E117" s="103" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F117" s="4">
         <v>1</v>
       </c>
       <c r="G117" s="144" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H117" s="50"/>
       <c r="I117" s="72">
@@ -8223,7 +8184,7 @@
       <c r="K117" s="84">
         <v>45203</v>
       </c>
-      <c r="L117" s="156"/>
+      <c r="L117" s="6"/>
       <c r="M117" s="83"/>
       <c r="N117" s="6"/>
       <c r="O117" s="6" t="s">
@@ -8233,7 +8194,7 @@
         <v>21</v>
       </c>
       <c r="Q117" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R117" s="6"/>
       <c r="S117" s="83"/>
@@ -8254,7 +8215,7 @@
         <v>504175</v>
       </c>
       <c r="E118" s="86" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F118" s="53">
         <v>1</v>
@@ -8272,7 +8233,7 @@
       <c r="K118" s="84">
         <v>45212</v>
       </c>
-      <c r="L118" s="169"/>
+      <c r="L118" s="58"/>
       <c r="M118" s="83"/>
       <c r="N118" s="6"/>
       <c r="O118" s="6" t="s">
@@ -8282,7 +8243,7 @@
         <v>21</v>
       </c>
       <c r="Q118" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R118" s="6"/>
       <c r="S118" s="83"/>
@@ -8303,7 +8264,7 @@
         <v>504175</v>
       </c>
       <c r="E119" s="86" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F119" s="53">
         <v>1</v>
@@ -8321,7 +8282,7 @@
       <c r="K119" s="84">
         <v>45212</v>
       </c>
-      <c r="L119" s="169"/>
+      <c r="L119" s="58"/>
       <c r="M119" s="83"/>
       <c r="N119" s="6"/>
       <c r="O119" s="6" t="s">
@@ -8331,7 +8292,7 @@
         <v>21</v>
       </c>
       <c r="Q119" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R119" s="6"/>
       <c r="S119" s="83"/>
@@ -8370,7 +8331,7 @@
       <c r="K120" s="84">
         <v>45212</v>
       </c>
-      <c r="L120" s="169"/>
+      <c r="L120" s="58"/>
       <c r="M120" s="83"/>
       <c r="N120" s="6"/>
       <c r="O120" s="6" t="s">
@@ -8380,7 +8341,7 @@
         <v>21</v>
       </c>
       <c r="Q120" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R120" s="6"/>
       <c r="S120" s="83"/>
@@ -8419,7 +8380,7 @@
       <c r="K121" s="84">
         <v>45212</v>
       </c>
-      <c r="L121" s="169"/>
+      <c r="L121" s="58"/>
       <c r="M121" s="83"/>
       <c r="N121" s="6"/>
       <c r="O121" s="6" t="s">
@@ -8429,7 +8390,7 @@
         <v>21</v>
       </c>
       <c r="Q121" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R121" s="6"/>
       <c r="S121" s="83"/>
@@ -8450,13 +8411,13 @@
         <v>504175</v>
       </c>
       <c r="E122" s="86" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F122" s="53">
         <v>1</v>
       </c>
       <c r="G122" s="53" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H122" s="50"/>
       <c r="I122" s="72">
@@ -8468,7 +8429,7 @@
       <c r="K122" s="84">
         <v>45212</v>
       </c>
-      <c r="L122" s="156"/>
+      <c r="L122" s="6"/>
       <c r="M122" s="83"/>
       <c r="N122" s="6"/>
       <c r="O122" s="6" t="s">
@@ -8478,7 +8439,7 @@
         <v>21</v>
       </c>
       <c r="Q122" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R122" s="6"/>
       <c r="S122" s="83"/>
@@ -8487,10 +8448,10 @@
     </row>
     <row r="123" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B123" s="53" t="s">
         <v>198</v>
-      </c>
-      <c r="B123" s="53" t="s">
-        <v>199</v>
       </c>
       <c r="C123" s="53" t="s">
         <v>20</v>
@@ -8505,7 +8466,7 @@
         <v>1</v>
       </c>
       <c r="G123" s="129" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H123" s="50"/>
       <c r="I123" s="72">
@@ -8517,17 +8478,17 @@
       <c r="K123" s="84">
         <v>45209</v>
       </c>
-      <c r="L123" s="156"/>
+      <c r="L123" s="6"/>
       <c r="M123" s="83"/>
       <c r="N123" s="4"/>
       <c r="O123" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P123" s="6" t="s">
         <v>21</v>
       </c>
       <c r="Q123" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R123" s="6"/>
       <c r="S123" s="83"/>
@@ -8536,10 +8497,10 @@
     </row>
     <row r="124" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A124" s="53" t="s">
+        <v>200</v>
+      </c>
+      <c r="B124" s="53" t="s">
         <v>201</v>
-      </c>
-      <c r="B124" s="53" t="s">
-        <v>202</v>
       </c>
       <c r="C124" s="53" t="s">
         <v>27</v>
@@ -8554,7 +8515,7 @@
         <v>3</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H124" s="50"/>
       <c r="I124" s="72">
@@ -8566,7 +8527,7 @@
       <c r="K124" s="84">
         <v>45209</v>
       </c>
-      <c r="L124" s="156"/>
+      <c r="L124" s="6"/>
       <c r="M124" s="83"/>
       <c r="N124" s="6"/>
       <c r="O124" s="6" t="s">
@@ -8576,7 +8537,7 @@
         <v>21</v>
       </c>
       <c r="Q124" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R124" s="6"/>
       <c r="S124" s="83"/>
@@ -8585,10 +8546,10 @@
     </row>
     <row r="125" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A125" s="53" t="s">
+        <v>200</v>
+      </c>
+      <c r="B125" s="53" t="s">
         <v>201</v>
-      </c>
-      <c r="B125" s="53" t="s">
-        <v>202</v>
       </c>
       <c r="C125" s="53" t="s">
         <v>38</v>
@@ -8597,13 +8558,13 @@
         <v>337928</v>
       </c>
       <c r="E125" s="103" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F125" s="6">
         <v>4</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H125" s="50"/>
       <c r="I125" s="72">
@@ -8615,7 +8576,7 @@
       <c r="K125" s="84">
         <v>45209</v>
       </c>
-      <c r="L125" s="156"/>
+      <c r="L125" s="6"/>
       <c r="M125" s="83"/>
       <c r="N125" s="6"/>
       <c r="O125" s="6" t="s">
@@ -8625,7 +8586,7 @@
         <v>21</v>
       </c>
       <c r="Q125" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R125" s="6"/>
       <c r="S125" s="83"/>
@@ -8634,10 +8595,10 @@
     </row>
     <row r="126" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A126" s="53" t="s">
+        <v>204</v>
+      </c>
+      <c r="B126" s="53" t="s">
         <v>205</v>
-      </c>
-      <c r="B126" s="53" t="s">
-        <v>206</v>
       </c>
       <c r="C126" s="53" t="s">
         <v>20</v>
@@ -8652,7 +8613,7 @@
         <v>10</v>
       </c>
       <c r="G126" s="146" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H126" s="50"/>
       <c r="I126" s="72">
@@ -8664,17 +8625,17 @@
       <c r="K126" s="84">
         <v>45212</v>
       </c>
-      <c r="L126" s="156"/>
+      <c r="L126" s="6"/>
       <c r="M126" s="83"/>
       <c r="N126" s="4"/>
       <c r="O126" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P126" s="6" t="s">
         <v>21</v>
       </c>
       <c r="Q126" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R126" s="6"/>
       <c r="S126" s="83"/>
@@ -8683,10 +8644,10 @@
     </row>
     <row r="127" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A127" s="53" t="s">
+        <v>207</v>
+      </c>
+      <c r="B127" s="53" t="s">
         <v>208</v>
-      </c>
-      <c r="B127" s="53" t="s">
-        <v>209</v>
       </c>
       <c r="C127" s="53" t="s">
         <v>20</v>
@@ -8701,7 +8662,7 @@
         <v>3</v>
       </c>
       <c r="G127" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H127" s="50"/>
       <c r="I127" s="72">
@@ -8713,17 +8674,17 @@
       <c r="K127" s="84">
         <v>45212</v>
       </c>
-      <c r="L127" s="156"/>
+      <c r="L127" s="6"/>
       <c r="M127" s="83"/>
       <c r="N127" s="4"/>
       <c r="O127" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P127" s="6" t="s">
         <v>21</v>
       </c>
       <c r="Q127" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R127" s="6"/>
       <c r="S127" s="83"/>
@@ -8732,7 +8693,7 @@
     </row>
     <row r="128" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>51</v>
@@ -8744,13 +8705,13 @@
         <v>505332</v>
       </c>
       <c r="E128" s="42" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F128" s="4">
         <v>20</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H128" s="5"/>
       <c r="I128" s="71">
@@ -8762,17 +8723,17 @@
       <c r="K128" s="81">
         <v>45209</v>
       </c>
-      <c r="L128" s="157"/>
+      <c r="L128" s="4"/>
       <c r="M128" s="82"/>
       <c r="N128" s="4"/>
       <c r="O128" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P128" s="6" t="s">
         <v>21</v>
       </c>
       <c r="Q128" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R128" s="6"/>
       <c r="S128" s="83"/>
@@ -8793,7 +8754,7 @@
         <v>504178</v>
       </c>
       <c r="E129" s="103" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F129" s="4">
         <v>5</v>
@@ -8811,7 +8772,7 @@
       <c r="K129" s="84">
         <v>45212</v>
       </c>
-      <c r="L129" s="156"/>
+      <c r="L129" s="6"/>
       <c r="M129" s="83"/>
       <c r="N129" s="6"/>
       <c r="O129" s="6" t="s">
@@ -8821,7 +8782,7 @@
         <v>21</v>
       </c>
       <c r="Q129" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R129" s="6"/>
       <c r="S129" s="83"/>
@@ -8860,7 +8821,7 @@
       <c r="K130" s="84">
         <v>45212</v>
       </c>
-      <c r="L130" s="156"/>
+      <c r="L130" s="6"/>
       <c r="M130" s="83"/>
       <c r="N130" s="6"/>
       <c r="O130" s="6" t="s">
@@ -8870,7 +8831,7 @@
         <v>21</v>
       </c>
       <c r="Q130" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R130" s="6"/>
       <c r="S130" s="83"/>
@@ -8879,10 +8840,10 @@
     </row>
     <row r="131" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A131" s="53" t="s">
+        <v>214</v>
+      </c>
+      <c r="B131" s="53" t="s">
         <v>215</v>
-      </c>
-      <c r="B131" s="53" t="s">
-        <v>216</v>
       </c>
       <c r="C131" s="53" t="s">
         <v>27</v>
@@ -8891,7 +8852,7 @@
         <v>503717</v>
       </c>
       <c r="E131" s="42" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F131" s="6">
         <v>1</v>
@@ -8909,17 +8870,17 @@
       <c r="K131" s="84">
         <v>45212</v>
       </c>
-      <c r="L131" s="156"/>
+      <c r="L131" s="6"/>
       <c r="M131" s="83"/>
       <c r="N131" s="4"/>
       <c r="O131" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P131" s="6" t="s">
         <v>21</v>
       </c>
       <c r="Q131" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R131" s="6"/>
       <c r="S131" s="83"/>
@@ -8928,10 +8889,10 @@
     </row>
     <row r="132" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A132" s="53" t="s">
+        <v>214</v>
+      </c>
+      <c r="B132" s="6" t="s">
         <v>215</v>
-      </c>
-      <c r="B132" s="6" t="s">
-        <v>216</v>
       </c>
       <c r="C132" s="53" t="s">
         <v>38</v>
@@ -8940,7 +8901,7 @@
         <v>311201</v>
       </c>
       <c r="E132" s="42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F132" s="6">
         <v>1</v>
@@ -8958,17 +8919,17 @@
       <c r="K132" s="84">
         <v>45212</v>
       </c>
-      <c r="L132" s="156"/>
+      <c r="L132" s="6"/>
       <c r="M132" s="83"/>
       <c r="N132" s="4"/>
       <c r="O132" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P132" s="6" t="s">
         <v>21</v>
       </c>
       <c r="Q132" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R132" s="6"/>
       <c r="S132" s="83"/>
@@ -8977,10 +8938,10 @@
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A133" s="147" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B133" s="147" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C133" s="147" t="s">
         <v>20</v>
@@ -8989,7 +8950,7 @@
         <v>505328</v>
       </c>
       <c r="E133" s="134" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F133" s="63">
         <v>30</v>
@@ -9007,17 +8968,17 @@
       <c r="K133" s="84">
         <v>45216</v>
       </c>
-      <c r="L133" s="156"/>
+      <c r="L133" s="6"/>
       <c r="M133" s="83"/>
       <c r="N133" s="4"/>
       <c r="O133" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P133" s="6" t="s">
         <v>21</v>
       </c>
       <c r="Q133" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R133" s="6"/>
       <c r="S133" s="83"/>
@@ -9026,10 +8987,10 @@
     </row>
     <row r="134" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A134" s="147" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B134" s="147" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C134" s="147" t="s">
         <v>38</v>
@@ -9056,17 +9017,17 @@
       <c r="K134" s="84">
         <v>45216</v>
       </c>
-      <c r="L134" s="156"/>
+      <c r="L134" s="6"/>
       <c r="M134" s="83"/>
       <c r="N134" s="4"/>
       <c r="O134" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P134" s="6" t="s">
         <v>21</v>
       </c>
       <c r="Q134" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R134" s="6"/>
       <c r="S134" s="83"/>
@@ -9075,10 +9036,10 @@
     </row>
     <row r="135" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A135" s="147" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B135" s="147" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C135" s="147" t="s">
         <v>27</v>
@@ -9087,7 +9048,7 @@
         <v>500194</v>
       </c>
       <c r="E135" s="134" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F135" s="63">
         <v>150</v>
@@ -9105,17 +9066,17 @@
       <c r="K135" s="84">
         <v>45217</v>
       </c>
-      <c r="L135" s="156"/>
+      <c r="L135" s="6"/>
       <c r="M135" s="83"/>
       <c r="N135" s="4"/>
       <c r="O135" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P135" s="6" t="s">
         <v>21</v>
       </c>
       <c r="Q135" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R135" s="6"/>
       <c r="S135" s="83"/>
@@ -9124,10 +9085,10 @@
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A136" s="147" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B136" s="147" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C136" s="149" t="s">
         <v>103</v>
@@ -9154,17 +9115,17 @@
       <c r="K136" s="84">
         <v>45218</v>
       </c>
-      <c r="L136" s="156"/>
+      <c r="L136" s="6"/>
       <c r="M136" s="83"/>
       <c r="N136" s="4"/>
       <c r="O136" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P136" s="6" t="s">
         <v>21</v>
       </c>
       <c r="Q136" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R136" s="6"/>
       <c r="S136" s="83"/>
@@ -9173,10 +9134,10 @@
     </row>
     <row r="137" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A137" s="147" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B137" s="147" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C137" s="149" t="s">
         <v>47</v>
@@ -9203,17 +9164,17 @@
       <c r="K137" s="84">
         <v>45219</v>
       </c>
-      <c r="L137" s="156"/>
+      <c r="L137" s="6"/>
       <c r="M137" s="83"/>
       <c r="N137" s="4"/>
       <c r="O137" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P137" s="6" t="s">
         <v>21</v>
       </c>
       <c r="Q137" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R137" s="6"/>
       <c r="S137" s="83"/>
@@ -9222,10 +9183,10 @@
     </row>
     <row r="138" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A138" s="147" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B138" s="147" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C138" s="149" t="s">
         <v>27</v>
@@ -9234,7 +9195,7 @@
         <v>503717</v>
       </c>
       <c r="E138" s="134" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F138" s="63">
         <v>20</v>
@@ -9252,17 +9213,17 @@
       <c r="K138" s="84">
         <v>45220</v>
       </c>
-      <c r="L138" s="156"/>
+      <c r="L138" s="6"/>
       <c r="M138" s="83"/>
       <c r="N138" s="4"/>
       <c r="O138" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P138" s="6" t="s">
         <v>21</v>
       </c>
       <c r="Q138" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R138" s="6"/>
       <c r="S138" s="83"/>
@@ -9271,7 +9232,7 @@
     </row>
     <row r="139" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A139" s="31" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B139" s="31" t="s">
         <v>62</v>
@@ -9301,17 +9262,17 @@
       <c r="K139" s="84">
         <v>45221</v>
       </c>
-      <c r="L139" s="156"/>
+      <c r="L139" s="6"/>
       <c r="M139" s="83"/>
       <c r="N139" s="4"/>
       <c r="O139" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P139" s="6" t="s">
         <v>21</v>
       </c>
       <c r="Q139" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R139" s="6"/>
       <c r="S139" s="83"/>
@@ -9320,7 +9281,7 @@
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A140" s="31" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B140" s="31" t="s">
         <v>62</v>
@@ -9350,17 +9311,17 @@
       <c r="K140" s="84">
         <v>45222</v>
       </c>
-      <c r="L140" s="156"/>
+      <c r="L140" s="6"/>
       <c r="M140" s="83"/>
       <c r="N140" s="4"/>
       <c r="O140" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P140" s="6" t="s">
         <v>21</v>
       </c>
       <c r="Q140" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R140" s="6"/>
       <c r="S140" s="83"/>
@@ -9369,7 +9330,7 @@
     </row>
     <row r="141" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A141" s="31" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B141" s="31" t="s">
         <v>62</v>
@@ -9381,7 +9342,7 @@
         <v>500194</v>
       </c>
       <c r="E141" s="134" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F141" s="64">
         <v>50</v>
@@ -9399,17 +9360,17 @@
       <c r="K141" s="84">
         <v>45223</v>
       </c>
-      <c r="L141" s="156"/>
+      <c r="L141" s="6"/>
       <c r="M141" s="83"/>
       <c r="N141" s="4"/>
       <c r="O141" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P141" s="6" t="s">
         <v>21</v>
       </c>
       <c r="Q141" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R141" s="6"/>
       <c r="S141" s="83"/>
@@ -9418,10 +9379,10 @@
     </row>
     <row r="142" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A142" s="150" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B142" s="150" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C142" s="150" t="s">
         <v>20</v>
@@ -9436,7 +9397,7 @@
         <v>30</v>
       </c>
       <c r="G142" s="129" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H142" s="50"/>
       <c r="I142" s="72">
@@ -9448,17 +9409,17 @@
       <c r="K142" s="84">
         <v>45224</v>
       </c>
-      <c r="L142" s="156"/>
+      <c r="L142" s="6"/>
       <c r="M142" s="83"/>
       <c r="N142" s="4"/>
       <c r="O142" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P142" s="6" t="s">
         <v>21</v>
       </c>
       <c r="Q142" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R142" s="6"/>
       <c r="S142" s="83"/>
@@ -9467,10 +9428,10 @@
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A143" s="150" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B143" s="150" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C143" s="150" t="s">
         <v>38</v>
@@ -9485,7 +9446,7 @@
         <v>50</v>
       </c>
       <c r="G143" s="129" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H143" s="50"/>
       <c r="I143" s="72">
@@ -9497,17 +9458,17 @@
       <c r="K143" s="84">
         <v>45225</v>
       </c>
-      <c r="L143" s="156"/>
+      <c r="L143" s="6"/>
       <c r="M143" s="83"/>
       <c r="N143" s="4"/>
       <c r="O143" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P143" s="6" t="s">
         <v>21</v>
       </c>
       <c r="Q143" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R143" s="6"/>
       <c r="S143" s="83"/>
@@ -9516,10 +9477,10 @@
     </row>
     <row r="144" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A144" s="150" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B144" s="150" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C144" s="150" t="s">
         <v>27</v>
@@ -9528,13 +9489,13 @@
         <v>500194</v>
       </c>
       <c r="E144" s="134" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F144" s="65">
         <v>50</v>
       </c>
       <c r="G144" s="129" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H144" s="50"/>
       <c r="I144" s="72">
@@ -9546,17 +9507,17 @@
       <c r="K144" s="84">
         <v>45226</v>
       </c>
-      <c r="L144" s="156"/>
+      <c r="L144" s="6"/>
       <c r="M144" s="83"/>
       <c r="N144" s="4"/>
       <c r="O144" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P144" s="6" t="s">
         <v>21</v>
       </c>
       <c r="Q144" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R144" s="6"/>
       <c r="S144" s="83"/>
@@ -9565,10 +9526,10 @@
     </row>
     <row r="145" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A145" s="150" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B145" s="150" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C145" s="152" t="s">
         <v>103</v>
@@ -9583,7 +9544,7 @@
         <v>100</v>
       </c>
       <c r="G145" s="129" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H145" s="50"/>
       <c r="I145" s="72">
@@ -9595,17 +9556,17 @@
       <c r="K145" s="84">
         <v>45227</v>
       </c>
-      <c r="L145" s="156"/>
+      <c r="L145" s="6"/>
       <c r="M145" s="83"/>
       <c r="N145" s="4"/>
       <c r="O145" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P145" s="6" t="s">
         <v>21</v>
       </c>
       <c r="Q145" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R145" s="6"/>
       <c r="S145" s="83"/>
@@ -9614,10 +9575,10 @@
     </row>
     <row r="146" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" s="150" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B146" s="150" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C146" s="150" t="s">
         <v>20</v>
@@ -9632,7 +9593,7 @@
         <v>2</v>
       </c>
       <c r="G146" s="154" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H146" s="50"/>
       <c r="I146" s="72">
@@ -9644,17 +9605,17 @@
       <c r="K146" s="84">
         <v>45228</v>
       </c>
-      <c r="L146" s="156"/>
+      <c r="L146" s="6"/>
       <c r="M146" s="83"/>
       <c r="N146" s="4"/>
       <c r="O146" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P146" s="6" t="s">
         <v>21</v>
       </c>
       <c r="Q146" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R146" s="6"/>
       <c r="S146" s="83"/>
@@ -9693,7 +9654,7 @@
       <c r="K147" s="84">
         <v>45229</v>
       </c>
-      <c r="L147" s="156"/>
+      <c r="L147" s="6"/>
       <c r="M147" s="83"/>
       <c r="N147" s="6"/>
       <c r="O147" s="6" t="s">
@@ -9703,7 +9664,7 @@
         <v>21</v>
       </c>
       <c r="Q147" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R147" s="6"/>
       <c r="S147" s="83"/>
@@ -9730,7 +9691,7 @@
         <v>2</v>
       </c>
       <c r="G148" s="155" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H148" s="50"/>
       <c r="I148" s="72">
@@ -9742,17 +9703,17 @@
       <c r="K148" s="84">
         <v>45230</v>
       </c>
-      <c r="L148" s="156"/>
+      <c r="L148" s="6"/>
       <c r="M148" s="83"/>
       <c r="N148" s="4"/>
       <c r="O148" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P148" s="6" t="s">
         <v>21</v>
       </c>
       <c r="Q148" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R148" s="6"/>
       <c r="S148" s="83"/>
@@ -9773,13 +9734,13 @@
         <v>311201</v>
       </c>
       <c r="E149" s="134" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F149" s="6">
         <v>4</v>
       </c>
       <c r="G149" s="155" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H149" s="50"/>
       <c r="I149" s="72">
@@ -9791,17 +9752,17 @@
       <c r="K149" s="84">
         <v>45231</v>
       </c>
-      <c r="L149" s="156"/>
+      <c r="L149" s="6"/>
       <c r="M149" s="83"/>
       <c r="N149" s="4"/>
       <c r="O149" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P149" s="6" t="s">
         <v>21</v>
       </c>
       <c r="Q149" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R149" s="6"/>
       <c r="S149" s="83"/>
@@ -9828,7 +9789,7 @@
         <v>4</v>
       </c>
       <c r="G150" s="155" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H150" s="50"/>
       <c r="I150" s="72">
@@ -9840,17 +9801,17 @@
       <c r="K150" s="84">
         <v>45232</v>
       </c>
-      <c r="L150" s="156"/>
+      <c r="L150" s="6"/>
       <c r="M150" s="83"/>
       <c r="N150" s="4"/>
       <c r="O150" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P150" s="6" t="s">
         <v>21</v>
       </c>
       <c r="Q150" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R150" s="6"/>
       <c r="S150" s="83"/>
@@ -9871,13 +9832,13 @@
         <v>503717</v>
       </c>
       <c r="E151" s="134" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F151" s="6">
         <v>3</v>
       </c>
       <c r="G151" s="155" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H151" s="50"/>
       <c r="I151" s="72">
@@ -9889,17 +9850,17 @@
       <c r="K151" s="84">
         <v>45233</v>
       </c>
-      <c r="L151" s="156"/>
+      <c r="L151" s="6"/>
       <c r="M151" s="83"/>
       <c r="N151" s="4"/>
       <c r="O151" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P151" s="6" t="s">
         <v>21</v>
       </c>
       <c r="Q151" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R151" s="6"/>
       <c r="S151" s="83"/>
@@ -9926,7 +9887,7 @@
         <v>1</v>
       </c>
       <c r="G152" s="155" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H152" s="50"/>
       <c r="I152" s="72">
@@ -9938,7 +9899,7 @@
       <c r="K152" s="84">
         <v>45234</v>
       </c>
-      <c r="L152" s="156"/>
+      <c r="L152" s="6"/>
       <c r="M152" s="83"/>
       <c r="N152" s="6"/>
       <c r="O152" s="6" t="s">
@@ -9948,7 +9909,7 @@
         <v>21</v>
       </c>
       <c r="Q152" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R152" s="6"/>
       <c r="S152" s="83"/>
@@ -9969,13 +9930,13 @@
         <v>500194</v>
       </c>
       <c r="E153" s="134" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F153" s="6">
         <v>1</v>
       </c>
       <c r="G153" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H153" s="50"/>
       <c r="I153" s="72">
@@ -9987,17 +9948,17 @@
       <c r="K153" s="84">
         <v>45235</v>
       </c>
-      <c r="L153" s="156"/>
+      <c r="L153" s="6"/>
       <c r="M153" s="83"/>
       <c r="N153" s="4"/>
       <c r="O153" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P153" s="6" t="s">
         <v>21</v>
       </c>
       <c r="Q153" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R153" s="6"/>
       <c r="S153" s="83"/>
@@ -10006,7 +9967,7 @@
     </row>
     <row r="154" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B154" s="6" t="s">
         <v>85</v>
@@ -10018,13 +9979,13 @@
         <v>500194</v>
       </c>
       <c r="E154" s="134" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F154" s="6">
         <v>36</v>
       </c>
       <c r="G154" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H154" s="50"/>
       <c r="I154" s="72">
@@ -10032,17 +9993,17 @@
       </c>
       <c r="J154" s="6"/>
       <c r="K154" s="84"/>
-      <c r="L154" s="156"/>
+      <c r="L154" s="6"/>
       <c r="M154" s="83"/>
       <c r="N154" s="4"/>
       <c r="O154" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P154" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Q154" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R154" s="6"/>
       <c r="S154" s="83"/>
@@ -10051,7 +10012,7 @@
     </row>
     <row r="155" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B155" s="6" t="s">
         <v>85</v>
@@ -10063,13 +10024,13 @@
         <v>311201</v>
       </c>
       <c r="E155" s="134" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F155" s="6">
         <v>30</v>
       </c>
       <c r="G155" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H155" s="50"/>
       <c r="I155" s="72">
@@ -10077,17 +10038,17 @@
       </c>
       <c r="J155" s="6"/>
       <c r="K155" s="84"/>
-      <c r="L155" s="156"/>
+      <c r="L155" s="6"/>
       <c r="M155" s="83"/>
       <c r="N155" s="4"/>
       <c r="O155" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P155" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Q155" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R155" s="6"/>
       <c r="S155" s="83"/>
@@ -10096,10 +10057,10 @@
     </row>
     <row r="156" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B156" s="6" t="s">
         <v>231</v>
-      </c>
-      <c r="B156" s="6" t="s">
-        <v>232</v>
       </c>
       <c r="C156" s="6" t="s">
         <v>27</v>
@@ -10114,7 +10075,7 @@
         <v>3</v>
       </c>
       <c r="G156" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H156" s="50"/>
       <c r="I156" s="72">
@@ -10126,7 +10087,7 @@
       <c r="K156" s="84">
         <v>45219</v>
       </c>
-      <c r="L156" s="156"/>
+      <c r="L156" s="6"/>
       <c r="M156" s="83"/>
       <c r="N156" s="6"/>
       <c r="O156" s="6" t="s">
@@ -10136,7 +10097,7 @@
         <v>21</v>
       </c>
       <c r="Q156" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R156" s="6"/>
       <c r="S156" s="83"/>

--- a/backend/static/test.xlsx
+++ b/backend/static/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\app\backend\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79685B6E-E304-4680-BB0B-03E66E983ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B533775-D463-4462-90D8-1D0F03625776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="239">
   <si>
     <t>Demandeur</t>
   </si>
@@ -734,6 +734,12 @@
   </si>
   <si>
     <t>Code</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Consommable</t>
   </si>
 </sst>
 </file>
@@ -1893,12 +1899,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U157"/>
+  <dimension ref="A1:W157"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="R19" sqref="R19"/>
+      <selection pane="bottomLeft" activeCell="X122" sqref="X122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1906,27 +1912,29 @@
     <col min="1" max="1" width="21.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="59.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="21.28515625" style="69" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="67" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
@@ -1990,8 +1998,14 @@
       <c r="U1" s="66" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V1" s="67" t="s">
+        <v>237</v>
+      </c>
+      <c r="W1" s="67" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -2044,7 +2058,7 @@
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -2097,7 +2111,7 @@
       <c r="T3" s="4"/>
       <c r="U3" s="4"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -2150,7 +2164,7 @@
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
@@ -2203,7 +2217,7 @@
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -2256,7 +2270,7 @@
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -2309,7 +2323,7 @@
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -2362,7 +2376,7 @@
       <c r="T8" s="6"/>
       <c r="U8" s="4"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
@@ -2415,7 +2429,7 @@
       <c r="T9" s="6"/>
       <c r="U9" s="6"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -2468,7 +2482,7 @@
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>42</v>
       </c>
@@ -2521,7 +2535,7 @@
       <c r="T11" s="6"/>
       <c r="U11" s="6"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>50</v>
       </c>
@@ -2578,7 +2592,7 @@
       <c r="T12" s="6"/>
       <c r="U12" s="6"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>50</v>
       </c>
@@ -2637,7 +2651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>50</v>
       </c>
@@ -2690,7 +2704,7 @@
       <c r="T14" s="6"/>
       <c r="U14" s="6"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>50</v>
       </c>
@@ -2749,7 +2763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>50</v>
       </c>

--- a/backend/static/test.xlsx
+++ b/backend/static/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\app\backend\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B533775-D463-4462-90D8-1D0F03625776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41EF7F89-379B-46C5-9B66-AA0FD49B58DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -750,7 +750,7 @@
     <numFmt numFmtId="164" formatCode="[=0]0;[&gt;=1]#,##0;0.00"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -894,6 +894,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color rgb="FF434343"/>
+      <name val="Inter"/>
     </font>
   </fonts>
   <fills count="16">
@@ -1125,7 +1130,7 @@
     </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1592,6 +1597,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="dell.build" xfId="3" xr:uid="{35D6D537-5215-4132-ABAE-B0857B308496}"/>
@@ -1901,13 +1907,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="X122" sqref="X122"/>
+      <selection pane="bottomLeft" activeCell="J87" sqref="J87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
@@ -1918,7 +1924,7 @@
     <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" customWidth="1"/>
     <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
@@ -1934,7 +1940,7 @@
     <col min="23" max="23" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="67" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="67" customFormat="1">
       <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
@@ -2005,7 +2011,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="15.75">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -2058,7 +2064,7 @@
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -2111,7 +2117,7 @@
       <c r="T3" s="4"/>
       <c r="U3" s="4"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -2164,7 +2170,7 @@
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23">
       <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
@@ -2217,7 +2223,7 @@
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -2270,7 +2276,7 @@
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -2323,7 +2329,7 @@
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -2376,7 +2382,7 @@
       <c r="T8" s="6"/>
       <c r="U8" s="4"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23">
       <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
@@ -2429,7 +2435,7 @@
       <c r="T9" s="6"/>
       <c r="U9" s="6"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -2482,7 +2488,7 @@
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23">
       <c r="A11" s="6" t="s">
         <v>42</v>
       </c>
@@ -2535,7 +2541,7 @@
       <c r="T11" s="6"/>
       <c r="U11" s="6"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23">
       <c r="A12" s="6" t="s">
         <v>50</v>
       </c>
@@ -2592,7 +2598,7 @@
       <c r="T12" s="6"/>
       <c r="U12" s="6"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23">
       <c r="A13" s="4" t="s">
         <v>50</v>
       </c>
@@ -2651,7 +2657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23">
       <c r="A14" s="4" t="s">
         <v>50</v>
       </c>
@@ -2704,7 +2710,7 @@
       <c r="T14" s="6"/>
       <c r="U14" s="6"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23">
       <c r="A15" s="4" t="s">
         <v>50</v>
       </c>
@@ -2763,7 +2769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23">
       <c r="A16" s="4" t="s">
         <v>50</v>
       </c>
@@ -2816,7 +2822,7 @@
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21">
       <c r="A17" s="6" t="s">
         <v>50</v>
       </c>
@@ -2869,7 +2875,7 @@
       <c r="T17" s="6"/>
       <c r="U17" s="6"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21">
       <c r="A18" s="4" t="s">
         <v>58</v>
       </c>
@@ -2922,7 +2928,7 @@
       <c r="T18" s="4"/>
       <c r="U18" s="4"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21">
       <c r="A19" s="4" t="s">
         <v>58</v>
       </c>
@@ -2981,7 +2987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21">
       <c r="A20" s="4" t="s">
         <v>58</v>
       </c>
@@ -3038,7 +3044,7 @@
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
     </row>
-    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="15.75">
       <c r="A21" s="4" t="s">
         <v>61</v>
       </c>
@@ -3099,7 +3105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21">
       <c r="A22" s="13" t="s">
         <v>65</v>
       </c>
@@ -3152,7 +3158,7 @@
       <c r="T22" s="13"/>
       <c r="U22" s="13"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21">
       <c r="A23" s="13" t="s">
         <v>65</v>
       </c>
@@ -3205,7 +3211,7 @@
       <c r="T23" s="13"/>
       <c r="U23" s="13"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21">
       <c r="A24" s="13" t="s">
         <v>65</v>
       </c>
@@ -3258,7 +3264,7 @@
       <c r="T24" s="13"/>
       <c r="U24" s="13"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21">
       <c r="A25" s="13" t="s">
         <v>65</v>
       </c>
@@ -3311,7 +3317,7 @@
       <c r="T25" s="13"/>
       <c r="U25" s="13"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21">
       <c r="A26" s="13" t="s">
         <v>65</v>
       </c>
@@ -3364,7 +3370,7 @@
       <c r="T26" s="13"/>
       <c r="U26" s="13"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21">
       <c r="A27" s="6" t="s">
         <v>42</v>
       </c>
@@ -3417,7 +3423,7 @@
       <c r="T27" s="6"/>
       <c r="U27" s="6"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21">
       <c r="A28" s="6" t="s">
         <v>75</v>
       </c>
@@ -3470,7 +3476,7 @@
       <c r="T28" s="6"/>
       <c r="U28" s="6"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21">
       <c r="A29" s="6" t="s">
         <v>75</v>
       </c>
@@ -3523,7 +3529,7 @@
       <c r="T29" s="6"/>
       <c r="U29" s="6"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21">
       <c r="A30" s="18" t="s">
         <v>79</v>
       </c>
@@ -3576,7 +3582,7 @@
       <c r="T30" s="6"/>
       <c r="U30" s="6"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21">
       <c r="A31" s="18" t="s">
         <v>79</v>
       </c>
@@ -3629,7 +3635,7 @@
       <c r="T31" s="6"/>
       <c r="U31" s="6"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21">
       <c r="A32" s="18" t="s">
         <v>79</v>
       </c>
@@ -3682,7 +3688,7 @@
       <c r="T32" s="6"/>
       <c r="U32" s="4"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21">
       <c r="A33" s="4" t="s">
         <v>84</v>
       </c>
@@ -3735,7 +3741,7 @@
       <c r="T33" s="4"/>
       <c r="U33" s="4"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21">
       <c r="A34" s="6" t="s">
         <v>84</v>
       </c>
@@ -3788,7 +3794,7 @@
       <c r="T34" s="4"/>
       <c r="U34" s="6"/>
     </row>
-    <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" ht="15.75">
       <c r="A35" s="23" t="s">
         <v>87</v>
       </c>
@@ -3843,7 +3849,7 @@
       <c r="T35" s="23"/>
       <c r="U35" s="23"/>
     </row>
-    <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" ht="15.75">
       <c r="A36" s="4" t="s">
         <v>87</v>
       </c>
@@ -3898,7 +3904,7 @@
       <c r="T36" s="23"/>
       <c r="U36" s="23"/>
     </row>
-    <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" ht="15.75">
       <c r="A37" s="23" t="s">
         <v>87</v>
       </c>
@@ -3953,7 +3959,7 @@
       <c r="T37" s="23"/>
       <c r="U37" s="23"/>
     </row>
-    <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" ht="15.75">
       <c r="A38" s="4" t="s">
         <v>87</v>
       </c>
@@ -4010,7 +4016,7 @@
       <c r="T38" s="68"/>
       <c r="U38" s="23"/>
     </row>
-    <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" ht="15.75">
       <c r="A39" s="4" t="s">
         <v>84</v>
       </c>
@@ -4063,7 +4069,7 @@
       <c r="T39" s="4"/>
       <c r="U39" s="4"/>
     </row>
-    <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" ht="15.75">
       <c r="A40" s="4" t="s">
         <v>84</v>
       </c>
@@ -4120,7 +4126,7 @@
       <c r="T40" s="4"/>
       <c r="U40" s="6"/>
     </row>
-    <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" ht="15.75">
       <c r="A41" s="6" t="s">
         <v>84</v>
       </c>
@@ -4173,7 +4179,7 @@
       <c r="T41" s="6"/>
       <c r="U41" s="6"/>
     </row>
-    <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" ht="15.75">
       <c r="A42" s="6" t="s">
         <v>84</v>
       </c>
@@ -4226,7 +4232,7 @@
       <c r="T42" s="6"/>
       <c r="U42" s="6"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21">
       <c r="A43" s="4" t="s">
         <v>42</v>
       </c>
@@ -4285,7 +4291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21">
       <c r="A44" s="4" t="s">
         <v>42</v>
       </c>
@@ -4342,7 +4348,7 @@
       <c r="T44" s="4"/>
       <c r="U44" s="4"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21">
       <c r="A45" s="4" t="s">
         <v>42</v>
       </c>
@@ -4399,7 +4405,7 @@
       <c r="T45" s="4"/>
       <c r="U45" s="4"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21">
       <c r="A46" s="4" t="s">
         <v>50</v>
       </c>
@@ -4456,7 +4462,7 @@
       <c r="T46" s="6"/>
       <c r="U46" s="6"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21">
       <c r="A47" s="4" t="s">
         <v>50</v>
       </c>
@@ -4513,7 +4519,7 @@
       <c r="T47" s="6"/>
       <c r="U47" s="6"/>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21">
       <c r="A48" s="31" t="s">
         <v>105</v>
       </c>
@@ -4566,7 +4572,7 @@
       <c r="T48" s="31"/>
       <c r="U48" s="31"/>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21">
       <c r="A49" s="4" t="s">
         <v>105</v>
       </c>
@@ -4623,7 +4629,7 @@
       <c r="T49" s="4"/>
       <c r="U49" s="4"/>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21">
       <c r="A50" s="4" t="s">
         <v>109</v>
       </c>
@@ -4676,7 +4682,7 @@
       <c r="T50" s="6"/>
       <c r="U50" s="6"/>
     </row>
-    <row r="51" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" ht="15.75">
       <c r="A51" s="4" t="s">
         <v>84</v>
       </c>
@@ -4729,7 +4735,7 @@
       <c r="T51" s="6"/>
       <c r="U51" s="6"/>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21">
       <c r="A52" s="4" t="s">
         <v>87</v>
       </c>
@@ -4790,7 +4796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21">
       <c r="A53" s="37" t="s">
         <v>113</v>
       </c>
@@ -4843,7 +4849,7 @@
       <c r="T53" s="37"/>
       <c r="U53" s="37"/>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21">
       <c r="A54" s="4" t="s">
         <v>113</v>
       </c>
@@ -4896,7 +4902,7 @@
       <c r="T54" s="6"/>
       <c r="U54" s="6"/>
     </row>
-    <row r="55" spans="1:21" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21" ht="17.25">
       <c r="A55" s="4" t="s">
         <v>117</v>
       </c>
@@ -4955,7 +4961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:21" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21" ht="17.25">
       <c r="A56" s="4" t="s">
         <v>117</v>
       </c>
@@ -5008,7 +5014,7 @@
       <c r="T56" s="6"/>
       <c r="U56" s="6"/>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21">
       <c r="A57" s="40" t="s">
         <v>122</v>
       </c>
@@ -5061,7 +5067,7 @@
       <c r="T57" s="40"/>
       <c r="U57" s="40"/>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21">
       <c r="A58" s="40" t="s">
         <v>122</v>
       </c>
@@ -5114,7 +5120,7 @@
       <c r="T58" s="40"/>
       <c r="U58" s="40"/>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21">
       <c r="A59" s="4" t="s">
         <v>50</v>
       </c>
@@ -5175,7 +5181,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21">
       <c r="A60" s="4" t="s">
         <v>50</v>
       </c>
@@ -5236,7 +5242,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21">
       <c r="A61" s="4" t="s">
         <v>50</v>
       </c>
@@ -5289,7 +5295,7 @@
       <c r="T61" s="4"/>
       <c r="U61" s="4"/>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21">
       <c r="A62" s="4" t="s">
         <v>50</v>
       </c>
@@ -5342,7 +5348,7 @@
       <c r="T62" s="4"/>
       <c r="U62" s="4"/>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21">
       <c r="A63" s="4" t="s">
         <v>50</v>
       </c>
@@ -5395,7 +5401,7 @@
       <c r="T63" s="4"/>
       <c r="U63" s="4"/>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21">
       <c r="A64" s="4" t="s">
         <v>50</v>
       </c>
@@ -5448,7 +5454,7 @@
       <c r="T64" s="4"/>
       <c r="U64" s="4"/>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21">
       <c r="A65" s="115" t="s">
         <v>50</v>
       </c>
@@ -5501,7 +5507,7 @@
       <c r="T65" s="4"/>
       <c r="U65" s="4"/>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21">
       <c r="A66" s="4" t="s">
         <v>50</v>
       </c>
@@ -5554,7 +5560,7 @@
       <c r="T66" s="4"/>
       <c r="U66" s="4"/>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21">
       <c r="A67" s="118" t="s">
         <v>131</v>
       </c>
@@ -5603,7 +5609,7 @@
       <c r="T67" s="46"/>
       <c r="U67" s="46"/>
     </row>
-    <row r="68" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" ht="16.5">
       <c r="A68" s="118" t="s">
         <v>133</v>
       </c>
@@ -5656,7 +5662,7 @@
       <c r="T68" s="46"/>
       <c r="U68" s="46"/>
     </row>
-    <row r="69" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" ht="16.5">
       <c r="A69" s="121" t="s">
         <v>135</v>
       </c>
@@ -5709,7 +5715,7 @@
       <c r="T69" s="46"/>
       <c r="U69" s="46"/>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21">
       <c r="A70" s="118" t="s">
         <v>138</v>
       </c>
@@ -5762,7 +5768,7 @@
       <c r="T70" s="46"/>
       <c r="U70" s="46"/>
     </row>
-    <row r="71" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" ht="16.5">
       <c r="A71" s="121" t="s">
         <v>139</v>
       </c>
@@ -5815,7 +5821,7 @@
       <c r="T71" s="46"/>
       <c r="U71" s="46"/>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21">
       <c r="A72" s="1" t="s">
         <v>141</v>
       </c>
@@ -5868,7 +5874,7 @@
       <c r="T72" s="6"/>
       <c r="U72" s="6"/>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21">
       <c r="A73" s="1" t="s">
         <v>141</v>
       </c>
@@ -5921,7 +5927,7 @@
       <c r="T73" s="6"/>
       <c r="U73" s="6"/>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21">
       <c r="A74" s="1" t="s">
         <v>141</v>
       </c>
@@ -5974,7 +5980,7 @@
       <c r="T74" s="6"/>
       <c r="U74" s="6"/>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21">
       <c r="A75" s="1" t="s">
         <v>141</v>
       </c>
@@ -6027,7 +6033,7 @@
       <c r="T75" s="6"/>
       <c r="U75" s="6"/>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21">
       <c r="A76" s="1" t="s">
         <v>141</v>
       </c>
@@ -6080,7 +6086,7 @@
       <c r="T76" s="6"/>
       <c r="U76" s="6"/>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21">
       <c r="A77" s="1" t="s">
         <v>141</v>
       </c>
@@ -6133,7 +6139,7 @@
       <c r="T77" s="6"/>
       <c r="U77" s="6"/>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21">
       <c r="A78" s="43" t="s">
         <v>141</v>
       </c>
@@ -6186,7 +6192,7 @@
       <c r="T78" s="6"/>
       <c r="U78" s="6"/>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21">
       <c r="A79" s="1" t="s">
         <v>141</v>
       </c>
@@ -6239,7 +6245,7 @@
       <c r="T79" s="6"/>
       <c r="U79" s="6"/>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21">
       <c r="A80" s="1" t="s">
         <v>141</v>
       </c>
@@ -6292,7 +6298,7 @@
       <c r="T80" s="6"/>
       <c r="U80" s="6"/>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21">
       <c r="A81" s="1" t="s">
         <v>141</v>
       </c>
@@ -6345,7 +6351,7 @@
       <c r="T81" s="6"/>
       <c r="U81" s="6"/>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21">
       <c r="A82" s="1" t="s">
         <v>150</v>
       </c>
@@ -6398,7 +6404,7 @@
       <c r="T82" s="6"/>
       <c r="U82" s="6"/>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21">
       <c r="A83" s="1" t="s">
         <v>150</v>
       </c>
@@ -6451,7 +6457,7 @@
       <c r="T83" s="6"/>
       <c r="U83" s="6"/>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21">
       <c r="A84" s="1" t="s">
         <v>153</v>
       </c>
@@ -6504,7 +6510,7 @@
       <c r="T84" s="6"/>
       <c r="U84" s="6"/>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21">
       <c r="A85" s="1" t="s">
         <v>153</v>
       </c>
@@ -6557,7 +6563,7 @@
       <c r="T85" s="6"/>
       <c r="U85" s="6"/>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21">
       <c r="A86" s="1" t="s">
         <v>153</v>
       </c>
@@ -6610,7 +6616,7 @@
       <c r="T86" s="6"/>
       <c r="U86" s="6"/>
     </row>
-    <row r="87" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21" ht="15.75">
       <c r="A87" s="1" t="s">
         <v>156</v>
       </c>
@@ -6663,7 +6669,7 @@
       <c r="T87" s="6"/>
       <c r="U87" s="6"/>
     </row>
-    <row r="88" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" ht="15.75">
       <c r="A88" s="1" t="s">
         <v>156</v>
       </c>
@@ -6716,7 +6722,7 @@
       <c r="T88" s="6"/>
       <c r="U88" s="6"/>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21">
       <c r="A89" s="1" t="s">
         <v>158</v>
       </c>
@@ -6769,7 +6775,7 @@
       <c r="T89" s="6"/>
       <c r="U89" s="6"/>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21">
       <c r="A90" s="1" t="s">
         <v>161</v>
       </c>
@@ -6822,7 +6828,7 @@
       <c r="T90" s="6"/>
       <c r="U90" s="6"/>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21">
       <c r="A91" s="1" t="s">
         <v>164</v>
       </c>
@@ -6875,7 +6881,7 @@
       <c r="T91" s="6"/>
       <c r="U91" s="6"/>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21">
       <c r="A92" s="130" t="s">
         <v>166</v>
       </c>
@@ -6928,7 +6934,7 @@
       <c r="T92" s="6"/>
       <c r="U92" s="6"/>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21">
       <c r="A93" s="130" t="s">
         <v>166</v>
       </c>
@@ -6981,7 +6987,7 @@
       <c r="T93" s="6"/>
       <c r="U93" s="6"/>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21">
       <c r="A94" s="1" t="s">
         <v>170</v>
       </c>
@@ -7034,7 +7040,7 @@
       <c r="T94" s="6"/>
       <c r="U94" s="6"/>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21">
       <c r="A95" s="1" t="s">
         <v>170</v>
       </c>
@@ -7087,7 +7093,7 @@
       <c r="T95" s="6"/>
       <c r="U95" s="6"/>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21">
       <c r="A96" s="1" t="s">
         <v>173</v>
       </c>
@@ -7140,7 +7146,7 @@
       <c r="T96" s="46"/>
       <c r="U96" s="6"/>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21">
       <c r="A97" s="1" t="s">
         <v>176</v>
       </c>
@@ -7193,7 +7199,7 @@
       <c r="T97" s="6"/>
       <c r="U97" s="6"/>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21">
       <c r="A98" s="1" t="s">
         <v>176</v>
       </c>
@@ -7246,7 +7252,7 @@
       <c r="T98" s="6"/>
       <c r="U98" s="6"/>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21">
       <c r="A99" s="1" t="s">
         <v>176</v>
       </c>
@@ -7299,7 +7305,7 @@
       <c r="T99" s="6"/>
       <c r="U99" s="6"/>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21">
       <c r="A100" s="1" t="s">
         <v>87</v>
       </c>
@@ -7352,7 +7358,7 @@
       <c r="T100" s="6"/>
       <c r="U100" s="6"/>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21">
       <c r="A101" s="1" t="s">
         <v>180</v>
       </c>
@@ -7407,7 +7413,7 @@
       <c r="T101" s="6"/>
       <c r="U101" s="6"/>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:21">
       <c r="A102" s="1" t="s">
         <v>150</v>
       </c>
@@ -7460,7 +7466,7 @@
       <c r="T102" s="6"/>
       <c r="U102" s="6"/>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:21">
       <c r="A103" s="1" t="s">
         <v>150</v>
       </c>
@@ -7513,7 +7519,7 @@
       <c r="T103" s="6"/>
       <c r="U103" s="6"/>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:21">
       <c r="A104" s="1" t="s">
         <v>150</v>
       </c>
@@ -7566,7 +7572,7 @@
       <c r="T104" s="6"/>
       <c r="U104" s="6"/>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21">
       <c r="A105" s="1" t="s">
         <v>150</v>
       </c>
@@ -7619,7 +7625,7 @@
       <c r="T105" s="6"/>
       <c r="U105" s="6"/>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:21">
       <c r="A106" s="1" t="s">
         <v>185</v>
       </c>
@@ -7672,7 +7678,7 @@
       <c r="T106" s="6"/>
       <c r="U106" s="6"/>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:21">
       <c r="A107" s="135" t="s">
         <v>185</v>
       </c>
@@ -7725,7 +7731,7 @@
       <c r="T107" s="6"/>
       <c r="U107" s="6"/>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:21">
       <c r="A108" s="1" t="s">
         <v>164</v>
       </c>
@@ -7774,7 +7780,7 @@
       <c r="T108" s="6"/>
       <c r="U108" s="6"/>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:21">
       <c r="A109" s="1" t="s">
         <v>189</v>
       </c>
@@ -7823,7 +7829,7 @@
       <c r="T109" s="6"/>
       <c r="U109" s="6"/>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:21">
       <c r="A110" s="1" t="s">
         <v>189</v>
       </c>
@@ -7872,7 +7878,7 @@
       <c r="T110" s="6"/>
       <c r="U110" s="6"/>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:21">
       <c r="A111" s="140" t="s">
         <v>189</v>
       </c>
@@ -7921,7 +7927,7 @@
       <c r="T111" s="13"/>
       <c r="U111" s="13"/>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:21">
       <c r="A112" s="140" t="s">
         <v>189</v>
       </c>
@@ -7970,7 +7976,7 @@
       <c r="T112" s="13"/>
       <c r="U112" s="13"/>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:21">
       <c r="A113" s="140" t="s">
         <v>189</v>
       </c>
@@ -8019,7 +8025,7 @@
       <c r="T113" s="13"/>
       <c r="U113" s="13"/>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:21">
       <c r="A114" s="140" t="s">
         <v>189</v>
       </c>
@@ -8068,7 +8074,7 @@
       <c r="T114" s="13"/>
       <c r="U114" s="13"/>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:21">
       <c r="A115" s="1" t="s">
         <v>189</v>
       </c>
@@ -8117,7 +8123,7 @@
       <c r="T115" s="6"/>
       <c r="U115" s="6"/>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:21">
       <c r="A116" s="1" t="s">
         <v>189</v>
       </c>
@@ -8166,7 +8172,7 @@
       <c r="T116" s="6"/>
       <c r="U116" s="6"/>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:21">
       <c r="A117" s="1" t="s">
         <v>189</v>
       </c>
@@ -8215,7 +8221,7 @@
       <c r="T117" s="6"/>
       <c r="U117" s="6"/>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:21">
       <c r="A118" s="53" t="s">
         <v>105</v>
       </c>
@@ -8264,7 +8270,7 @@
       <c r="T118" s="6"/>
       <c r="U118" s="6"/>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:21">
       <c r="A119" s="53" t="s">
         <v>105</v>
       </c>
@@ -8313,7 +8319,7 @@
       <c r="T119" s="6"/>
       <c r="U119" s="6"/>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:21">
       <c r="A120" s="53" t="s">
         <v>105</v>
       </c>
@@ -8362,7 +8368,7 @@
       <c r="T120" s="6"/>
       <c r="U120" s="6"/>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:21">
       <c r="A121" s="53" t="s">
         <v>105</v>
       </c>
@@ -8411,7 +8417,7 @@
       <c r="T121" s="6"/>
       <c r="U121" s="6"/>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:21">
       <c r="A122" s="53" t="s">
         <v>105</v>
       </c>
@@ -8460,7 +8466,7 @@
       <c r="T122" s="6"/>
       <c r="U122" s="6"/>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:21">
       <c r="A123" s="6" t="s">
         <v>197</v>
       </c>
@@ -8509,7 +8515,7 @@
       <c r="T123" s="6"/>
       <c r="U123" s="6"/>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:21">
       <c r="A124" s="53" t="s">
         <v>200</v>
       </c>
@@ -8558,7 +8564,7 @@
       <c r="T124" s="6"/>
       <c r="U124" s="6"/>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:21">
       <c r="A125" s="53" t="s">
         <v>200</v>
       </c>
@@ -8607,7 +8613,7 @@
       <c r="T125" s="6"/>
       <c r="U125" s="6"/>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:21">
       <c r="A126" s="53" t="s">
         <v>204</v>
       </c>
@@ -8656,7 +8662,7 @@
       <c r="T126" s="6"/>
       <c r="U126" s="6"/>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:21">
       <c r="A127" s="53" t="s">
         <v>207</v>
       </c>
@@ -8705,7 +8711,7 @@
       <c r="T127" s="6"/>
       <c r="U127" s="6"/>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:21">
       <c r="A128" s="1" t="s">
         <v>210</v>
       </c>
@@ -8754,7 +8760,7 @@
       <c r="T128" s="6"/>
       <c r="U128" s="6"/>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:21">
       <c r="A129" s="53" t="s">
         <v>35</v>
       </c>
@@ -8803,7 +8809,7 @@
       <c r="T129" s="6"/>
       <c r="U129" s="6"/>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:21">
       <c r="A130" s="53" t="s">
         <v>35</v>
       </c>
@@ -8852,7 +8858,7 @@
       <c r="T130" s="6"/>
       <c r="U130" s="6"/>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:21">
       <c r="A131" s="53" t="s">
         <v>214</v>
       </c>
@@ -8901,7 +8907,7 @@
       <c r="T131" s="6"/>
       <c r="U131" s="6"/>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:21">
       <c r="A132" s="53" t="s">
         <v>214</v>
       </c>
@@ -8950,7 +8956,7 @@
       <c r="T132" s="6"/>
       <c r="U132" s="6"/>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:21">
       <c r="A133" s="147" t="s">
         <v>210</v>
       </c>
@@ -8999,7 +9005,7 @@
       <c r="T133" s="6"/>
       <c r="U133" s="6"/>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:21">
       <c r="A134" s="147" t="s">
         <v>210</v>
       </c>
@@ -9048,7 +9054,7 @@
       <c r="T134" s="6"/>
       <c r="U134" s="6"/>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:21">
       <c r="A135" s="147" t="s">
         <v>210</v>
       </c>
@@ -9097,7 +9103,7 @@
       <c r="T135" s="6"/>
       <c r="U135" s="6"/>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:21">
       <c r="A136" s="147" t="s">
         <v>210</v>
       </c>
@@ -9146,7 +9152,7 @@
       <c r="T136" s="6"/>
       <c r="U136" s="6"/>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:21">
       <c r="A137" s="147" t="s">
         <v>210</v>
       </c>
@@ -9195,7 +9201,7 @@
       <c r="T137" s="6"/>
       <c r="U137" s="6"/>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:21" ht="27">
       <c r="A138" s="147" t="s">
         <v>210</v>
       </c>
@@ -9240,11 +9246,13 @@
         <v>233</v>
       </c>
       <c r="R138" s="6"/>
-      <c r="S138" s="83"/>
+      <c r="S138" s="158">
+        <v>1001915</v>
+      </c>
       <c r="T138" s="6"/>
       <c r="U138" s="6"/>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:21">
       <c r="A139" s="31" t="s">
         <v>210</v>
       </c>
@@ -9293,7 +9301,7 @@
       <c r="T139" s="6"/>
       <c r="U139" s="6"/>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:21">
       <c r="A140" s="31" t="s">
         <v>210</v>
       </c>
@@ -9342,7 +9350,7 @@
       <c r="T140" s="6"/>
       <c r="U140" s="6"/>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:21">
       <c r="A141" s="31" t="s">
         <v>210</v>
       </c>
@@ -9391,7 +9399,7 @@
       <c r="T141" s="6"/>
       <c r="U141" s="6"/>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:21">
       <c r="A142" s="150" t="s">
         <v>210</v>
       </c>
@@ -9440,7 +9448,7 @@
       <c r="T142" s="6"/>
       <c r="U142" s="6"/>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:21">
       <c r="A143" s="150" t="s">
         <v>210</v>
       </c>
@@ -9489,7 +9497,7 @@
       <c r="T143" s="6"/>
       <c r="U143" s="6"/>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:21">
       <c r="A144" s="150" t="s">
         <v>210</v>
       </c>
@@ -9538,7 +9546,7 @@
       <c r="T144" s="6"/>
       <c r="U144" s="6"/>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:21">
       <c r="A145" s="150" t="s">
         <v>210</v>
       </c>
@@ -9587,7 +9595,7 @@
       <c r="T145" s="6"/>
       <c r="U145" s="6"/>
     </row>
-    <row r="146" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:21" ht="15.75">
       <c r="A146" s="150" t="s">
         <v>222</v>
       </c>
@@ -9636,7 +9644,7 @@
       <c r="T146" s="6"/>
       <c r="U146" s="6"/>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:21">
       <c r="A147" s="4" t="s">
         <v>75</v>
       </c>
@@ -9685,7 +9693,7 @@
       <c r="T147" s="6"/>
       <c r="U147" s="6"/>
     </row>
-    <row r="148" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:21" ht="15.75">
       <c r="A148" s="4" t="s">
         <v>42</v>
       </c>
@@ -9734,7 +9742,7 @@
       <c r="T148" s="6"/>
       <c r="U148" s="6"/>
     </row>
-    <row r="149" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:21" ht="15.75">
       <c r="A149" s="4" t="s">
         <v>42</v>
       </c>
@@ -9783,7 +9791,7 @@
       <c r="T149" s="6"/>
       <c r="U149" s="6"/>
     </row>
-    <row r="150" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:21" ht="15.75">
       <c r="A150" s="4" t="s">
         <v>42</v>
       </c>
@@ -9832,7 +9840,7 @@
       <c r="T150" s="6"/>
       <c r="U150" s="6"/>
     </row>
-    <row r="151" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:21" ht="15.75">
       <c r="A151" s="4" t="s">
         <v>42</v>
       </c>
@@ -9881,7 +9889,7 @@
       <c r="T151" s="6"/>
       <c r="U151" s="6"/>
     </row>
-    <row r="152" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:21" ht="15.75">
       <c r="A152" s="4" t="s">
         <v>42</v>
       </c>
@@ -9930,7 +9938,7 @@
       <c r="T152" s="6"/>
       <c r="U152" s="6"/>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:21">
       <c r="A153" s="4" t="s">
         <v>42</v>
       </c>
@@ -9979,7 +9987,7 @@
       <c r="T153" s="6"/>
       <c r="U153" s="6"/>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:21">
       <c r="A154" s="6" t="s">
         <v>227</v>
       </c>
@@ -10024,7 +10032,7 @@
       <c r="T154" s="6"/>
       <c r="U154" s="6"/>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:21">
       <c r="A155" s="6" t="s">
         <v>227</v>
       </c>
@@ -10069,7 +10077,7 @@
       <c r="T155" s="6"/>
       <c r="U155" s="6"/>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:21">
       <c r="A156" s="4" t="s">
         <v>230</v>
       </c>
@@ -10118,7 +10126,7 @@
       <c r="T156" s="6"/>
       <c r="U156" s="6"/>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:21">
       <c r="K157" s="70"/>
       <c r="S157" s="78"/>
     </row>
